--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R57181186f32541b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="Rb79fb8f2c99e40b0"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -4010,11 +4010,11 @@
       <x:c r="AL16" s="6" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="AM16" s="6" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="AN16" s="6" t="s">
-        <x:v>68</x:v>
+      <x:c r="AM16" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN16" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AO16" s="6" t="s">
         <x:v>68</x:v>
@@ -8032,8 +8032,8 @@
       <x:c r="AM38" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN38" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN38" s="6" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="AO38" t="s">
         <x:v>1</x:v>
@@ -12433,8 +12433,8 @@
       <x:c r="AM62" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN62" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN62" s="6" t="s">
+        <x:v>68</x:v>
       </x:c>
       <x:c r="AO62" t="s">
         <x:v>1</x:v>

--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R064cada432c24ff4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R417c63d479c04047"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R08fca6251a1a49a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R39eba9c3c1824f02"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1215,6 +1215,12 @@
     <x:t>Empty set</x:t>
   </x:si>
   <x:si>
+    <x:t>Split surrogates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“.” matches the components of surrogate pairs</x:t>
+  </x:si>
+  <x:si>
     <x:t>Fuzzy matching</x:t>
   </x:si>
   <x:si>
@@ -41122,29 +41128,29 @@
       <x:c r="B210" s="5" t="s">
         <x:v>396</x:v>
       </x:c>
-      <x:c r="C210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J210" t="s">
-        <x:v>1</x:v>
+      <x:c r="C210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="F210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="G210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="I210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="J210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="K210" t="s">
         <x:v>1</x:v>
@@ -41152,44 +41158,44 @@
       <x:c r="L210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y210" t="s">
-        <x:v>1</x:v>
+      <x:c r="M210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="O210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="P210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="Q210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="R210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="S210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="T210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="U210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="V210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="W210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="X210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="Y210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="Z210" t="s">
         <x:v>1</x:v>
@@ -41224,8 +41230,8 @@
       <x:c r="AJ210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK210" t="s">
-        <x:v>1</x:v>
+      <x:c r="AK210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="AL210" t="s">
         <x:v>1</x:v>
@@ -41233,29 +41239,29 @@
       <x:c r="AM210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN210" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="AO210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AP210" t="s">
-        <x:v>1</x:v>
+      <x:c r="AP210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="AQ210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AR210" t="s">
-        <x:v>1</x:v>
+      <x:c r="AR210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="AS210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU210" s="6" t="s">
-        <x:v>73</x:v>
+      <x:c r="AT210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="AU210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV210" t="s">
         <x:v>1</x:v>
@@ -41287,11 +41293,11 @@
       <x:c r="BE210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BF210" s="6" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="BG210" s="6" t="s">
-        <x:v>73</x:v>
+      <x:c r="BF210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH210" t="s">
         <x:v>1</x:v>
@@ -41302,11 +41308,11 @@
       <x:c r="BJ210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL210" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK210" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="BL210" s="6" t="s">
+        <x:v>73</x:v>
       </x:c>
       <x:c r="BM210" s="6" t="s">
         <x:v>73</x:v>
@@ -41319,205 +41325,408 @@
       </x:c>
     </x:row>
     <x:row r="211">
-      <x:c r="A211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO211" s="7" t="s">
+      <x:c r="A211" s="4" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B211" s="5" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="C211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU211" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="AV211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF211" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="BG211" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="BH211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM211" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="BN211" s="6" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="BO211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212">
+      <x:c r="A212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN212" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO212" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="Ra914580c2e504699"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="Rae3e8619cfde47be"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -481,7 +481,7 @@
     <x:t>Generic escape</x:t>
   </x:si>
   <x:si>
-    <x:t>Escapes inside […]</x:t>
+    <x:t>Escapes inside […] sets</x:t>
   </x:si>
   <x:si>
     <x:t>[\a]</x:t>
@@ -670,10 +670,10 @@
     <x:t>[:class:]</x:t>
   </x:si>
   <x:si>
-    <x:t>Character class</x:t>
+    <x:t>Character class outside sets</x:t>
   </x:si>
   <x:si>
-    <x:t>Classes inside […]</x:t>
+    <x:t>Classes inside […] sets</x:t>
   </x:si>
   <x:si>
     <x:t>[\d], [\D]</x:t>
@@ -715,6 +715,9 @@
     <x:t>[[:class:]]</x:t>
   </x:si>
   <x:si>
+    <x:t>Character class</x:t>
+  </x:si>
+  <x:si>
     <x:t>[[=elem=]]</x:t>
   </x:si>
   <x:si>
@@ -727,7 +730,7 @@
     <x:t>Collating symbol</x:t>
   </x:si>
   <x:si>
-    <x:t>Operators inside […]</x:t>
+    <x:t>Operators inside […] sets</x:t>
   </x:si>
   <x:si>
     <x:t>[[…] op […]]</x:t>
@@ -871,7 +874,7 @@
     <x:t>Boundary between graphemes</x:t>
   </x:si>
   <x:si>
-    <x:t>Named groups and backreferences</x:t>
+    <x:t>Named groups, subroutines and backreferences</x:t>
   </x:si>
   <x:si>
     <x:t>(?'name'…)</x:t>
@@ -985,7 +988,7 @@
     <x:t>(?:…)</x:t>
   </x:si>
   <x:si>
-    <x:t>Noncapturing group</x:t>
+    <x:t>Non-capturing group</x:t>
   </x:si>
   <x:si>
     <x:t>(?=…)</x:t>
@@ -1040,12 +1043,6 @@
   </x:si>
   <x:si>
     <x:t>Absent operator</x:t>
-  </x:si>
-  <x:si>
-    <x:t>( ? … )</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allow spaces like '( ? &lt; name &gt;…)'</x:t>
   </x:si>
   <x:si>
     <x:t>Recursive patterns</x:t>
@@ -1112,12 +1109,6 @@
   </x:si>
   <x:si>
     <x:t>Between n and m times: \{n\}, \{n,\}, \{n,m\}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{ n, m } </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allow spaces within {…} or \{…\}</x:t>
   </x:si>
   <x:si>
     <x:t>{,m}, \{,m\}</x:t>
@@ -1210,25 +1201,34 @@
     <x:t>Empty construct</x:t>
   </x:si>
   <x:si>
-    <x:t>(? )</x:t>
-  </x:si>
-  <x:si>
     <x:t>[]</x:t>
   </x:si>
   <x:si>
     <x:t>Empty set</x:t>
   </x:si>
   <x:si>
-    <x:t>Split surrogates</x:t>
+    <x:t>Unicode</x:t>
   </x:si>
   <x:si>
-    <x:t>“.” matches the components of surrogate pairs</x:t>
+    <x:t>Supports Unicode characters, not just ASCII</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Surrogates</x:t>
+  </x:si>
+  <x:si>
+    <x:t>“.” matches surrogate pairs as one entity (no split)</x:t>
   </x:si>
   <x:si>
     <x:t>Fuzzy matching</x:t>
   </x:si>
   <x:si>
     <x:t>Approximate matching using special patterns or parameters</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No hang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No catastrophic infinite matching, no timeout errors</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -22082,7 +22082,7 @@
         <x:v>227</x:v>
       </x:c>
       <x:c r="B107" s="5" t="s">
-        <x:v>213</x:v>
+        <x:v>228</x:v>
       </x:c>
       <x:c r="C107" t="s">
         <x:v>1</x:v>
@@ -22285,10 +22285,10 @@
     </x:row>
     <x:row r="108">
       <x:c r="A108" s="4" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B108" s="5" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C108" t="s">
         <x:v>1</x:v>
@@ -22491,10 +22491,10 @@
     </x:row>
     <x:row r="109">
       <x:c r="A109" s="4" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B109" s="5" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="C109" t="s">
         <x:v>1</x:v>
@@ -22697,7 +22697,7 @@
     </x:row>
     <x:row r="110">
       <x:c r="A110" s="3" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="BP110" t="s">
         <x:v>1</x:v>
@@ -22705,10 +22705,10 @@
     </x:row>
     <x:row r="111">
       <x:c r="A111" s="4" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="B111" s="5" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="C111" t="s">
         <x:v>1</x:v>
@@ -22911,10 +22911,10 @@
     </x:row>
     <x:row r="112">
       <x:c r="A112" s="4" t="s">
+        <x:v>236</x:v>
+      </x:c>
+      <x:c r="B112" s="5" t="s">
         <x:v>235</x:v>
-      </x:c>
-      <x:c r="B112" s="5" t="s">
-        <x:v>234</x:v>
       </x:c>
       <x:c r="C112" t="s">
         <x:v>1</x:v>
@@ -23117,10 +23117,10 @@
     </x:row>
     <x:row r="113">
       <x:c r="A113" s="4" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B113" s="5" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C113" t="s">
         <x:v>1</x:v>
@@ -23323,10 +23323,10 @@
     </x:row>
     <x:row r="114">
       <x:c r="A114" s="4" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B114" s="5" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C114" t="s">
         <x:v>1</x:v>
@@ -23529,10 +23529,10 @@
     </x:row>
     <x:row r="115">
       <x:c r="A115" s="4" t="s">
+        <x:v>241</x:v>
+      </x:c>
+      <x:c r="B115" s="5" t="s">
         <x:v>240</x:v>
-      </x:c>
-      <x:c r="B115" s="5" t="s">
-        <x:v>239</x:v>
       </x:c>
       <x:c r="C115" t="s">
         <x:v>1</x:v>
@@ -23735,10 +23735,10 @@
     </x:row>
     <x:row r="116">
       <x:c r="A116" s="4" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B116" s="5" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="C116" t="s">
         <x:v>1</x:v>
@@ -23941,10 +23941,10 @@
     </x:row>
     <x:row r="117">
       <x:c r="A117" s="4" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="B117" s="5" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C117" t="s">
         <x:v>1</x:v>
@@ -24147,10 +24147,10 @@
     </x:row>
     <x:row r="118">
       <x:c r="A118" s="4" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B118" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C118" t="s">
         <x:v>1</x:v>
@@ -24353,10 +24353,10 @@
     </x:row>
     <x:row r="119">
       <x:c r="A119" s="4" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B119" s="5" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C119" t="s">
         <x:v>1</x:v>
@@ -24559,10 +24559,10 @@
     </x:row>
     <x:row r="120">
       <x:c r="A120" s="4" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="B120" s="5" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="C120" t="s">
         <x:v>1</x:v>
@@ -24765,10 +24765,10 @@
     </x:row>
     <x:row r="121">
       <x:c r="A121" s="4" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="B121" s="5" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="C121" t="s">
         <x:v>1</x:v>
@@ -24971,10 +24971,10 @@
     </x:row>
     <x:row r="122">
       <x:c r="A122" s="4" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B122" s="5" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="C122" t="s">
         <x:v>1</x:v>
@@ -25177,7 +25177,7 @@
     </x:row>
     <x:row r="123">
       <x:c r="A123" s="3" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="BP123" t="s">
         <x:v>1</x:v>
@@ -25185,10 +25185,10 @@
     </x:row>
     <x:row r="124">
       <x:c r="A124" s="4" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="B124" s="5" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="C124" s="6" t="s">
         <x:v>74</x:v>
@@ -25391,10 +25391,10 @@
     </x:row>
     <x:row r="125">
       <x:c r="A125" s="4" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B125" s="5" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C125" s="6" t="s">
         <x:v>74</x:v>
@@ -25597,10 +25597,10 @@
     </x:row>
     <x:row r="126">
       <x:c r="A126" s="4" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B126" s="5" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="C126" s="6" t="s">
         <x:v>74</x:v>
@@ -25803,10 +25803,10 @@
     </x:row>
     <x:row r="127">
       <x:c r="A127" s="4" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="B127" s="5" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="C127" s="6" t="s">
         <x:v>74</x:v>
@@ -26009,10 +26009,10 @@
     </x:row>
     <x:row r="128">
       <x:c r="A128" s="4" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="B128" s="5" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="C128" s="6" t="s">
         <x:v>74</x:v>
@@ -26215,10 +26215,10 @@
     </x:row>
     <x:row r="129">
       <x:c r="A129" s="4" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B129" s="5" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C129" s="6" t="s">
         <x:v>74</x:v>
@@ -26421,10 +26421,10 @@
     </x:row>
     <x:row r="130">
       <x:c r="A130" s="4" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="B130" s="5" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="C130" s="6" t="s">
         <x:v>74</x:v>
@@ -26627,10 +26627,10 @@
     </x:row>
     <x:row r="131">
       <x:c r="A131" s="4" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B131" s="5" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="C131" t="s">
         <x:v>1</x:v>
@@ -26833,10 +26833,10 @@
     </x:row>
     <x:row r="132">
       <x:c r="A132" s="4" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B132" s="5" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C132" t="s">
         <x:v>1</x:v>
@@ -27039,10 +27039,10 @@
     </x:row>
     <x:row r="133">
       <x:c r="A133" s="4" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B133" s="5" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C133" t="s">
         <x:v>1</x:v>
@@ -27245,10 +27245,10 @@
     </x:row>
     <x:row r="134">
       <x:c r="A134" s="4" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="B134" s="5" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="C134" t="s">
         <x:v>1</x:v>
@@ -27451,10 +27451,10 @@
     </x:row>
     <x:row r="135">
       <x:c r="A135" s="4" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B135" s="5" t="s">
         <x:v>275</x:v>
-      </x:c>
-      <x:c r="B135" s="5" t="s">
-        <x:v>274</x:v>
       </x:c>
       <x:c r="C135" t="s">
         <x:v>1</x:v>
@@ -27657,10 +27657,10 @@
     </x:row>
     <x:row r="136">
       <x:c r="A136" s="4" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="B136" s="5" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="C136" t="s">
         <x:v>1</x:v>
@@ -27863,10 +27863,10 @@
     </x:row>
     <x:row r="137">
       <x:c r="A137" s="4" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="B137" s="5" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="C137" t="s">
         <x:v>1</x:v>
@@ -28069,7 +28069,7 @@
     </x:row>
     <x:row r="138">
       <x:c r="A138" s="3" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="BP138" t="s">
         <x:v>1</x:v>
@@ -28077,10 +28077,10 @@
     </x:row>
     <x:row r="139">
       <x:c r="A139" s="4" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="B139" s="5" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C139" s="6" t="s">
         <x:v>74</x:v>
@@ -28283,10 +28283,10 @@
     </x:row>
     <x:row r="140">
       <x:c r="A140" s="4" t="s">
+        <x:v>284</x:v>
+      </x:c>
+      <x:c r="B140" s="5" t="s">
         <x:v>283</x:v>
-      </x:c>
-      <x:c r="B140" s="5" t="s">
-        <x:v>282</x:v>
       </x:c>
       <x:c r="C140" s="6" t="s">
         <x:v>74</x:v>
@@ -28489,10 +28489,10 @@
     </x:row>
     <x:row r="141">
       <x:c r="A141" s="4" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="B141" s="5" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="C141" t="s">
         <x:v>1</x:v>
@@ -28695,10 +28695,10 @@
     </x:row>
     <x:row r="142">
       <x:c r="A142" s="4" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B142" s="5" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C142" t="s">
         <x:v>1</x:v>
@@ -28901,10 +28901,10 @@
     </x:row>
     <x:row r="143">
       <x:c r="A143" s="4" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="B143" s="5" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
       <x:c r="C143" s="6" t="s">
         <x:v>74</x:v>
@@ -29107,10 +29107,10 @@
     </x:row>
     <x:row r="144">
       <x:c r="A144" s="4" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="B144" s="5" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="C144" s="6" t="s">
         <x:v>74</x:v>
@@ -29313,10 +29313,10 @@
     </x:row>
     <x:row r="145">
       <x:c r="A145" s="4" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="B145" s="5" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="C145" s="6" t="s">
         <x:v>74</x:v>
@@ -29519,10 +29519,10 @@
     </x:row>
     <x:row r="146">
       <x:c r="A146" s="4" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="B146" s="5" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C146" s="6" t="s">
         <x:v>74</x:v>
@@ -29725,10 +29725,10 @@
     </x:row>
     <x:row r="147">
       <x:c r="A147" s="4" t="s">
+        <x:v>296</x:v>
+      </x:c>
+      <x:c r="B147" s="5" t="s">
         <x:v>295</x:v>
-      </x:c>
-      <x:c r="B147" s="5" t="s">
-        <x:v>294</x:v>
       </x:c>
       <x:c r="C147" s="6" t="s">
         <x:v>74</x:v>
@@ -29931,10 +29931,10 @@
     </x:row>
     <x:row r="148">
       <x:c r="A148" s="4" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="B148" s="5" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C148" t="s">
         <x:v>1</x:v>
@@ -30137,10 +30137,10 @@
     </x:row>
     <x:row r="149">
       <x:c r="A149" s="4" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="B149" s="5" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="C149" t="s">
         <x:v>1</x:v>
@@ -30343,10 +30343,10 @@
     </x:row>
     <x:row r="150">
       <x:c r="A150" s="4" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="B150" s="5" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="C150" t="s">
         <x:v>1</x:v>
@@ -30549,10 +30549,10 @@
     </x:row>
     <x:row r="151">
       <x:c r="A151" s="4" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B151" s="5" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C151" t="s">
         <x:v>1</x:v>
@@ -30755,10 +30755,10 @@
     </x:row>
     <x:row r="152">
       <x:c r="A152" s="4" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="B152" s="5" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="C152" t="s">
         <x:v>1</x:v>
@@ -30961,10 +30961,10 @@
     </x:row>
     <x:row r="153">
       <x:c r="A153" s="4" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
       <x:c r="B153" s="5" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C153" t="s">
         <x:v>1</x:v>
@@ -31167,10 +31167,10 @@
     </x:row>
     <x:row r="154">
       <x:c r="A154" s="4" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B154" s="5" t="s">
         <x:v>303</x:v>
-      </x:c>
-      <x:c r="B154" s="5" t="s">
-        <x:v>302</x:v>
       </x:c>
       <x:c r="C154" t="s">
         <x:v>1</x:v>
@@ -31373,10 +31373,10 @@
     </x:row>
     <x:row r="155">
       <x:c r="A155" s="4" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B155" s="5" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="C155" t="s">
         <x:v>1</x:v>
@@ -31579,10 +31579,10 @@
     </x:row>
     <x:row r="156">
       <x:c r="A156" s="4" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="B156" s="5" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="C156" t="s">
         <x:v>1</x:v>
@@ -31785,10 +31785,10 @@
     </x:row>
     <x:row r="157">
       <x:c r="A157" s="4" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B157" s="5" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
       <x:c r="C157" t="s">
         <x:v>1</x:v>
@@ -31991,10 +31991,10 @@
     </x:row>
     <x:row r="158">
       <x:c r="A158" s="4" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="B158" s="5" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="C158" t="s">
         <x:v>1</x:v>
@@ -32197,10 +32197,10 @@
     </x:row>
     <x:row r="159">
       <x:c r="A159" s="4" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B159" s="5" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="C159" t="s">
         <x:v>1</x:v>
@@ -32403,10 +32403,10 @@
     </x:row>
     <x:row r="160">
       <x:c r="A160" s="4" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="B160" s="5" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="C160" t="s">
         <x:v>1</x:v>
@@ -32609,10 +32609,10 @@
     </x:row>
     <x:row r="161">
       <x:c r="A161" s="4" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="B161" s="5" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="C161" t="s">
         <x:v>1</x:v>
@@ -32815,10 +32815,10 @@
     </x:row>
     <x:row r="162">
       <x:c r="A162" s="4" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="B162" s="5" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="C162" t="s">
         <x:v>1</x:v>
@@ -33021,7 +33021,7 @@
     </x:row>
     <x:row r="163">
       <x:c r="A163" s="3" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="BP163" t="s">
         <x:v>1</x:v>
@@ -33029,10 +33029,10 @@
     </x:row>
     <x:row r="164">
       <x:c r="A164" s="4" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="B164" s="5" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="C164" s="6" t="s">
         <x:v>74</x:v>
@@ -33235,10 +33235,10 @@
     </x:row>
     <x:row r="165">
       <x:c r="A165" s="4" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="B165" s="5" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
       <x:c r="C165" s="6" t="s">
         <x:v>74</x:v>
@@ -33441,10 +33441,10 @@
     </x:row>
     <x:row r="166">
       <x:c r="A166" s="4" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="B166" s="5" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="C166" s="6" t="s">
         <x:v>74</x:v>
@@ -33647,10 +33647,10 @@
     </x:row>
     <x:row r="167">
       <x:c r="A167" s="4" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="B167" s="5" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="C167" s="6" t="s">
         <x:v>74</x:v>
@@ -33853,10 +33853,10 @@
     </x:row>
     <x:row r="168">
       <x:c r="A168" s="4" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="B168" s="5" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="C168" s="6" t="s">
         <x:v>74</x:v>
@@ -34059,10 +34059,10 @@
     </x:row>
     <x:row r="169">
       <x:c r="A169" s="4" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="B169" s="5" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="C169" s="6" t="s">
         <x:v>74</x:v>
@@ -34265,10 +34265,10 @@
     </x:row>
     <x:row r="170">
       <x:c r="A170" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B170" s="5" t="s">
-        <x:v>330</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="C170" t="s">
         <x:v>1</x:v>
@@ -34471,10 +34471,10 @@
     </x:row>
     <x:row r="171">
       <x:c r="A171" s="4" t="s">
-        <x:v>331</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B171" s="5" t="s">
-        <x:v>332</x:v>
+        <x:v>333</x:v>
       </x:c>
       <x:c r="C171" t="s">
         <x:v>1</x:v>
@@ -34677,10 +34677,10 @@
     </x:row>
     <x:row r="172">
       <x:c r="A172" s="4" t="s">
-        <x:v>333</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B172" s="5" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C172" t="s">
         <x:v>1</x:v>
@@ -34883,10 +34883,10 @@
     </x:row>
     <x:row r="173">
       <x:c r="A173" s="4" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B173" s="5" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C173" t="s">
         <x:v>1</x:v>
@@ -35088,214 +35088,214 @@
       </x:c>
     </x:row>
     <x:row r="174">
-      <x:c r="A174" s="4" t="s">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="B174" s="5" t="s">
+      <x:c r="A174" s="3" t="s">
         <x:v>338</x:v>
-      </x:c>
-      <x:c r="C174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AX174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AY174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AZ174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BA174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BB174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BC174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BD174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH174" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BI174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN174" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO174" t="s">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="BP174" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
-      <x:c r="A175" s="3" t="s">
+      <x:c r="A175" s="4" t="s">
         <x:v>339</x:v>
+      </x:c>
+      <x:c r="B175" s="5" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="C175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="S175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI175" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO175" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BP175" t="s">
         <x:v>1</x:v>
@@ -35303,10 +35303,10 @@
     </x:row>
     <x:row r="176">
       <x:c r="A176" s="4" t="s">
-        <x:v>340</x:v>
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B176" s="5" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
       <x:c r="C176" t="s">
         <x:v>1</x:v>
@@ -35374,8 +35374,8 @@
       <x:c r="X176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y176" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y176" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Z176" t="s">
         <x:v>1</x:v>
@@ -35473,11 +35473,11 @@
       <x:c r="BE176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BF176" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG176" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BF176" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH176" t="s">
         <x:v>1</x:v>
@@ -35509,10 +35509,10 @@
     </x:row>
     <x:row r="177">
       <x:c r="A177" s="4" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B177" s="5" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C177" t="s">
         <x:v>1</x:v>
@@ -35580,8 +35580,8 @@
       <x:c r="X177" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y177" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Y177" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z177" t="s">
         <x:v>1</x:v>
@@ -35607,8 +35607,8 @@
       <x:c r="AG177" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH177" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AH177" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI177" t="s">
         <x:v>1</x:v>
@@ -35679,11 +35679,11 @@
       <x:c r="BE177" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BF177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG177" t="s">
-        <x:v>1</x:v>
+      <x:c r="BF177" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG177" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BH177" t="s">
         <x:v>1</x:v>
@@ -35715,10 +35715,10 @@
     </x:row>
     <x:row r="178">
       <x:c r="A178" s="4" t="s">
-        <x:v>344</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B178" s="5" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C178" t="s">
         <x:v>1</x:v>
@@ -35813,8 +35813,8 @@
       <x:c r="AG178" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH178" t="s">
-        <x:v>1</x:v>
+      <x:c r="AH178" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AI178" t="s">
         <x:v>1</x:v>
@@ -35921,11 +35921,11 @@
     </x:row>
     <x:row r="179">
       <x:c r="A179" s="4" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B179" s="5" t="s">
         <x:v>346</x:v>
       </x:c>
-      <x:c r="B179" s="5" t="s">
-        <x:v>347</x:v>
-      </x:c>
       <x:c r="C179" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -35959,20 +35959,20 @@
       <x:c r="M179" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N179" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O179" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P179" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q179" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R179" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="N179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R179" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S179" t="s">
         <x:v>1</x:v>
@@ -36019,14 +36019,14 @@
       <x:c r="AG179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH179" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AH179" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ179" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ179" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AK179" t="s">
         <x:v>1</x:v>
@@ -36126,222 +36126,222 @@
       </x:c>
     </x:row>
     <x:row r="180">
-      <x:c r="A180" s="4" t="s">
+      <x:c r="A180" s="3" t="s">
         <x:v>348</x:v>
-      </x:c>
-      <x:c r="B180" s="5" t="s">
-        <x:v>347</x:v>
-      </x:c>
-      <x:c r="C180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M180" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ180" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AK180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV180" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AW180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF180" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG180" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BH180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI180" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BJ180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO180" t="s">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="BP180" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
-      <x:c r="A181" s="3" t="s">
+      <x:c r="A181" s="4" t="s">
         <x:v>349</x:v>
       </x:c>
-      <x:c r="BP181" t="s">
-        <x:v>1</x:v>
+      <x:c r="B181" s="5" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="C181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="M181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="S181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="U181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="V181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="W181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="X181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Y181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Z181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AB181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AC181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AD181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AG181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AK181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AL181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AM181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AN181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AO181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AP181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AQ181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AR181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AS181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AT181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AU181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AV181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AX181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AY181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AZ181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BB181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BC181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BD181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BE181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BF181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BI181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BK181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BL181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BM181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BN181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BO181" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BP181" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
       <x:c r="A182" s="4" t="s">
-        <x:v>350</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B182" s="5" t="s">
         <x:v>351</x:v>
@@ -36352,8 +36352,8 @@
       <x:c r="D182" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="E182" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="E182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F182" s="6" t="s">
         <x:v>74</x:v>
@@ -36361,8 +36361,8 @@
       <x:c r="G182" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="H182" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="H182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I182" s="6" t="s">
         <x:v>74</x:v>
@@ -36403,14 +36403,14 @@
       <x:c r="U182" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="V182" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="W182" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="X182" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="V182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y182" s="6" t="s">
         <x:v>74</x:v>
@@ -36418,8 +36418,8 @@
       <x:c r="Z182" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AA182" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AA182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB182" s="6" t="s">
         <x:v>74</x:v>
@@ -36427,8 +36427,8 @@
       <x:c r="AC182" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AD182" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AD182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AE182" s="6" t="s">
         <x:v>74</x:v>
@@ -36532,8 +36532,8 @@
       <x:c r="BL182" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="BM182" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BM182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN182" s="6" t="s">
         <x:v>74</x:v>
@@ -36547,67 +36547,67 @@
     </x:row>
     <x:row r="183">
       <x:c r="A183" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>352</x:v>
       </x:c>
       <x:c r="B183" s="5" t="s">
-        <x:v>352</x:v>
-      </x:c>
-      <x:c r="C183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D183" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="C183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G183" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="F183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="L183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="M183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="S183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="T183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="U183" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="I183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V183" t="s">
         <x:v>1</x:v>
@@ -36618,137 +36618,137 @@
       <x:c r="X183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Z183" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Y183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AC183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AD183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AF183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AG183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AH183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AI183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AJ183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AK183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AL183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AM183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AN183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AO183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AP183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AQ183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AR183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AS183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AT183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AU183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AV183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AW183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AX183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AY183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AZ183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BA183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BB183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BC183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BD183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BE183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BF183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BH183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BI183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BJ183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BK183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BL183" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AB183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD183" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BO183" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BP183" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BN183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP183" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
@@ -36756,64 +36756,64 @@
         <x:v>353</x:v>
       </x:c>
       <x:c r="B184" s="5" t="s">
-        <x:v>352</x:v>
-      </x:c>
-      <x:c r="C184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D184" t="s">
-        <x:v>1</x:v>
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="C184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D184" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G184" t="s">
-        <x:v>1</x:v>
+      <x:c r="F184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G184" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U184" t="s">
-        <x:v>1</x:v>
+      <x:c r="I184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="L184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="M184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="S184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="U184" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="V184" t="s">
         <x:v>1</x:v>
@@ -36824,202 +36824,202 @@
       <x:c r="X184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z184" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Z184" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AA184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD184" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AE184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL184" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AC184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AD184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AG184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AK184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AL184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AM184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AN184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AO184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AP184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AQ184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AR184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AS184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AT184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AU184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AV184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AX184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AY184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AZ184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BB184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BC184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BD184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BE184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BF184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BI184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BK184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BL184" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BM184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP184" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BO184" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BP184" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" s="4" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B185" s="5" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="B185" s="5" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="C185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D185" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="C185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G185" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="F185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="L185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="M185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="S185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="T185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="U185" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="I185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="V185" t="s">
         <x:v>1</x:v>
@@ -37030,137 +37030,137 @@
       <x:c r="X185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Z185" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Y185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AC185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AD185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AF185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AG185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AH185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AI185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AJ185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AK185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AL185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AM185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AN185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AO185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AP185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AQ185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AR185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AS185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AT185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AU185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AV185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AW185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AX185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AY185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AZ185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BA185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BB185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BC185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BD185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BE185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BF185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BH185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BI185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BJ185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BK185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BL185" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AB185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD185" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BO185" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BP185" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BN185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP185" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
@@ -37168,64 +37168,64 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="B186" s="5" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="C186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D186" t="s">
-        <x:v>1</x:v>
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="C186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G186" t="s">
-        <x:v>1</x:v>
+      <x:c r="F186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="H186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K186" t="s">
-        <x:v>1</x:v>
+      <x:c r="I186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U186" t="s">
-        <x:v>1</x:v>
+      <x:c r="M186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="S186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="U186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="V186" t="s">
         <x:v>1</x:v>
@@ -37239,116 +37239,116 @@
       <x:c r="Y186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z186" t="s">
-        <x:v>1</x:v>
+      <x:c r="Z186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AA186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB186" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AC186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD186" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AE186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ186" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AG186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AK186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AL186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AM186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AN186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AO186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AP186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AQ186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AR186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AS186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AT186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AU186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AV186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AX186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AY186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AZ186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BB186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BC186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BD186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BE186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BF186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BI186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BK186" t="s">
         <x:v>1</x:v>
@@ -37359,202 +37359,202 @@
       <x:c r="BM186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP186" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BO186" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BP186" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
       <x:c r="A187" s="4" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B187" s="5" t="s">
-        <x:v>358</x:v>
-      </x:c>
-      <x:c r="C187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K187" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="C187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="L187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="S187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="T187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="U187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="V187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AA187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AC187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AF187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AG187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AH187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AI187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AJ187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AK187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AL187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AM187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AN187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AO187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AP187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AQ187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AR187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AS187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AT187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AU187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AV187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AW187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AX187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AY187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AZ187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BA187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BB187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BC187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BD187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BE187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BF187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BH187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BI187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BJ187" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="M187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="W187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="X187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Y187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Z187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AB187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AD187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK187" t="s">
         <x:v>1</x:v>
@@ -37562,25 +37562,25 @@
       <x:c r="BL187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BO187" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BP187" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BM187" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BN187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP187" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
       <x:c r="A188" s="4" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B188" s="5" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="C188" t="s">
         <x:v>1</x:v>
@@ -37588,8 +37588,8 @@
       <x:c r="D188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E188" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="E188" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F188" t="s">
         <x:v>1</x:v>
@@ -37597,8 +37597,8 @@
       <x:c r="G188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H188" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="H188" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I188" t="s">
         <x:v>1</x:v>
@@ -37612,8 +37612,8 @@
       <x:c r="L188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M188" t="s">
-        <x:v>1</x:v>
+      <x:c r="M188" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="N188" t="s">
         <x:v>1</x:v>
@@ -37639,32 +37639,32 @@
       <x:c r="U188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="V188" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="W188" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="X188" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Y188" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Z188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA188" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="V188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z188" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA188" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AC188" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AD188" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AC188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD188" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AE188" t="s">
         <x:v>1</x:v>
@@ -37678,11 +37678,11 @@
       <x:c r="AH188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI188" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ188" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AK188" t="s">
         <x:v>1</x:v>
@@ -37729,8 +37729,8 @@
       <x:c r="AY188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ188" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BA188" t="s">
         <x:v>1</x:v>
@@ -37744,23 +37744,23 @@
       <x:c r="BD188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE188" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BF188" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG188" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BH188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BI188" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ188" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BK188" t="s">
         <x:v>1</x:v>
@@ -37771,217 +37771,19 @@
       <x:c r="BM188" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="BN188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN188" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BO188" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BP188" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
-      <x:c r="A189" s="4" t="s">
-        <x:v>361</x:v>
-      </x:c>
-      <x:c r="B189" s="5" t="s">
+      <x:c r="A189" s="3" t="s">
         <x:v>362</x:v>
-      </x:c>
-      <x:c r="C189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="S189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="T189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="U189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="V189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="W189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="X189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Y189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Z189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AY189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AZ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ189" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BK189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO189" t="s">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="BP189" t="s">
         <x:v>1</x:v>
@@ -37989,13 +37791,13 @@
     </x:row>
     <x:row r="190">
       <x:c r="A190" s="4" t="s">
-        <x:v>361</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B190" s="5" t="s">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="C190" t="s">
-        <x:v>1</x:v>
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C190" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D190" t="s">
         <x:v>1</x:v>
@@ -38024,23 +37826,23 @@
       <x:c r="L190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R190" t="s">
-        <x:v>1</x:v>
+      <x:c r="M190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R190" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="S190" t="s">
         <x:v>1</x:v>
@@ -38063,8 +37865,8 @@
       <x:c r="Y190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z190" t="s">
-        <x:v>1</x:v>
+      <x:c r="Z190" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AA190" t="s">
         <x:v>1</x:v>
@@ -38084,17 +37886,17 @@
       <x:c r="AF190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ190" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AK190" t="s">
         <x:v>1</x:v>
@@ -38129,11 +37931,11 @@
       <x:c r="AU190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AV190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW190" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AV190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AX190" t="s">
         <x:v>1</x:v>
@@ -38156,20 +37958,20 @@
       <x:c r="BD190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH190" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BI190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BF190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG190" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI190" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BJ190" t="s">
         <x:v>1</x:v>
@@ -38195,13 +37997,13 @@
     </x:row>
     <x:row r="191">
       <x:c r="A191" s="4" t="s">
-        <x:v>363</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B191" s="5" t="s">
-        <x:v>364</x:v>
-      </x:c>
-      <x:c r="C191" t="s">
-        <x:v>1</x:v>
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C191" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D191" t="s">
         <x:v>1</x:v>
@@ -38269,8 +38071,8 @@
       <x:c r="Y191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z191" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Z191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA191" t="s">
         <x:v>1</x:v>
@@ -38296,11 +38098,11 @@
       <x:c r="AH191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI191" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AJ191" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AI191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK191" t="s">
         <x:v>1</x:v>
@@ -38335,8 +38137,8 @@
       <x:c r="AU191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AV191" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV191" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AW191" t="s">
         <x:v>1</x:v>
@@ -38347,8 +38149,8 @@
       <x:c r="AY191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ191" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AZ191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BA191" t="s">
         <x:v>1</x:v>
@@ -38374,11 +38176,11 @@
       <x:c r="BH191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI191" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BJ191" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BI191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK191" t="s">
         <x:v>1</x:v>
@@ -38386,22 +38188,220 @@
       <x:c r="BL191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM191" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BN191" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BO191" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BM191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BP191" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="192">
-      <x:c r="A192" s="3" t="s">
-        <x:v>365</x:v>
+      <x:c r="A192" s="4" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B192" s="5" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="S192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AK192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI192" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BP192" t="s">
         <x:v>1</x:v>
@@ -38409,10 +38409,10 @@
     </x:row>
     <x:row r="193">
       <x:c r="A193" s="4" t="s">
-        <x:v>366</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B193" s="5" t="s">
-        <x:v>367</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C193" s="6" t="s">
         <x:v>74</x:v>
@@ -38444,23 +38444,23 @@
       <x:c r="L193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="M193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S193" t="s">
         <x:v>1</x:v>
@@ -38483,8 +38483,8 @@
       <x:c r="Y193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Z193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA193" t="s">
         <x:v>1</x:v>
@@ -38504,17 +38504,17 @@
       <x:c r="AF193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AH193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AI193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AJ193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AG193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK193" t="s">
         <x:v>1</x:v>
@@ -38549,8 +38549,8 @@
       <x:c r="AU193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AV193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AV193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW193" t="s">
         <x:v>1</x:v>
@@ -38561,8 +38561,8 @@
       <x:c r="AY193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AZ193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BA193" t="s">
         <x:v>1</x:v>
@@ -38576,20 +38576,20 @@
       <x:c r="BD193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BF193" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BE193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI193" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BI193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ193" t="s">
         <x:v>1</x:v>
@@ -38615,13 +38615,13 @@
     </x:row>
     <x:row r="194">
       <x:c r="A194" s="4" t="s">
-        <x:v>368</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B194" s="5" t="s">
-        <x:v>369</x:v>
-      </x:c>
-      <x:c r="C194" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C194" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D194" t="s">
         <x:v>1</x:v>
@@ -38653,20 +38653,20 @@
       <x:c r="M194" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N194" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O194" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P194" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q194" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R194" t="s">
-        <x:v>1</x:v>
+      <x:c r="N194" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O194" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P194" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q194" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R194" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="S194" t="s">
         <x:v>1</x:v>
@@ -38689,8 +38689,8 @@
       <x:c r="Y194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z194" t="s">
-        <x:v>1</x:v>
+      <x:c r="Z194" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AA194" t="s">
         <x:v>1</x:v>
@@ -38713,11 +38713,11 @@
       <x:c r="AG194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH194" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI194" t="s">
-        <x:v>1</x:v>
+      <x:c r="AH194" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI194" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AJ194" t="s">
         <x:v>1</x:v>
@@ -38767,8 +38767,8 @@
       <x:c r="AY194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ194" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ194" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BA194" t="s">
         <x:v>1</x:v>
@@ -38782,20 +38782,20 @@
       <x:c r="BD194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE194" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BF194" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG194" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BE194" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF194" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG194" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI194" t="s">
-        <x:v>1</x:v>
+      <x:c r="BI194" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BJ194" t="s">
         <x:v>1</x:v>
@@ -38821,13 +38821,13 @@
     </x:row>
     <x:row r="195">
       <x:c r="A195" s="4" t="s">
-        <x:v>370</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="B195" s="5" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="C195" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="C195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D195" t="s">
         <x:v>1</x:v>
@@ -38916,8 +38916,8 @@
       <x:c r="AF195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG195" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AG195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH195" s="6" t="s">
         <x:v>74</x:v>
@@ -38991,11 +38991,11 @@
       <x:c r="BE195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BF195" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG195" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BF195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH195" t="s">
         <x:v>1</x:v>
@@ -39027,13 +39027,13 @@
     </x:row>
     <x:row r="196">
       <x:c r="A196" s="4" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B196" s="5" t="s">
-        <x:v>373</x:v>
-      </x:c>
-      <x:c r="C196" s="6" t="s">
-        <x:v>74</x:v>
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="C196" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D196" t="s">
         <x:v>1</x:v>
@@ -39062,23 +39062,23 @@
       <x:c r="L196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R196" t="s">
-        <x:v>1</x:v>
+      <x:c r="M196" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N196" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O196" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P196" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q196" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R196" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="S196" t="s">
         <x:v>1</x:v>
@@ -39167,8 +39167,8 @@
       <x:c r="AU196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AV196" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV196" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AW196" t="s">
         <x:v>1</x:v>
@@ -39206,8 +39206,8 @@
       <x:c r="BH196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI196" t="s">
-        <x:v>1</x:v>
+      <x:c r="BI196" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BJ196" t="s">
         <x:v>1</x:v>
@@ -39233,10 +39233,10 @@
     </x:row>
     <x:row r="197">
       <x:c r="A197" s="4" t="s">
-        <x:v>374</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B197" s="5" t="s">
-        <x:v>369</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="C197" t="s">
         <x:v>1</x:v>
@@ -39307,8 +39307,8 @@
       <x:c r="Y197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z197" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Z197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA197" t="s">
         <x:v>1</x:v>
@@ -39331,11 +39331,11 @@
       <x:c r="AG197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH197" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AI197" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AH197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ197" t="s">
         <x:v>1</x:v>
@@ -39385,8 +39385,8 @@
       <x:c r="AY197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ197" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AZ197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BA197" t="s">
         <x:v>1</x:v>
@@ -39439,10 +39439,10 @@
     </x:row>
     <x:row r="198">
       <x:c r="A198" s="4" t="s">
-        <x:v>375</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B198" s="5" t="s">
-        <x:v>369</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="C198" t="s">
         <x:v>1</x:v>
@@ -39513,8 +39513,8 @@
       <x:c r="Y198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z198" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Z198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA198" t="s">
         <x:v>1</x:v>
@@ -39540,11 +39540,11 @@
       <x:c r="AH198" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AI198" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AJ198" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AI198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK198" t="s">
         <x:v>1</x:v>
@@ -39591,8 +39591,8 @@
       <x:c r="AY198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ198" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AZ198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BA198" t="s">
         <x:v>1</x:v>
@@ -39609,11 +39609,11 @@
       <x:c r="BE198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BF198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG198" t="s">
-        <x:v>1</x:v>
+      <x:c r="BF198" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG198" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BH198" t="s">
         <x:v>1</x:v>
@@ -39645,10 +39645,10 @@
     </x:row>
     <x:row r="199">
       <x:c r="A199" s="4" t="s">
-        <x:v>376</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B199" s="5" t="s">
-        <x:v>377</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C199" t="s">
         <x:v>1</x:v>
@@ -39683,20 +39683,20 @@
       <x:c r="M199" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N199" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O199" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P199" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q199" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R199" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="N199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R199" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S199" t="s">
         <x:v>1</x:v>
@@ -39785,8 +39785,8 @@
       <x:c r="AU199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AV199" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AV199" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW199" t="s">
         <x:v>1</x:v>
@@ -39824,8 +39824,8 @@
       <x:c r="BH199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI199" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BI199" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ199" t="s">
         <x:v>1</x:v>
@@ -39850,206 +39850,8 @@
       </x:c>
     </x:row>
     <x:row r="200">
-      <x:c r="A200" s="4" t="s">
-        <x:v>378</x:v>
-      </x:c>
-      <x:c r="B200" s="5" t="s">
-        <x:v>379</x:v>
-      </x:c>
-      <x:c r="C200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="S200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AW200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI200" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BJ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO200" t="s">
-        <x:v>1</x:v>
+      <x:c r="A200" s="3" t="s">
+        <x:v>381</x:v>
       </x:c>
       <x:c r="BP200" t="s">
         <x:v>1</x:v>
@@ -40057,10 +39859,10 @@
     </x:row>
     <x:row r="201">
       <x:c r="A201" s="4" t="s">
-        <x:v>380</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B201" s="5" t="s">
-        <x:v>381</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="C201" t="s">
         <x:v>1</x:v>
@@ -40131,8 +39933,8 @@
       <x:c r="Y201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z201" t="s">
-        <x:v>1</x:v>
+      <x:c r="Z201" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AA201" t="s">
         <x:v>1</x:v>
@@ -40152,8 +39954,8 @@
       <x:c r="AF201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG201" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AH201" s="6" t="s">
         <x:v>74</x:v>
@@ -40161,8 +39963,8 @@
       <x:c r="AI201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ201" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AK201" t="s">
         <x:v>1</x:v>
@@ -40194,8 +39996,8 @@
       <x:c r="AT201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU201" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AV201" s="6" t="s">
         <x:v>74</x:v>
@@ -40263,10 +40065,10 @@
     </x:row>
     <x:row r="202">
       <x:c r="A202" s="4" t="s">
-        <x:v>382</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B202" s="5" t="s">
-        <x:v>383</x:v>
+        <x:v>385</x:v>
       </x:c>
       <x:c r="C202" t="s">
         <x:v>1</x:v>
@@ -40442,8 +40244,8 @@
       <x:c r="BH202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI202" t="s">
-        <x:v>1</x:v>
+      <x:c r="BI202" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BJ202" t="s">
         <x:v>1</x:v>
@@ -40468,8 +40270,206 @@
       </x:c>
     </x:row>
     <x:row r="203">
-      <x:c r="A203" s="3" t="s">
-        <x:v>384</x:v>
+      <x:c r="A203" s="4" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B203" s="5" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M203" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="N203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z203" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG203" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH203" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ203" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AK203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BP203" t="s">
         <x:v>1</x:v>
@@ -40477,10 +40477,10 @@
     </x:row>
     <x:row r="204">
       <x:c r="A204" s="4" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B204" s="5" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C204" t="s">
         <x:v>1</x:v>
@@ -40506,8 +40506,8 @@
       <x:c r="J204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K204" t="s">
-        <x:v>1</x:v>
+      <x:c r="K204" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L204" t="s">
         <x:v>1</x:v>
@@ -40515,20 +40515,20 @@
       <x:c r="M204" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N204" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O204" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P204" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q204" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R204" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="N204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="S204" t="s">
         <x:v>1</x:v>
@@ -40551,8 +40551,8 @@
       <x:c r="Y204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z204" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Z204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA204" t="s">
         <x:v>1</x:v>
@@ -40572,17 +40572,17 @@
       <x:c r="AF204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG204" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AH204" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AG204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ204" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AJ204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK204" t="s">
         <x:v>1</x:v>
@@ -40638,11 +40638,11 @@
       <x:c r="BB204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BC204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BC204" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BD204" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BE204" t="s">
         <x:v>1</x:v>
@@ -40671,8 +40671,8 @@
       <x:c r="BM204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN204" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BO204" t="s">
         <x:v>1</x:v>
@@ -40683,16 +40683,16 @@
     </x:row>
     <x:row r="205">
       <x:c r="A205" s="4" t="s">
-        <x:v>387</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B205" s="5" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D205" t="s">
-        <x:v>1</x:v>
+      <x:c r="D205" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="E205" t="s">
         <x:v>1</x:v>
@@ -40709,8 +40709,8 @@
       <x:c r="I205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J205" t="s">
-        <x:v>1</x:v>
+      <x:c r="J205" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="K205" t="s">
         <x:v>1</x:v>
@@ -40790,32 +40790,32 @@
       <x:c r="AJ205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS205" t="s">
-        <x:v>1</x:v>
+      <x:c r="AK205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AL205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AM205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AN205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AO205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AP205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AQ205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AR205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AS205" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AT205" t="s">
         <x:v>1</x:v>
@@ -40838,11 +40838,11 @@
       <x:c r="AZ205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BA205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BA205" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BB205" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BC205" t="s">
         <x:v>1</x:v>
@@ -40862,14 +40862,14 @@
       <x:c r="BH205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BI205" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BI205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK205" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BL205" t="s">
         <x:v>1</x:v>
@@ -40880,8 +40880,8 @@
       <x:c r="BN205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO205" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BP205" t="s">
         <x:v>1</x:v>
@@ -40889,37 +40889,37 @@
     </x:row>
     <x:row r="206">
       <x:c r="A206" s="4" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B206" s="5" t="s">
-        <x:v>390</x:v>
-      </x:c>
-      <x:c r="C206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K206" t="s">
-        <x:v>1</x:v>
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="C206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="E206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="F206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="H206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="I206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="K206" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L206" t="s">
         <x:v>1</x:v>
@@ -40927,62 +40927,62 @@
       <x:c r="M206" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y206" t="s">
-        <x:v>1</x:v>
+      <x:c r="N206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="O206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Q206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="R206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="S206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="T206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="U206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="V206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="W206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="X206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="Y206" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="Z206" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AA206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AB206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AC206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AD206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF206" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AG206" s="6" t="s">
         <x:v>74</x:v>
@@ -40990,89 +40990,89 @@
       <x:c r="AH206" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AI206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI206" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AJ206" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AK206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AK206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AL206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AM206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AN206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AO206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AP206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AQ206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AR206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AS206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AT206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AU206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AV206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AW206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AX206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AY206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AZ206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BB206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BC206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BD206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BE206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BF206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BI206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ206" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BK206" t="s">
         <x:v>1</x:v>
@@ -41080,11 +41080,11 @@
       <x:c r="BL206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN206" t="s">
-        <x:v>1</x:v>
+      <x:c r="BM206" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BN206" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BO206" t="s">
         <x:v>1</x:v>
@@ -41095,10 +41095,10 @@
     </x:row>
     <x:row r="207">
       <x:c r="A207" s="4" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B207" s="5" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C207" t="s">
         <x:v>1</x:v>
@@ -41130,8 +41130,8 @@
       <x:c r="L207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M207" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="M207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N207" t="s">
         <x:v>1</x:v>
@@ -41169,65 +41169,65 @@
       <x:c r="Y207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="Z207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AB207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AC207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AD207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AG207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AK207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AL207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AM207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AN207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AO207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AO207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AP207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AQ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AQ207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AR207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AS207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AS207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AT207" t="s">
         <x:v>1</x:v>
@@ -41238,23 +41238,23 @@
       <x:c r="AV207" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="AW207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AW207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AX207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AY207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AZ207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA207" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BB207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BC207" s="6" t="s">
         <x:v>74</x:v>
@@ -41262,8 +41262,8 @@
       <x:c r="BD207" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="BE207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BF207" s="6" t="s">
         <x:v>74</x:v>
@@ -41271,14 +41271,14 @@
       <x:c r="BG207" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="BH207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BI207" s="6" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="BJ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BJ207" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BK207" t="s">
         <x:v>1</x:v>
@@ -41289,8 +41289,8 @@
       <x:c r="BM207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN207" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BN207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO207" t="s">
         <x:v>1</x:v>
@@ -41301,10 +41301,10 @@
     </x:row>
     <x:row r="208">
       <x:c r="A208" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B208" s="5" t="s">
-        <x:v>392</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C208" t="s">
         <x:v>1</x:v>
@@ -41438,8 +41438,8 @@
       <x:c r="AT208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU208" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU208" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AV208" t="s">
         <x:v>1</x:v>
@@ -41453,8 +41453,8 @@
       <x:c r="AY208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ208" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="AZ208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BA208" t="s">
         <x:v>1</x:v>
@@ -41462,8 +41462,8 @@
       <x:c r="BB208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BC208" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="BC208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BD208" t="s">
         <x:v>1</x:v>
@@ -41492,11 +41492,11 @@
       <x:c r="BL208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BM208" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BN208" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BO208" t="s">
         <x:v>1</x:v>
@@ -41507,16 +41507,16 @@
     </x:row>
     <x:row r="209">
       <x:c r="A209" s="4" t="s">
-        <x:v>394</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B209" s="5" t="s">
-        <x:v>395</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D209" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="D209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E209" t="s">
         <x:v>1</x:v>
@@ -41533,11 +41533,11 @@
       <x:c r="I209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K209" t="s">
-        <x:v>1</x:v>
+      <x:c r="J209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K209" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="L209" t="s">
         <x:v>1</x:v>
@@ -41581,59 +41581,59 @@
       <x:c r="Y209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AL209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AM209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AN209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AO209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AP209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AQ209" s="6" t="s">
-        <x:v>74</x:v>
+      <x:c r="Z209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AB209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AC209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AD209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AE209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AF209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AG209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AH209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AI209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AJ209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AK209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AR209" s="6" t="s">
         <x:v>74</x:v>
@@ -41644,65 +41644,65 @@
       <x:c r="AT209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AV209" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="AW209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BB209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BC209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AY209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AZ209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BA209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BD209" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BE209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BF209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK209" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BL209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BF209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BH209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BI209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BJ209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BK209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BM209" s="6" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BN209" s="6" t="s">
+        <x:v>74</x:v>
       </x:c>
       <x:c r="BO209" s="6" t="s">
         <x:v>74</x:v>
@@ -41712,620 +41712,208 @@
       </x:c>
     </x:row>
     <x:row r="210">
-      <x:c r="A210" s="4" t="s">
-        <x:v>396</x:v>
-      </x:c>
-      <x:c r="B210" s="5" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="C210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="E210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="G210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="H210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="I210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="J210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="K210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="N210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="O210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Q210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="R210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="S210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="T210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="U210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="V210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="W210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="X210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Y210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="Z210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AL210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AO210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AQ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AS210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AU210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BL210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BM210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BN210" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BO210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="211">
-      <x:c r="A211" s="4" t="s">
-        <x:v>398</x:v>
-      </x:c>
-      <x:c r="B211" s="5" t="s">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="C211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU211" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AV211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF211" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG211" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BH211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM211" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BN211" s="6" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BO211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="212">
-      <x:c r="A212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO212" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP212" s="7" t="s">
+      <x:c r="A210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO210" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP210" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -42364,10 +41952,10 @@
     <x:mergeCell ref="A123:BP123"/>
     <x:mergeCell ref="A138:BP138"/>
     <x:mergeCell ref="A163:BP163"/>
-    <x:mergeCell ref="A175:BP175"/>
-    <x:mergeCell ref="A181:BP181"/>
-    <x:mergeCell ref="A192:BP192"/>
-    <x:mergeCell ref="A203:BP203"/>
+    <x:mergeCell ref="A174:BP174"/>
+    <x:mergeCell ref="A180:BP180"/>
+    <x:mergeCell ref="A189:BP189"/>
+    <x:mergeCell ref="A200:BP200"/>
   </x:mergeCells>
 </x:worksheet>
 </file>
--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R72f47f07c39b4a33"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R3e0f4aab41954a56"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -106,7 +106,7 @@
 15.2.0</x:t>
   </x:si>
   <x:si>
-    <x:t>VCL (C++Builder, Delphi)
+    <x:t>TRegEx (C++Builder, Delphi)
 29.0</x:t>
   </x:si>
   <x:si>
@@ -248,7 +248,7 @@
     <x:t>Regex (Jeyemhex)</x:t>
   </x:si>
   <x:si>
-    <x:t>VCL (C++Builder, Delphi)</x:t>
+    <x:t>TRegEx (C++Builder, Delphi)</x:t>
   </x:si>
   <x:si>
     <x:t>General</x:t>
@@ -1434,7 +1434,7 @@
     <x:col min="66" max="66" width="9.4" customWidth="1"/>
     <x:col min="67" max="67" width="11.393" customWidth="1"/>
     <x:col min="68" max="68" width="11.89" customWidth="1"/>
-    <x:col min="69" max="69" width="22.283" customWidth="1"/>
+    <x:col min="69" max="69" width="25.281" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" ht="49" customHeight="1">

--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R102007e4a5d7439d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R35ea3cd19b4b4fa7"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -303,16 +303,16 @@
     <x:t>Alternatives on separate lines</x:t>
   </x:si>
   <x:si>
+    <x:t>#comment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comment</x:t>
+  </x:si>
+  <x:si>
     <x:t>(?#comment)</x:t>
   </x:si>
   <x:si>
     <x:t>Inline comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>#comment</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Comment</x:t>
   </x:si>
   <x:si>
     <x:t>[#comment]</x:t>
@@ -996,12 +996,6 @@
     <x:t>(?P=name)</x:t>
   </x:si>
   <x:si>
-    <x:t>\k&lt; … &gt;, \g&lt; … &gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allow spaces like '\k &lt; name &gt;'</x:t>
-  </x:si>
-  <x:si>
     <x:t>Grouping</x:t>
   </x:si>
   <x:si>
@@ -1250,6 +1244,12 @@
   <x:si>
     <x:t>No catastrophic infinite matching, no timeout errors</x:t>
   </x:si>
+  <x:si>
+    <x:t>Σσς</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Match letters that have multiple uppercase and lowercase variants</x:t>
+  </x:si>
 </x:sst>
 </file>
 
@@ -3510,26 +3510,26 @@
       <x:c r="Z12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA12" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AA12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB12" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AC12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD12" t="s">
-        <x:v>1</x:v>
+      <x:c r="AC12" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AD12" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AE12" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AF12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG12" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF12" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG12" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AH12" s="6" t="s">
         <x:v>80</x:v>
@@ -3585,11 +3585,11 @@
       <x:c r="AY12" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AZ12" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA12" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ12" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA12" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BB12" s="6" t="s">
         <x:v>80</x:v>
@@ -3600,8 +3600,8 @@
       <x:c r="BD12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE12" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE12" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BF12" t="s">
         <x:v>1</x:v>
@@ -3615,8 +3615,8 @@
       <x:c r="BI12" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BJ12" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BJ12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK12" s="6" t="s">
         <x:v>80</x:v>
@@ -3633,8 +3633,8 @@
       <x:c r="BO12" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP12" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BP12" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ12" t="s">
         <x:v>1</x:v>
@@ -3728,26 +3728,26 @@
       <x:c r="Z13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA13" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA13" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AB13" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AC13" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AD13" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AC13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD13" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AE13" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AF13" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AG13" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AF13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG13" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH13" s="6" t="s">
         <x:v>80</x:v>
@@ -3803,11 +3803,11 @@
       <x:c r="AY13" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AZ13" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BA13" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AZ13" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA13" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB13" s="6" t="s">
         <x:v>80</x:v>
@@ -3818,8 +3818,8 @@
       <x:c r="BD13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE13" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BE13" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BF13" t="s">
         <x:v>1</x:v>
@@ -3833,8 +3833,8 @@
       <x:c r="BI13" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BJ13" t="s">
-        <x:v>1</x:v>
+      <x:c r="BJ13" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BK13" s="6" t="s">
         <x:v>80</x:v>
@@ -3851,8 +3851,8 @@
       <x:c r="BO13" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP13" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP13" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BQ13" t="s">
         <x:v>1</x:v>
@@ -4027,8 +4027,8 @@
       <x:c r="BA14" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BB14" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB14" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BC14" t="s">
         <x:v>1</x:v>
@@ -16680,8 +16680,8 @@
       <x:c r="AV75" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW75" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AW75" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AX75" t="s">
         <x:v>1</x:v>
@@ -23747,23 +23747,23 @@
       <x:c r="C109" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D109" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E109" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F109" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G109" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H109" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I109" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="D109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H109" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I109" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J109" s="6" t="s">
         <x:v>80</x:v>
@@ -34662,229 +34662,229 @@
       </x:c>
     </x:row>
     <x:row r="162">
-      <x:c r="A162" s="4" t="s">
+      <x:c r="A162" s="3" t="s">
         <x:v>321</x:v>
-      </x:c>
-      <x:c r="B162" s="5" t="s">
-        <x:v>322</x:v>
-      </x:c>
-      <x:c r="C162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY162" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AZ162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE162" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BF162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR162" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS162" t="s">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="BT162" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="163">
-      <x:c r="A163" s="3" t="s">
+      <x:c r="A163" s="4" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B163" s="5" t="s">
         <x:v>323</x:v>
       </x:c>
-      <x:c r="BT163" t="s">
-        <x:v>1</x:v>
+      <x:c r="C163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AB163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AF163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AI163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AM163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AN163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AO163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AP163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AQ163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AS163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AT163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AU163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AV163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AW163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AZ163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BB163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BC163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BD163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BE163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BG163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BK163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BP163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BQ163" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BS163" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT163" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="164">
@@ -34924,8 +34924,8 @@
       <x:c r="L164" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="M164" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="M164" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N164" s="6" t="s">
         <x:v>80</x:v>
@@ -35032,8 +35032,8 @@
       <x:c r="AV164" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AW164" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AW164" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AX164" s="6" t="s">
         <x:v>80</x:v>
@@ -35041,11 +35041,11 @@
       <x:c r="AY164" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AZ164" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BA164" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AZ164" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA164" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB164" s="6" t="s">
         <x:v>80</x:v>
@@ -35059,8 +35059,8 @@
       <x:c r="BE164" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BF164" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BF164" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG164" s="6" t="s">
         <x:v>80</x:v>
@@ -35086,17 +35086,17 @@
       <x:c r="BN164" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO164" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BP164" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BO164" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP164" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ164" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BR164" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BR164" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BS164" s="6" t="s">
         <x:v>80</x:v>
@@ -35333,8 +35333,8 @@
       <x:c r="C166" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D166" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="D166" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E166" t="s">
         <x:v>1</x:v>
@@ -35351,8 +35351,8 @@
       <x:c r="I166" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J166" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="J166" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="K166" s="6" t="s">
         <x:v>80</x:v>
@@ -35363,8 +35363,8 @@
       <x:c r="M166" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="N166" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="N166" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O166" s="6" t="s">
         <x:v>80</x:v>
@@ -35465,8 +35465,8 @@
       <x:c r="AU166" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AV166" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AV166" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW166" t="s">
         <x:v>1</x:v>
@@ -35790,11 +35790,11 @@
       <x:c r="J168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L168" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="K168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M168" t="s">
         <x:v>1</x:v>
@@ -35874,32 +35874,32 @@
       <x:c r="AL168" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AM168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AN168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AO168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AP168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AQ168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AR168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AS168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AT168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AU168" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AM168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV168" t="s">
         <x:v>1</x:v>
@@ -35922,11 +35922,11 @@
       <x:c r="BB168" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BC168" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BD168" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BC168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE168" s="6" t="s">
         <x:v>80</x:v>
@@ -35943,8 +35943,8 @@
       <x:c r="BI168" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BJ168" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BJ168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK168" s="6" t="s">
         <x:v>80</x:v>
@@ -35984,8 +35984,8 @@
       <x:c r="B169" s="5" t="s">
         <x:v>335</x:v>
       </x:c>
-      <x:c r="C169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="C169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D169" t="s">
         <x:v>1</x:v>
@@ -36059,8 +36059,8 @@
       <x:c r="AA169" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AB169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC169" t="s">
         <x:v>1</x:v>
@@ -36068,8 +36068,8 @@
       <x:c r="AD169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AE169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AF169" t="s">
         <x:v>1</x:v>
@@ -36077,20 +36077,20 @@
       <x:c r="AG169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH169" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AI169" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ169" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK169" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AH169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM169" t="s">
         <x:v>1</x:v>
@@ -36128,8 +36128,8 @@
       <x:c r="AX169" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AY169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AY169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ169" t="s">
         <x:v>1</x:v>
@@ -36137,8 +36137,8 @@
       <x:c r="BA169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BB169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC169" t="s">
         <x:v>1</x:v>
@@ -36146,14 +36146,14 @@
       <x:c r="BD169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BE169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BF169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BG169" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BG169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH169" s="6" t="s">
         <x:v>80</x:v>
@@ -36241,20 +36241,20 @@
       <x:c r="O170" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P170" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q170" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R170" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S170" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T170" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="P170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U170" t="s">
         <x:v>1</x:v>
@@ -36274,8 +36274,8 @@
       <x:c r="Z170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA170" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AA170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB170" t="s">
         <x:v>1</x:v>
@@ -36343,8 +36343,8 @@
       <x:c r="AW170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX170" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AX170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY170" t="s">
         <x:v>1</x:v>
@@ -36373,17 +36373,17 @@
       <x:c r="BG170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH170" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI170" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BH170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK170" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BK170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL170" t="s">
         <x:v>1</x:v>
@@ -36406,8 +36406,8 @@
       <x:c r="BR170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS170" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BS170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BT170" s="6" t="s">
         <x:v>80</x:v>
@@ -36674,8 +36674,8 @@
       <x:c r="N172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O172" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="O172" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P172" t="s">
         <x:v>1</x:v>
@@ -36713,8 +36713,8 @@
       <x:c r="AA172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB172" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB172" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AC172" t="s">
         <x:v>1</x:v>
@@ -36734,14 +36734,14 @@
       <x:c r="AH172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK172" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI172" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ172" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK172" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AL172" t="s">
         <x:v>1</x:v>
@@ -36845,234 +36845,234 @@
       <x:c r="BS172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BT172" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BT172" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
-      <x:c r="A173" s="4" t="s">
+      <x:c r="A173" s="3" t="s">
         <x:v>342</x:v>
-      </x:c>
-      <x:c r="B173" s="5" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="C173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB173" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AC173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI173" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ173" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK173" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS173" t="s">
-        <x:v>1</x:v>
       </x:c>
       <x:c r="BT173" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="174">
-      <x:c r="A174" s="3" t="s">
+      <x:c r="A174" s="4" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B174" s="5" t="s">
         <x:v>344</x:v>
       </x:c>
-      <x:c r="BT174" t="s">
-        <x:v>1</x:v>
+      <x:c r="C174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS174" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT174" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
@@ -37154,8 +37154,8 @@
       <x:c r="Z175" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA175" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA175" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AB175" t="s">
         <x:v>1</x:v>
@@ -37253,11 +37253,11 @@
       <x:c r="BG175" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH175" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI175" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BH175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI175" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ175" t="s">
         <x:v>1</x:v>
@@ -37372,8 +37372,8 @@
       <x:c r="Z176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA176" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AA176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB176" t="s">
         <x:v>1</x:v>
@@ -37399,8 +37399,8 @@
       <x:c r="AI176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ176" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AJ176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK176" t="s">
         <x:v>1</x:v>
@@ -37471,11 +37471,11 @@
       <x:c r="BG176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH176" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI176" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH176" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI176" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BJ176" t="s">
         <x:v>1</x:v>
@@ -37617,8 +37617,8 @@
       <x:c r="AI177" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ177" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ177" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AK177" t="s">
         <x:v>1</x:v>
@@ -37734,7 +37734,7 @@
         <x:v>351</x:v>
       </x:c>
       <x:c r="B178" s="5" t="s">
-        <x:v>352</x:v>
+        <x:v>350</x:v>
       </x:c>
       <x:c r="C178" t="s">
         <x:v>1</x:v>
@@ -37775,20 +37775,20 @@
       <x:c r="O178" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P178" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q178" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R178" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S178" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T178" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="P178" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q178" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R178" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S178" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T178" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U178" t="s">
         <x:v>1</x:v>
@@ -37835,14 +37835,14 @@
       <x:c r="AI178" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ178" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AJ178" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK178" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL178" t="s">
-        <x:v>1</x:v>
+      <x:c r="AL178" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM178" t="s">
         <x:v>1</x:v>
@@ -37948,246 +37948,246 @@
       </x:c>
     </x:row>
     <x:row r="179">
-      <x:c r="A179" s="4" t="s">
-        <x:v>353</x:v>
-      </x:c>
-      <x:c r="B179" s="5" t="s">
+      <x:c r="A179" s="3" t="s">
         <x:v>352</x:v>
       </x:c>
-      <x:c r="C179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AM179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AY179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BJ179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BL179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS179" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT179" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BT179" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
-      <x:c r="A180" s="3" t="s">
+      <x:c r="A180" s="4" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B180" s="5" t="s">
         <x:v>354</x:v>
       </x:c>
-      <x:c r="BT180" t="s">
-        <x:v>1</x:v>
+      <x:c r="C180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="E180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="V180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="W180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="X180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Y180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Z180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AA180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AB180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AD180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AE180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AF180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AH180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AI180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AM180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AN180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AO180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AP180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AQ180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AS180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AT180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AU180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AV180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AW180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AZ180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BB180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BC180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BD180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BE180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BG180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BK180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BM180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BN180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BO180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BP180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BQ180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BR180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BS180" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT180" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
       <x:c r="A181" s="4" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B181" s="5" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="B181" s="5" t="s">
-        <x:v>356</x:v>
-      </x:c>
       <x:c r="C181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
       <x:c r="D181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E181" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="E181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F181" s="6" t="s">
         <x:v>80</x:v>
@@ -38195,8 +38195,8 @@
       <x:c r="G181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="H181" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="H181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I181" s="6" t="s">
         <x:v>80</x:v>
@@ -38243,14 +38243,14 @@
       <x:c r="W181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="X181" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Y181" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Z181" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="X181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA181" s="6" t="s">
         <x:v>80</x:v>
@@ -38258,8 +38258,8 @@
       <x:c r="AB181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AC181" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AC181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AD181" s="6" t="s">
         <x:v>80</x:v>
@@ -38267,8 +38267,8 @@
       <x:c r="AE181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AF181" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AF181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AG181" s="6" t="s">
         <x:v>80</x:v>
@@ -38372,8 +38372,8 @@
       <x:c r="BN181" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BO181" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BO181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BP181" s="6" t="s">
         <x:v>80</x:v>
@@ -38393,73 +38393,73 @@
     </x:row>
     <x:row r="182">
       <x:c r="A182" s="4" t="s">
-        <x:v>80</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B182" s="5" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="C182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D182" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="C182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G182" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="F182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="U182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="V182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="W182" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="I182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="X182" t="s">
         <x:v>1</x:v>
@@ -38470,214 +38470,214 @@
       <x:c r="Z182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AB182" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AA182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AE182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AF182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AH182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AI182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AM182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AN182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AO182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AP182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AQ182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AR182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AS182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AT182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AU182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AV182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AW182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AX182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AY182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AZ182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BA182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BB182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BC182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BD182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BE182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BF182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BG182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BH182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BJ182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BK182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BL182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BM182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BN182" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AD182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF182" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN182" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BQ182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BR182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BS182" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT182" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BP182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT182" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" s="4" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B183" s="5" t="s">
         <x:v>358</x:v>
       </x:c>
-      <x:c r="B183" s="5" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="C183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D183" t="s">
-        <x:v>1</x:v>
+      <x:c r="C183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D183" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G183" t="s">
-        <x:v>1</x:v>
+      <x:c r="F183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G183" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W183" t="s">
-        <x:v>1</x:v>
+      <x:c r="I183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="N183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="O183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="V183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="W183" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="X183" t="s">
         <x:v>1</x:v>
@@ -38688,143 +38688,143 @@
       <x:c r="Z183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB183" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AB183" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AC183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF183" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AG183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN183" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AE183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AF183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AH183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AI183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AM183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AN183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AO183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AP183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AQ183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AS183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AT183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AU183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AV183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AW183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AZ183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BB183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BC183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BD183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BE183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BG183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BK183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BM183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BN183" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BO183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT183" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BQ183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BR183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BS183" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT183" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
@@ -38832,70 +38832,70 @@
         <x:v>359</x:v>
       </x:c>
       <x:c r="B184" s="5" t="s">
-        <x:v>360</x:v>
-      </x:c>
-      <x:c r="C184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D184" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="C184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D184" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G184" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="F184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G184" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="N184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="O184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="U184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="V184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="W184" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="I184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W184" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="X184" t="s">
         <x:v>1</x:v>
@@ -38906,214 +38906,214 @@
       <x:c r="Z184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AB184" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AA184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB184" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AE184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AF184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AH184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AI184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AM184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AN184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AO184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AP184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AQ184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AR184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AS184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AT184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AU184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AV184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AW184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AX184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AY184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AZ184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BA184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BB184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BC184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BD184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BE184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BF184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BG184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BH184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BJ184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BK184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BL184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BM184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BN184" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AD184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF184" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN184" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BQ184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BR184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BS184" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT184" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BP184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT184" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" s="4" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="B185" s="5" t="s">
         <x:v>361</x:v>
       </x:c>
-      <x:c r="B185" s="5" t="s">
-        <x:v>360</x:v>
-      </x:c>
-      <x:c r="C185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D185" t="s">
-        <x:v>1</x:v>
+      <x:c r="C185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G185" t="s">
-        <x:v>1</x:v>
+      <x:c r="F185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="H185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M185" t="s">
-        <x:v>1</x:v>
+      <x:c r="I185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="J185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W185" t="s">
-        <x:v>1</x:v>
+      <x:c r="O185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="V185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="W185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="X185" t="s">
         <x:v>1</x:v>
@@ -39127,116 +39127,116 @@
       <x:c r="AA185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB185" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AC185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD185" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AE185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF185" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AG185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL185" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AH185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AI185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AM185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AN185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AO185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AP185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AQ185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AS185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AT185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AU185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AV185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AW185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AZ185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BB185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BC185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BD185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BE185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BG185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BK185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BM185" t="s">
         <x:v>1</x:v>
@@ -39247,20 +39247,20 @@
       <x:c r="BO185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT185" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BQ185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BR185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BS185" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT185" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
@@ -39270,191 +39270,191 @@
       <x:c r="B186" s="5" t="s">
         <x:v>363</x:v>
       </x:c>
-      <x:c r="C186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="M186" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="C186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M186" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="U186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="V186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="W186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="X186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AC186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AE186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AH186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AI186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AM186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AN186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AO186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AP186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AQ186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AR186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AS186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AT186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AU186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AV186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AW186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AX186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AY186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AZ186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BA186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BB186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BC186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BD186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BE186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BF186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BG186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BH186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BJ186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BK186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BL186" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="O186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Y186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Z186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AA186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AB186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AD186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AF186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL186" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM186" t="s">
         <x:v>1</x:v>
@@ -39462,23 +39462,23 @@
       <x:c r="BN186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BQ186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BR186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BS186" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT186" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BO186" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BP186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT186" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
@@ -39494,8 +39494,8 @@
       <x:c r="D187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E187" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="E187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F187" t="s">
         <x:v>1</x:v>
@@ -39503,8 +39503,8 @@
       <x:c r="G187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H187" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="H187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I187" t="s">
         <x:v>1</x:v>
@@ -39524,8 +39524,8 @@
       <x:c r="N187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O187" t="s">
-        <x:v>1</x:v>
+      <x:c r="O187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P187" t="s">
         <x:v>1</x:v>
@@ -39551,32 +39551,32 @@
       <x:c r="W187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X187" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Y187" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Z187" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AA187" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AB187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC187" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="X187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB187" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AD187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE187" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AF187" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AE187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AG187" t="s">
         <x:v>1</x:v>
@@ -39590,11 +39590,11 @@
       <x:c r="AJ187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL187" t="s">
-        <x:v>1</x:v>
+      <x:c r="AK187" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM187" t="s">
         <x:v>1</x:v>
@@ -39641,8 +39641,8 @@
       <x:c r="BA187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB187" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BC187" t="s">
         <x:v>1</x:v>
@@ -39656,23 +39656,23 @@
       <x:c r="BF187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BG187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI187" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG187" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH187" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BJ187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL187" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK187" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BM187" t="s">
         <x:v>1</x:v>
@@ -39683,11 +39683,11 @@
       <x:c r="BO187" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BP187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ187" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP187" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BQ187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BR187" t="s">
         <x:v>1</x:v>
@@ -39695,234 +39695,234 @@
       <x:c r="BS187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BT187" t="s">
-        <x:v>1</x:v>
+      <x:c r="BT187" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
-      <x:c r="A188" s="4" t="s">
+      <x:c r="A188" s="3" t="s">
         <x:v>366</x:v>
       </x:c>
-      <x:c r="B188" s="5" t="s">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="C188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AC188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AM188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BC188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BH188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BJ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BL188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BM188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BP188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BQ188" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BR188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT188" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BT188" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
-      <x:c r="A189" s="3" t="s">
+      <x:c r="A189" s="4" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B189" s="5" t="s">
         <x:v>368</x:v>
       </x:c>
-      <x:c r="BT189" t="s">
-        <x:v>1</x:v>
+      <x:c r="C189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="D189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AM189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BC189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS189" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT189" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="190">
@@ -39971,20 +39971,20 @@
       <x:c r="O190" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T190" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="P190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U190" t="s">
         <x:v>1</x:v>
@@ -40007,8 +40007,8 @@
       <x:c r="AA190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB190" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC190" t="s">
         <x:v>1</x:v>
@@ -40028,17 +40028,17 @@
       <x:c r="AH190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK190" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL190" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AI190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM190" t="s">
         <x:v>1</x:v>
@@ -40085,8 +40085,8 @@
       <x:c r="BA190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB190" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BB190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC190" t="s">
         <x:v>1</x:v>
@@ -40112,8 +40112,8 @@
       <x:c r="BJ190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK190" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BK190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL190" t="s">
         <x:v>1</x:v>
@@ -40189,20 +40189,20 @@
       <x:c r="O191" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T191" t="s">
-        <x:v>1</x:v>
+      <x:c r="P191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T191" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="U191" t="s">
         <x:v>1</x:v>
@@ -40225,8 +40225,8 @@
       <x:c r="AA191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB191" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB191" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AC191" t="s">
         <x:v>1</x:v>
@@ -40246,17 +40246,17 @@
       <x:c r="AH191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL191" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK191" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL191" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM191" t="s">
         <x:v>1</x:v>
@@ -40303,8 +40303,8 @@
       <x:c r="BA191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB191" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB191" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BC191" t="s">
         <x:v>1</x:v>
@@ -40318,8 +40318,8 @@
       <x:c r="BF191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BG191" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BG191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH191" s="6" t="s">
         <x:v>80</x:v>
@@ -40330,8 +40330,8 @@
       <x:c r="BJ191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK191" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK191" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BL191" t="s">
         <x:v>1</x:v>
@@ -40404,23 +40404,23 @@
       <x:c r="N192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="O192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U192" t="s">
         <x:v>1</x:v>
@@ -40443,8 +40443,8 @@
       <x:c r="AA192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC192" t="s">
         <x:v>1</x:v>
@@ -40464,17 +40464,17 @@
       <x:c r="AH192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AI192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM192" t="s">
         <x:v>1</x:v>
@@ -40509,8 +40509,8 @@
       <x:c r="AW192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AX192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY192" t="s">
         <x:v>1</x:v>
@@ -40521,8 +40521,8 @@
       <x:c r="BA192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BB192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC192" t="s">
         <x:v>1</x:v>
@@ -40539,17 +40539,17 @@
       <x:c r="BG192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BH192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BK192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL192" t="s">
         <x:v>1</x:v>
@@ -40572,11 +40572,11 @@
       <x:c r="BR192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS192" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT192" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BS192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT192" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="193">
@@ -40584,10 +40584,10 @@
         <x:v>375</x:v>
       </x:c>
       <x:c r="B193" s="5" t="s">
-        <x:v>376</x:v>
-      </x:c>
-      <x:c r="C193" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="C193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D193" t="s">
         <x:v>1</x:v>
@@ -40622,23 +40622,23 @@
       <x:c r="N193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T193" t="s">
-        <x:v>1</x:v>
+      <x:c r="O193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="U193" t="s">
         <x:v>1</x:v>
@@ -40661,8 +40661,8 @@
       <x:c r="AA193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB193" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AC193" t="s">
         <x:v>1</x:v>
@@ -40685,11 +40685,11 @@
       <x:c r="AI193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK193" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AL193" t="s">
         <x:v>1</x:v>
@@ -40727,8 +40727,8 @@
       <x:c r="AW193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX193" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AY193" t="s">
         <x:v>1</x:v>
@@ -40739,8 +40739,8 @@
       <x:c r="BA193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB193" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BC193" t="s">
         <x:v>1</x:v>
@@ -40766,8 +40766,8 @@
       <x:c r="BJ193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK193" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BL193" t="s">
         <x:v>1</x:v>
@@ -40790,19 +40790,19 @@
       <x:c r="BR193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT193" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS193" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT193" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="194">
       <x:c r="A194" s="4" t="s">
-        <x:v>377</x:v>
+        <x:v>376</x:v>
       </x:c>
       <x:c r="B194" s="5" t="s">
-        <x:v>372</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C194" t="s">
         <x:v>1</x:v>
@@ -40909,8 +40909,8 @@
       <x:c r="AK194" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AL194" t="s">
-        <x:v>1</x:v>
+      <x:c r="AL194" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM194" t="s">
         <x:v>1</x:v>
@@ -41017,11 +41017,11 @@
     </x:row>
     <x:row r="195">
       <x:c r="A195" s="4" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B195" s="5" t="s">
         <x:v>378</x:v>
       </x:c>
-      <x:c r="B195" s="5" t="s">
-        <x:v>372</x:v>
-      </x:c>
       <x:c r="C195" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -41097,8 +41097,8 @@
       <x:c r="AA195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB195" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC195" t="s">
         <x:v>1</x:v>
@@ -41121,14 +41121,14 @@
       <x:c r="AI195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ195" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK195" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL195" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AJ195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM195" t="s">
         <x:v>1</x:v>
@@ -41175,8 +41175,8 @@
       <x:c r="BA195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB195" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BB195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC195" t="s">
         <x:v>1</x:v>
@@ -41557,8 +41557,8 @@
       <x:c r="AI197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ197" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ197" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AK197" t="s">
         <x:v>1</x:v>
@@ -41629,11 +41629,11 @@
       <x:c r="BG197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH197" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI197" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH197" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI197" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BJ197" t="s">
         <x:v>1</x:v>
@@ -41715,20 +41715,20 @@
       <x:c r="O198" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P198" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q198" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R198" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S198" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T198" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="P198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U198" t="s">
         <x:v>1</x:v>
@@ -41775,8 +41775,8 @@
       <x:c r="AI198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ198" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AJ198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK198" t="s">
         <x:v>1</x:v>
@@ -41817,8 +41817,8 @@
       <x:c r="AW198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX198" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AX198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY198" t="s">
         <x:v>1</x:v>
@@ -41847,17 +41847,17 @@
       <x:c r="BG198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH198" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI198" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BH198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK198" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BK198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL198" t="s">
         <x:v>1</x:v>
@@ -41880,237 +41880,237 @@
       <x:c r="BR198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS198" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BS198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BT198" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="199">
-      <x:c r="A199" s="4" t="s">
+      <x:c r="A199" s="3" t="s">
         <x:v>385</x:v>
       </x:c>
-      <x:c r="B199" s="5" t="s">
-        <x:v>386</x:v>
-      </x:c>
-      <x:c r="C199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O199" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT199" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BT199" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="200">
-      <x:c r="A200" s="3" t="s">
+      <x:c r="A200" s="4" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B200" s="5" t="s">
         <x:v>387</x:v>
       </x:c>
-      <x:c r="BT200" t="s">
-        <x:v>1</x:v>
+      <x:c r="C200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="P200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AM200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS200" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT200" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="201">
@@ -42159,20 +42159,20 @@
       <x:c r="O201" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="P201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U201" t="s">
         <x:v>1</x:v>
@@ -42195,8 +42195,8 @@
       <x:c r="AA201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC201" t="s">
         <x:v>1</x:v>
@@ -42216,17 +42216,17 @@
       <x:c r="AH201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AI201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AL201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM201" t="s">
         <x:v>1</x:v>
@@ -42258,11 +42258,11 @@
       <x:c r="AV201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AX201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AW201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY201" t="s">
         <x:v>1</x:v>
@@ -42291,11 +42291,11 @@
       <x:c r="BG201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH201" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BH201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ201" t="s">
         <x:v>1</x:v>
@@ -42324,8 +42324,8 @@
       <x:c r="BR201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS201" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BS201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BT201" s="6" t="s">
         <x:v>80</x:v>
@@ -42413,8 +42413,8 @@
       <x:c r="AA202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB202" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB202" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AC202" t="s">
         <x:v>1</x:v>
@@ -42434,17 +42434,17 @@
       <x:c r="AH202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ202" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI202" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ202" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AK202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL202" t="s">
-        <x:v>1</x:v>
+      <x:c r="AL202" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM202" t="s">
         <x:v>1</x:v>
@@ -42518,8 +42518,8 @@
       <x:c r="BJ202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK202" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BK202" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL202" t="s">
         <x:v>1</x:v>
@@ -42545,8 +42545,8 @@
       <x:c r="BS202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BT202" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BT202" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="203">
@@ -42586,8 +42586,8 @@
       <x:c r="L203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M203" t="s">
-        <x:v>1</x:v>
+      <x:c r="M203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N203" t="s">
         <x:v>1</x:v>
@@ -42631,8 +42631,8 @@
       <x:c r="AA203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB203" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC203" t="s">
         <x:v>1</x:v>
@@ -42652,17 +42652,17 @@
       <x:c r="AH203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI203" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ203" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AI203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL203" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AL203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM203" t="s">
         <x:v>1</x:v>
@@ -42694,11 +42694,11 @@
       <x:c r="AV203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX203" t="s">
-        <x:v>1</x:v>
+      <x:c r="AW203" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AY203" t="s">
         <x:v>1</x:v>
@@ -42718,26 +42718,26 @@
       <x:c r="BD203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE203" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BG203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH203" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BJ203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BL203" t="s">
         <x:v>1</x:v>
@@ -42751,8 +42751,8 @@
       <x:c r="BO203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BQ203" t="s">
         <x:v>1</x:v>
@@ -42760,11 +42760,11 @@
       <x:c r="BR203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS203" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT203" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="204">
@@ -42777,8 +42777,8 @@
       <x:c r="C204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D204" t="s">
-        <x:v>1</x:v>
+      <x:c r="D204" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E204" t="s">
         <x:v>1</x:v>
@@ -42795,17 +42795,17 @@
       <x:c r="I204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M204" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="J204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="K204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="M204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N204" t="s">
         <x:v>1</x:v>
@@ -42882,41 +42882,41 @@
       <x:c r="AL204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AM204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU204" t="s">
-        <x:v>1</x:v>
+      <x:c r="AM204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AN204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AO204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AP204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AQ204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AS204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AT204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AU204" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AV204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW204" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AX204" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AW204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY204" t="s">
         <x:v>1</x:v>
@@ -42930,38 +42930,38 @@
       <x:c r="BB204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BC204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE204" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BF204" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BC204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BD204" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BE204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH204" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BI204" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BH204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK204" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BK204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BM204" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BN204" t="s">
         <x:v>1</x:v>
@@ -42969,20 +42969,20 @@
       <x:c r="BO204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP204" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BQ204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ204" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BR204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS204" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT204" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BS204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT204" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="205">
@@ -42992,26 +42992,26 @@
       <x:c r="B205" s="5" t="s">
         <x:v>397</x:v>
       </x:c>
-      <x:c r="C205" t="s">
-        <x:v>1</x:v>
+      <x:c r="C205" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D205" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="E205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I205" t="s">
-        <x:v>1</x:v>
+      <x:c r="E205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="G205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="H205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="I205" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="J205" s="6" t="s">
         <x:v>80</x:v>
@@ -43022,8 +43022,8 @@
       <x:c r="L205" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="M205" t="s">
-        <x:v>1</x:v>
+      <x:c r="M205" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N205" t="s">
         <x:v>1</x:v>
@@ -43031,74 +43031,74 @@
       <x:c r="O205" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="P205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL205" t="s">
-        <x:v>1</x:v>
+      <x:c r="P205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Q205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="R205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="S205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="T205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="U205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="V205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="W205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="X205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Y205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="Z205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AA205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AB205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AD205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AE205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AF205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AH205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AI205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL205" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM205" s="6" t="s">
         <x:v>80</x:v>
@@ -43127,26 +43127,26 @@
       <x:c r="AU205" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AV205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB205" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AW205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AX205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AY205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AZ205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BB205" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BC205" s="6" t="s">
         <x:v>80</x:v>
@@ -43154,53 +43154,53 @@
       <x:c r="BD205" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BE205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM205" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BE205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BG205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BH205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BI205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BJ205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BK205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BM205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ205" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BO205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BP205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BQ205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS205" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT205" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="206">
@@ -43210,35 +43210,35 @@
       <x:c r="B206" s="5" t="s">
         <x:v>399</x:v>
       </x:c>
-      <x:c r="C206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="E206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="F206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="G206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="K206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="L206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="C206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M206" s="6" t="s">
         <x:v>80</x:v>
@@ -43246,44 +43246,44 @@
       <x:c r="N206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="P206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Q206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="R206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="S206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="T206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="U206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="V206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="W206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="X206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Y206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="Z206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AA206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="O206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AB206" s="6" t="s">
         <x:v>80</x:v>
@@ -43318,8 +43318,8 @@
       <x:c r="AL206" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AM206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AM206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AN206" s="6" t="s">
         <x:v>80</x:v>
@@ -43327,26 +43327,26 @@
       <x:c r="AO206" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AP206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AP206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AQ206" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AR206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AR206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS206" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AT206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AT206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AU206" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AV206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AV206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW206" s="6" t="s">
         <x:v>80</x:v>
@@ -43402,11 +43402,11 @@
       <x:c r="BN206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO206" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BP206" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BO206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ206" t="s">
         <x:v>1</x:v>
@@ -43458,8 +43458,8 @@
       <x:c r="L207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="M207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N207" t="s">
         <x:v>1</x:v>
@@ -43503,65 +43503,65 @@
       <x:c r="AA207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AC207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AD207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AE207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AF207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AG207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AH207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AI207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AJ207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AK207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AL207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AB207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AO207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AN207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AP207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AQ207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AQ207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AR207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AS207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AS207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AU207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV207" t="s">
         <x:v>1</x:v>
@@ -43569,35 +43569,35 @@
       <x:c r="AW207" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AX207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AY207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="AZ207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BA207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BB207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BC207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BD207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BE207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BF207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BG207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="AX207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH207" s="6" t="s">
         <x:v>80</x:v>
@@ -43605,14 +43605,14 @@
       <x:c r="BI207" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BJ207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BK207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BL207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BJ207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM207" t="s">
         <x:v>1</x:v>
@@ -43620,11 +43620,11 @@
       <x:c r="BN207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO207" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BP207" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BQ207" t="s">
         <x:v>1</x:v>
@@ -43632,11 +43632,11 @@
       <x:c r="BR207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS207" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BT207" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BS207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT207" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208">
@@ -43676,14 +43676,14 @@
       <x:c r="L208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M208" t="s">
-        <x:v>1</x:v>
+      <x:c r="M208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="N208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O208" t="s">
-        <x:v>1</x:v>
+      <x:c r="O208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="P208" t="s">
         <x:v>1</x:v>
@@ -43721,38 +43721,38 @@
       <x:c r="AA208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL208" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AC208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AD208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AE208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AF208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AG208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AH208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AI208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AJ208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AK208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AL208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AM208" t="s">
         <x:v>1</x:v>
@@ -43775,11 +43775,11 @@
       <x:c r="AS208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU208" t="s">
-        <x:v>1</x:v>
+      <x:c r="AT208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AU208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AV208" t="s">
         <x:v>1</x:v>
@@ -43787,20 +43787,20 @@
       <x:c r="AW208" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AX208" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AY208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB208" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BA208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BB208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BC208" t="s">
         <x:v>1</x:v>
@@ -43808,11 +43808,11 @@
       <x:c r="BD208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BF208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BG208" t="s">
         <x:v>1</x:v>
@@ -43823,20 +43823,20 @@
       <x:c r="BI208" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BJ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BJ208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BK208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BL208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BM208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BO208" s="6" t="s">
         <x:v>80</x:v>
@@ -43844,17 +43844,17 @@
       <x:c r="BP208" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BQ208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BQ208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BR208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS208" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BT208" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
@@ -43888,11 +43888,11 @@
       <x:c r="J209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L209" t="s">
-        <x:v>1</x:v>
+      <x:c r="K209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="L209" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="M209" s="6" t="s">
         <x:v>80</x:v>
@@ -43900,8 +43900,8 @@
       <x:c r="N209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O209" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="O209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P209" t="s">
         <x:v>1</x:v>
@@ -43972,26 +43972,26 @@
       <x:c r="AL209" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AM209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AM209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AN209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AO209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AP209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AQ209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AR209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="AS209" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AT209" s="6" t="s">
         <x:v>80</x:v>
@@ -44008,23 +44008,23 @@
       <x:c r="AX209" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="AY209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY209" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="AZ209" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BA209" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BA209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB209" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BC209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BC209" s="6" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="BD209" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BE209" s="6" t="s">
         <x:v>80</x:v>
@@ -44032,8 +44032,8 @@
       <x:c r="BF209" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BG209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG209" s="6" t="s">
+        <x:v>80</x:v>
       </x:c>
       <x:c r="BH209" s="6" t="s">
         <x:v>80</x:v>
@@ -44047,23 +44047,23 @@
       <x:c r="BK209" s="6" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BL209" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BL209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN209" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BO209" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BP209" s="6" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BQ209" s="6" t="s">
-        <x:v>80</x:v>
+      <x:c r="BN209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR209" t="s">
         <x:v>1</x:v>
@@ -44329,11 +44329,11 @@
     <x:mergeCell ref="A110:BT110"/>
     <x:mergeCell ref="A123:BT123"/>
     <x:mergeCell ref="A138:BT138"/>
-    <x:mergeCell ref="A163:BT163"/>
-    <x:mergeCell ref="A174:BT174"/>
-    <x:mergeCell ref="A180:BT180"/>
-    <x:mergeCell ref="A189:BT189"/>
-    <x:mergeCell ref="A200:BT200"/>
+    <x:mergeCell ref="A162:BT162"/>
+    <x:mergeCell ref="A173:BT173"/>
+    <x:mergeCell ref="A179:BT179"/>
+    <x:mergeCell ref="A188:BT188"/>
+    <x:mergeCell ref="A199:BT199"/>
   </x:mergeCells>
 </x:worksheet>
 </file>
--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R35ea3cd19b4b4fa7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R720d6f43e0454839"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R943f57b5fa5040bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R28f1af61f1bf46c9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
   </x:si>
   <x:si>
     <x:t>.NET
- 9.0.9 </x:t>
+ 9.0.10 </x:t>
   </x:si>
   <x:si>
     <x:t>wregex
@@ -106,7 +106,7 @@
  15.2.0 </x:t>
   </x:si>
   <x:si>
-    <x:t>TRegEx (C++Builder, Delphi)
+    <x:t>TRegEx
  29.0 </x:t>
   </x:si>
   <x:si>
@@ -1385,7 +1385,7 @@
   <x:cols>
     <x:col min="1" max="1" width="20" customWidth="1"/>
     <x:col min="2" max="2" width="45" customWidth="1"/>
-    <x:col min="3" max="3" width="7" customWidth="1"/>
+    <x:col min="3" max="3" width="8" customWidth="1"/>
     <x:col min="4" max="4" width="11.789" customWidth="1"/>
     <x:col min="5" max="5" width="6.198" customWidth="1"/>
     <x:col min="6" max="6" width="9.4" customWidth="1"/>
@@ -31140,8 +31140,8 @@
       <x:c r="BT143" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BU143" t="s">
-        <x:v>1</x:v>
+      <x:c r="BU143" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="144">

--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R28f1af61f1bf46c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="Rcf14dccbc7d8401f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -39,7 +39,7 @@
   </x:si>
   <x:si>
     <x:t>PCRE2
- 10.46 </x:t>
+ 10.47 </x:t>
   </x:si>
   <x:si>
     <x:t>Boost.Regex
@@ -75,7 +75,7 @@
   </x:si>
   <x:si>
     <x:t>Java
- 24.0.1 </x:t>
+ 25.0.1 </x:t>
   </x:si>
   <x:si>
     <x:t>Python
@@ -87,7 +87,7 @@
   </x:si>
   <x:si>
     <x:t>Perl
- 5.40.2 </x:t>
+ 5.42.0 </x:t>
   </x:si>
   <x:si>
     <x:t>Fortran (IFX)
@@ -1093,6 +1093,12 @@
     <x:t>(?P&gt;name)</x:t>
   </x:si>
   <x:si>
+    <x:t>(?…(grouplist))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Additionally return capturing groups</x:t>
+  </x:si>
+  <x:si>
     <x:t>Quantifiers</x:t>
   </x:si>
   <x:si>
@@ -4471,11 +4477,11 @@
       <x:c r="AO16" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AP16" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ16" t="s">
-        <x:v>1</x:v>
+      <x:c r="AP16" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AQ16" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AR16" s="6" t="s">
         <x:v>81</x:v>
@@ -38454,240 +38460,240 @@
       </x:c>
     </x:row>
     <x:row r="179">
-      <x:c r="A179" s="3" t="s">
+      <x:c r="A179" s="4" t="s">
         <x:v>353</x:v>
+      </x:c>
+      <x:c r="B179" s="5" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="C179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O179" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT179" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BU179" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
-      <x:c r="A180" s="4" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="B180" s="5" t="s">
+      <x:c r="A180" s="3" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="C180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="K180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="L180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="N180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="U180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="W180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="X180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Y180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Z180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AA180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AB180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AC180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AD180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AE180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AF180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AH180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AI180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AM180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AN180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AO180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AP180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AQ180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AR180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AS180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AT180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AU180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AV180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AW180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AX180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AY180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AZ180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BA180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BB180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BC180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BD180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BE180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BF180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BG180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BH180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BJ180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BK180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BM180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BN180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BO180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BP180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BQ180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BR180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BS180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT180" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BU180" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BU180" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="181">
       <x:c r="A181" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>356</x:v>
       </x:c>
       <x:c r="B181" s="5" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C181" s="6" t="s">
         <x:v>81</x:v>
@@ -38695,8 +38701,8 @@
       <x:c r="D181" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="E181" t="s">
-        <x:v>1</x:v>
+      <x:c r="E181" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F181" s="6" t="s">
         <x:v>81</x:v>
@@ -38704,8 +38710,8 @@
       <x:c r="G181" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="H181" t="s">
-        <x:v>1</x:v>
+      <x:c r="H181" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I181" s="6" t="s">
         <x:v>81</x:v>
@@ -38752,14 +38758,14 @@
       <x:c r="W181" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="X181" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y181" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z181" t="s">
-        <x:v>1</x:v>
+      <x:c r="X181" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Y181" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Z181" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AA181" s="6" t="s">
         <x:v>81</x:v>
@@ -38767,8 +38773,8 @@
       <x:c r="AB181" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AC181" t="s">
-        <x:v>1</x:v>
+      <x:c r="AC181" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AD181" s="6" t="s">
         <x:v>81</x:v>
@@ -38776,8 +38782,8 @@
       <x:c r="AE181" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AF181" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF181" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AG181" s="6" t="s">
         <x:v>81</x:v>
@@ -38881,8 +38887,8 @@
       <x:c r="BN181" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BO181" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO181" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BP181" s="6" t="s">
         <x:v>81</x:v>
@@ -38905,73 +38911,73 @@
     </x:row>
     <x:row r="182">
       <x:c r="A182" s="4" t="s">
-        <x:v>357</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B182" s="5" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D182" t="s">
-        <x:v>1</x:v>
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="C182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D182" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G182" t="s">
-        <x:v>1</x:v>
+      <x:c r="F182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G182" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W182" t="s">
-        <x:v>1</x:v>
+      <x:c r="I182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="L182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="U182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="W182" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="X182" t="s">
         <x:v>1</x:v>
@@ -38982,217 +38988,217 @@
       <x:c r="Z182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB182" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AB182" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF182" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN182" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AE182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AF182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AH182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AI182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AM182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AN182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AO182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AP182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AQ182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AR182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AS182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AT182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AU182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AV182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AW182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AX182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AY182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AZ182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BA182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BB182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BC182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BD182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BE182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BF182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BG182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BH182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BJ182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BK182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BL182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BM182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BN182" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BO182" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BU182" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BQ182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BR182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BS182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT182" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BU182" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" s="4" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B183" s="5" t="s">
         <x:v>358</x:v>
       </x:c>
-      <x:c r="B183" s="5" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="C183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D183" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="C183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G183" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="F183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="K183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="L183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="N183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="O183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="U183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="W183" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="I183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="X183" t="s">
         <x:v>1</x:v>
@@ -39203,146 +39209,146 @@
       <x:c r="Z183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AB183" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AA183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AE183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AF183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AH183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AI183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AM183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AN183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AO183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AP183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AQ183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AR183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AS183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AT183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AU183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AV183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AW183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AX183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AY183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AZ183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BA183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BB183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BC183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BD183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BE183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BF183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BG183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BH183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BJ183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BK183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BM183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BN183" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AD183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF183" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AG183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO183" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BQ183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BR183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BS183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT183" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BU183" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BP183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BU183" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
@@ -39350,70 +39356,70 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="B184" s="5" t="s">
-        <x:v>359</x:v>
-      </x:c>
-      <x:c r="C184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D184" t="s">
-        <x:v>1</x:v>
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="C184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D184" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="E184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G184" t="s">
-        <x:v>1</x:v>
+      <x:c r="F184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G184" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="H184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W184" t="s">
-        <x:v>1</x:v>
+      <x:c r="I184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="L184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="O184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="U184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="W184" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="X184" t="s">
         <x:v>1</x:v>
@@ -39424,217 +39430,217 @@
       <x:c r="Z184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB184" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AB184" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF184" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN184" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AE184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AF184" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AH184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AI184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AM184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AN184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AO184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AP184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AQ184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AR184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AS184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AT184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AU184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AV184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AW184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AX184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AY184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AZ184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BA184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BB184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BC184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BD184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BE184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BF184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BG184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BH184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BJ184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BK184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BL184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BM184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BN184" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BO184" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BU184" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BQ184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BR184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BS184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT184" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BU184" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" s="4" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B185" s="5" t="s">
         <x:v>361</x:v>
       </x:c>
-      <x:c r="B185" s="5" t="s">
-        <x:v>362</x:v>
-      </x:c>
-      <x:c r="C185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="C185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="F185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="H185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="J185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="K185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="L185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="I185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="U185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="W185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="O185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="X185" t="s">
         <x:v>1</x:v>
@@ -39648,116 +39654,116 @@
       <x:c r="AA185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AB185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AD185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AE185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AH185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AI185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AM185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AN185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AO185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AP185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AQ185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AR185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AS185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AT185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AU185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AV185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AW185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AX185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AY185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AZ185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BA185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BB185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BC185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BD185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BE185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BF185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BG185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BH185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BJ185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BK185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AF185" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AG185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL185" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM185" t="s">
         <x:v>1</x:v>
@@ -39768,23 +39774,23 @@
       <x:c r="BO185" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BQ185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BR185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BS185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT185" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BU185" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BP185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT185" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BU185" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
@@ -39794,191 +39800,191 @@
       <x:c r="B186" s="5" t="s">
         <x:v>364</x:v>
       </x:c>
-      <x:c r="C186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M186" t="s">
-        <x:v>1</x:v>
+      <x:c r="C186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="L186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M186" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Y186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Z186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AA186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AB186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AD186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AF186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL186" t="s">
-        <x:v>1</x:v>
+      <x:c r="O186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="U186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="W186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="X186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AC186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AE186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AH186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AI186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AM186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AN186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AO186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AP186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AQ186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AR186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AS186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AT186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AU186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AV186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AW186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AX186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AY186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AZ186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BA186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BB186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BC186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BD186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BE186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BF186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BG186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BH186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BJ186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BK186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BL186" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BM186" t="s">
         <x:v>1</x:v>
@@ -39986,26 +39992,26 @@
       <x:c r="BN186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO186" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BP186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BU186" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO186" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BQ186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BR186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BS186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT186" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BU186" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="187">
@@ -40021,8 +40027,8 @@
       <x:c r="D187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E187" t="s">
-        <x:v>1</x:v>
+      <x:c r="E187" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="F187" t="s">
         <x:v>1</x:v>
@@ -40030,8 +40036,8 @@
       <x:c r="G187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H187" t="s">
-        <x:v>1</x:v>
+      <x:c r="H187" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="I187" t="s">
         <x:v>1</x:v>
@@ -40051,8 +40057,8 @@
       <x:c r="N187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="O187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P187" t="s">
         <x:v>1</x:v>
@@ -40078,32 +40084,32 @@
       <x:c r="W187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB187" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AC187" t="s">
-        <x:v>1</x:v>
+      <x:c r="X187" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Y187" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Z187" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AA187" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AB187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC187" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AD187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE187" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF187" t="s">
-        <x:v>1</x:v>
+      <x:c r="AE187" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AF187" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AG187" t="s">
         <x:v>1</x:v>
@@ -40117,11 +40123,11 @@
       <x:c r="AJ187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK187" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AK187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM187" t="s">
         <x:v>1</x:v>
@@ -40168,8 +40174,8 @@
       <x:c r="BA187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BB187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC187" t="s">
         <x:v>1</x:v>
@@ -40183,23 +40189,23 @@
       <x:c r="BF187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BG187" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BH187" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BG187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK187" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BK187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM187" t="s">
         <x:v>1</x:v>
@@ -40210,11 +40216,11 @@
       <x:c r="BO187" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BP187" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BQ187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BP187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR187" t="s">
         <x:v>1</x:v>
@@ -40222,237 +40228,237 @@
       <x:c r="BS187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BT187" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BT187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BU187" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="188">
-      <x:c r="A188" s="3" t="s">
+      <x:c r="A188" s="4" t="s">
         <x:v>367</x:v>
+      </x:c>
+      <x:c r="B188" s="5" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AC188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AM188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BC188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BH188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BJ188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BL188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BM188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BP188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BQ188" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BR188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS188" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT188" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BU188" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
-      <x:c r="A189" s="4" t="s">
-        <x:v>368</x:v>
-      </x:c>
-      <x:c r="B189" s="5" t="s">
+      <x:c r="A189" s="3" t="s">
         <x:v>369</x:v>
-      </x:c>
-      <x:c r="C189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="U189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AC189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AM189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AY189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BC189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BH189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BJ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR189" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS189" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT189" s="6" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="BU189" t="s">
         <x:v>1</x:v>
@@ -40504,20 +40510,20 @@
       <x:c r="O190" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="P190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T190" t="s">
-        <x:v>1</x:v>
+      <x:c r="P190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T190" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="U190" t="s">
         <x:v>1</x:v>
@@ -40540,8 +40546,8 @@
       <x:c r="AA190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB190" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC190" t="s">
         <x:v>1</x:v>
@@ -40561,17 +40567,17 @@
       <x:c r="AH190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK190" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL190" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AM190" t="s">
         <x:v>1</x:v>
@@ -40618,8 +40624,8 @@
       <x:c r="BA190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB190" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BC190" t="s">
         <x:v>1</x:v>
@@ -40645,8 +40651,8 @@
       <x:c r="BJ190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK190" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BL190" t="s">
         <x:v>1</x:v>
@@ -40725,20 +40731,20 @@
       <x:c r="O191" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="P191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T191" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="P191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U191" t="s">
         <x:v>1</x:v>
@@ -40761,8 +40767,8 @@
       <x:c r="AA191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB191" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AB191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC191" t="s">
         <x:v>1</x:v>
@@ -40782,17 +40788,17 @@
       <x:c r="AH191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK191" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL191" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AI191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM191" t="s">
         <x:v>1</x:v>
@@ -40839,8 +40845,8 @@
       <x:c r="BA191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB191" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BB191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC191" t="s">
         <x:v>1</x:v>
@@ -40854,8 +40860,8 @@
       <x:c r="BF191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BG191" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG191" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BH191" s="6" t="s">
         <x:v>81</x:v>
@@ -40866,8 +40872,8 @@
       <x:c r="BJ191" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK191" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BK191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL191" t="s">
         <x:v>1</x:v>
@@ -40943,23 +40949,23 @@
       <x:c r="N192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T192" t="s">
-        <x:v>1</x:v>
+      <x:c r="O192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="U192" t="s">
         <x:v>1</x:v>
@@ -40982,8 +40988,8 @@
       <x:c r="AA192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB192" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC192" t="s">
         <x:v>1</x:v>
@@ -41003,17 +41009,17 @@
       <x:c r="AH192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL192" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AM192" t="s">
         <x:v>1</x:v>
@@ -41048,8 +41054,8 @@
       <x:c r="AW192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX192" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AY192" t="s">
         <x:v>1</x:v>
@@ -41060,8 +41066,8 @@
       <x:c r="BA192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BC192" t="s">
         <x:v>1</x:v>
@@ -41078,17 +41084,17 @@
       <x:c r="BG192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BJ192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BL192" t="s">
         <x:v>1</x:v>
@@ -41111,11 +41117,11 @@
       <x:c r="BR192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS192" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT192" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BU192" t="s">
         <x:v>1</x:v>
@@ -41126,10 +41132,10 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="B193" s="5" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="C193" t="s">
-        <x:v>1</x:v>
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="C193" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D193" t="s">
         <x:v>1</x:v>
@@ -41164,23 +41170,23 @@
       <x:c r="N193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="O193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="U193" t="s">
         <x:v>1</x:v>
@@ -41203,8 +41209,8 @@
       <x:c r="AA193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AB193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC193" t="s">
         <x:v>1</x:v>
@@ -41227,11 +41233,11 @@
       <x:c r="AI193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AJ193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AL193" t="s">
         <x:v>1</x:v>
@@ -41269,8 +41275,8 @@
       <x:c r="AW193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AX193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY193" t="s">
         <x:v>1</x:v>
@@ -41281,8 +41287,8 @@
       <x:c r="BA193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BB193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC193" t="s">
         <x:v>1</x:v>
@@ -41308,8 +41314,8 @@
       <x:c r="BJ193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BK193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL193" t="s">
         <x:v>1</x:v>
@@ -41332,11 +41338,11 @@
       <x:c r="BR193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS193" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT193" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BS193" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT193" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BU193" t="s">
         <x:v>1</x:v>
@@ -41344,10 +41350,10 @@
     </x:row>
     <x:row r="194">
       <x:c r="A194" s="4" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B194" s="5" t="s">
-        <x:v>371</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C194" t="s">
         <x:v>1</x:v>
@@ -41454,8 +41460,8 @@
       <x:c r="AK194" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AL194" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AL194" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM194" t="s">
         <x:v>1</x:v>
@@ -41565,10 +41571,10 @@
     </x:row>
     <x:row r="195">
       <x:c r="A195" s="4" t="s">
-        <x:v>378</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B195" s="5" t="s">
-        <x:v>379</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="C195" t="s">
         <x:v>1</x:v>
@@ -41645,8 +41651,8 @@
       <x:c r="AA195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB195" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB195" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC195" t="s">
         <x:v>1</x:v>
@@ -41669,14 +41675,14 @@
       <x:c r="AI195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ195" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK195" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL195" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ195" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK195" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL195" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AM195" t="s">
         <x:v>1</x:v>
@@ -41723,8 +41729,8 @@
       <x:c r="BA195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB195" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB195" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BC195" t="s">
         <x:v>1</x:v>
@@ -42111,8 +42117,8 @@
       <x:c r="AI197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ197" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AJ197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK197" t="s">
         <x:v>1</x:v>
@@ -42183,11 +42189,11 @@
       <x:c r="BG197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH197" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI197" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BH197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ197" t="s">
         <x:v>1</x:v>
@@ -42272,20 +42278,20 @@
       <x:c r="O198" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="P198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T198" t="s">
-        <x:v>1</x:v>
+      <x:c r="P198" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q198" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R198" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S198" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T198" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="U198" t="s">
         <x:v>1</x:v>
@@ -42332,8 +42338,8 @@
       <x:c r="AI198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ198" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ198" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AK198" t="s">
         <x:v>1</x:v>
@@ -42374,8 +42380,8 @@
       <x:c r="AW198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AX198" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX198" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AY198" t="s">
         <x:v>1</x:v>
@@ -42404,17 +42410,17 @@
       <x:c r="BG198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI198" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH198" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI198" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BJ198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK198" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK198" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BL198" t="s">
         <x:v>1</x:v>
@@ -42437,8 +42443,8 @@
       <x:c r="BR198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS198" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS198" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BT198" s="6" t="s">
         <x:v>81</x:v>
@@ -42448,229 +42454,229 @@
       </x:c>
     </x:row>
     <x:row r="199">
-      <x:c r="A199" s="3" t="s">
+      <x:c r="A199" s="4" t="s">
         <x:v>386</x:v>
+      </x:c>
+      <x:c r="B199" s="5" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="C199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O199" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS199" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT199" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BU199" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="200">
-      <x:c r="A200" s="4" t="s">
-        <x:v>387</x:v>
-      </x:c>
-      <x:c r="B200" s="5" t="s">
+      <x:c r="A200" s="3" t="s">
         <x:v>388</x:v>
-      </x:c>
-      <x:c r="C200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="U200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AC200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AM200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AX200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AY200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BJ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR200" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS200" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT200" s="6" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="BU200" t="s">
         <x:v>1</x:v>
@@ -42722,20 +42728,20 @@
       <x:c r="O201" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="P201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T201" t="s">
-        <x:v>1</x:v>
+      <x:c r="P201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="U201" t="s">
         <x:v>1</x:v>
@@ -42758,8 +42764,8 @@
       <x:c r="AA201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC201" t="s">
         <x:v>1</x:v>
@@ -42779,17 +42785,17 @@
       <x:c r="AH201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AK201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AL201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AM201" t="s">
         <x:v>1</x:v>
@@ -42821,11 +42827,11 @@
       <x:c r="AV201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AW201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AX201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AY201" t="s">
         <x:v>1</x:v>
@@ -42854,11 +42860,11 @@
       <x:c r="BG201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI201" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH201" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BJ201" t="s">
         <x:v>1</x:v>
@@ -42887,8 +42893,8 @@
       <x:c r="BR201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS201" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS201" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BT201" s="6" t="s">
         <x:v>81</x:v>
@@ -42979,8 +42985,8 @@
       <x:c r="AA202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB202" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AB202" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC202" t="s">
         <x:v>1</x:v>
@@ -43000,17 +43006,17 @@
       <x:c r="AH202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI202" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ202" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AI202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ202" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AK202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL202" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AL202" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM202" t="s">
         <x:v>1</x:v>
@@ -43084,8 +43090,8 @@
       <x:c r="BJ202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK202" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK202" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BL202" t="s">
         <x:v>1</x:v>
@@ -43111,8 +43117,8 @@
       <x:c r="BS202" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BT202" t="s">
-        <x:v>1</x:v>
+      <x:c r="BT202" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BU202" t="s">
         <x:v>1</x:v>
@@ -43155,8 +43161,8 @@
       <x:c r="L203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="M203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N203" t="s">
         <x:v>1</x:v>
@@ -43200,8 +43206,8 @@
       <x:c r="AA203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB203" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB203" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AC203" t="s">
         <x:v>1</x:v>
@@ -43221,17 +43227,17 @@
       <x:c r="AH203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ203" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI203" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ203" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AK203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AL203" t="s">
-        <x:v>1</x:v>
+      <x:c r="AL203" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AM203" t="s">
         <x:v>1</x:v>
@@ -43263,11 +43269,11 @@
       <x:c r="AV203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW203" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AX203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AW203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY203" t="s">
         <x:v>1</x:v>
@@ -43287,26 +43293,26 @@
       <x:c r="BD203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE203" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BF203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BE203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH203" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BH203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BK203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BL203" t="s">
         <x:v>1</x:v>
@@ -43320,8 +43326,8 @@
       <x:c r="BO203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BP203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ203" t="s">
         <x:v>1</x:v>
@@ -43329,11 +43335,11 @@
       <x:c r="BR203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS203" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT203" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BS203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BU203" t="s">
         <x:v>1</x:v>
@@ -43349,8 +43355,8 @@
       <x:c r="C204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D204" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="D204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E204" t="s">
         <x:v>1</x:v>
@@ -43367,17 +43373,17 @@
       <x:c r="I204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="K204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="L204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="M204" t="s">
-        <x:v>1</x:v>
+      <x:c r="J204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M204" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N204" t="s">
         <x:v>1</x:v>
@@ -43454,41 +43460,41 @@
       <x:c r="AL204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AM204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AN204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AO204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AP204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AQ204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AR204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AS204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AT204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AU204" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AM204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AW204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX204" t="s">
-        <x:v>1</x:v>
+      <x:c r="AW204" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AX204" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AY204" t="s">
         <x:v>1</x:v>
@@ -43502,38 +43508,38 @@
       <x:c r="BB204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BC204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BD204" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BE204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BC204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE204" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BF204" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BG204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH204" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI204" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BJ204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BK204" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BL204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM204" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BM204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN204" t="s">
         <x:v>1</x:v>
@@ -43541,20 +43547,20 @@
       <x:c r="BO204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ204" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BP204" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BQ204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT204" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS204" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT204" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BU204" t="s">
         <x:v>1</x:v>
@@ -43567,26 +43573,26 @@
       <x:c r="B205" s="5" t="s">
         <x:v>398</x:v>
       </x:c>
-      <x:c r="C205" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="C205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D205" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="E205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="F205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="G205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I205" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="E205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="J205" s="6" t="s">
         <x:v>81</x:v>
@@ -43597,8 +43603,8 @@
       <x:c r="L205" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="M205" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="M205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N205" t="s">
         <x:v>1</x:v>
@@ -43606,74 +43612,74 @@
       <x:c r="O205" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="P205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="R205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="S205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="T205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="U205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="V205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="W205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="X205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Y205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Z205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AA205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AB205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AC205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AD205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AE205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AF205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AH205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AI205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL205" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="P205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM205" s="6" t="s">
         <x:v>81</x:v>
@@ -43702,26 +43708,26 @@
       <x:c r="AU205" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AV205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AW205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AX205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AY205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AZ205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BA205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BB205" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AV205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC205" s="6" t="s">
         <x:v>81</x:v>
@@ -43729,56 +43735,56 @@
       <x:c r="BD205" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BE205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BF205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BG205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BH205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BI205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BJ205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BK205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BM205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM205" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BN205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BP205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BQ205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ205" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BR205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT205" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BU205" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BS205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BU205" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="206">
@@ -43788,35 +43794,35 @@
       <x:c r="B206" s="5" t="s">
         <x:v>400</x:v>
       </x:c>
-      <x:c r="C206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L206" t="s">
-        <x:v>1</x:v>
+      <x:c r="C206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="E206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="G206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="I206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="J206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="K206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="L206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="M206" s="6" t="s">
         <x:v>81</x:v>
@@ -43824,44 +43830,44 @@
       <x:c r="N206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA206" t="s">
-        <x:v>1</x:v>
+      <x:c r="O206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="P206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="R206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="S206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="T206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="U206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="V206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="W206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="X206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Y206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Z206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AA206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AB206" s="6" t="s">
         <x:v>81</x:v>
@@ -43896,8 +43902,8 @@
       <x:c r="AL206" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AM206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AM206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AN206" s="6" t="s">
         <x:v>81</x:v>
@@ -43905,26 +43911,26 @@
       <x:c r="AO206" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AP206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AP206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AQ206" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AR206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AR206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AS206" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AT206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AT206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AU206" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AV206" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AW206" s="6" t="s">
         <x:v>81</x:v>
@@ -43980,11 +43986,11 @@
       <x:c r="BN206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO206" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP206" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO206" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BP206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BQ206" t="s">
         <x:v>1</x:v>
@@ -43998,8 +44004,8 @@
       <x:c r="BT206" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BU206" t="s">
-        <x:v>1</x:v>
+      <x:c r="BU206" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="207">
@@ -44039,8 +44045,8 @@
       <x:c r="L207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M207" t="s">
-        <x:v>1</x:v>
+      <x:c r="M207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="N207" t="s">
         <x:v>1</x:v>
@@ -44084,65 +44090,65 @@
       <x:c r="AA207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AC207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AD207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AE207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AF207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AG207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AH207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AI207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AM207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AO207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AP207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AQ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AQ207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AR207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AS207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AS207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AT207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="AV207" t="s">
         <x:v>1</x:v>
@@ -44150,35 +44156,35 @@
       <x:c r="AW207" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AX207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AX207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AY207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AZ207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BA207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BB207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BC207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BD207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BE207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BF207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BG207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BH207" s="6" t="s">
         <x:v>81</x:v>
@@ -44186,14 +44192,14 @@
       <x:c r="BI207" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BJ207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BJ207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BK207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BL207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BM207" t="s">
         <x:v>1</x:v>
@@ -44201,11 +44207,11 @@
       <x:c r="BN207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BO207" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BP207" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BO207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ207" t="s">
         <x:v>1</x:v>
@@ -44213,11 +44219,11 @@
       <x:c r="BR207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BS207" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT207" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BU207" t="s">
         <x:v>1</x:v>
@@ -44260,14 +44266,14 @@
       <x:c r="L208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="M208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="O208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P208" t="s">
         <x:v>1</x:v>
@@ -44305,38 +44311,38 @@
       <x:c r="AA208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AC208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AD208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AE208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AF208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AG208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AH208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AI208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AJ208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AK208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AL208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AB208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AM208" t="s">
         <x:v>1</x:v>
@@ -44359,11 +44365,11 @@
       <x:c r="AS208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AU208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AT208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV208" t="s">
         <x:v>1</x:v>
@@ -44371,20 +44377,20 @@
       <x:c r="AW208" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AX208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AX208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AY208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BA208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BB208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AZ208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BC208" t="s">
         <x:v>1</x:v>
@@ -44392,11 +44398,11 @@
       <x:c r="BD208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BF208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BE208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG208" t="s">
         <x:v>1</x:v>
@@ -44407,20 +44413,20 @@
       <x:c r="BI208" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BJ208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BK208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BL208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BJ208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BN208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO208" s="6" t="s">
         <x:v>81</x:v>
@@ -44428,20 +44434,20 @@
       <x:c r="BP208" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BQ208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BQ208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BS208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BT208" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BU208" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BS208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BU208" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
@@ -44475,11 +44481,11 @@
       <x:c r="J209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="L209" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="K209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M209" s="6" t="s">
         <x:v>81</x:v>
@@ -44487,8 +44493,8 @@
       <x:c r="N209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O209" t="s">
-        <x:v>1</x:v>
+      <x:c r="O209" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="P209" t="s">
         <x:v>1</x:v>
@@ -44559,26 +44565,26 @@
       <x:c r="AL209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AM209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AN209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AO209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AP209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AQ209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AR209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="AS209" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AM209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT209" s="6" t="s">
         <x:v>81</x:v>
@@ -44595,23 +44601,23 @@
       <x:c r="AX209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="AY209" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="AY209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BA209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BA209" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BB209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BC209" s="6" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="BD209" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BC209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE209" s="6" t="s">
         <x:v>81</x:v>
@@ -44619,8 +44625,8 @@
       <x:c r="BF209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BG209" s="6" t="s">
-        <x:v>81</x:v>
+      <x:c r="BG209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH209" s="6" t="s">
         <x:v>81</x:v>
@@ -44634,23 +44640,23 @@
       <x:c r="BK209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BL209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BL209" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BM209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN209" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BO209" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BP209" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BQ209" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
       <x:c r="BR209" t="s">
         <x:v>1</x:v>
@@ -44661,228 +44667,449 @@
       <x:c r="BT209" s="6" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="BU209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BU209" s="6" t="s">
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="210">
-      <x:c r="A210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BS210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BT210" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BU210" s="7" t="s">
+      <x:c r="A210" s="4" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B210" s="5" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="C210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="L210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="M210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="N210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AC210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AD210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AE210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AF210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AG210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AH210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AI210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AJ210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AK210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AL210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AM210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AN210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AO210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AP210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AQ210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AR210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AS210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AT210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AU210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AV210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AX210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AY210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AZ210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BA210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BC210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BD210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BE210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BF210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BG210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BH210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BI210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BJ210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BK210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BL210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BT210" s="6" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="BU210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="211">
+      <x:c r="A211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BT211" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BU211" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -44925,9 +45152,9 @@
     <x:mergeCell ref="A138:BU138"/>
     <x:mergeCell ref="A162:BU162"/>
     <x:mergeCell ref="A173:BU173"/>
-    <x:mergeCell ref="A179:BU179"/>
-    <x:mergeCell ref="A188:BU188"/>
-    <x:mergeCell ref="A199:BU199"/>
+    <x:mergeCell ref="A180:BU180"/>
+    <x:mergeCell ref="A189:BU189"/>
+    <x:mergeCell ref="A200:BU200"/>
   </x:mergeCells>
 </x:worksheet>
 </file>
--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R03b236386e804a99"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="Re4d58d4828684dbe"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1015,13 +1015,19 @@
     <x:t>(?&lt;=…)</x:t>
   </x:si>
   <x:si>
-    <x:t>Positive lookbehind</x:t>
+    <x:t>Positive lookbehind (fixed-length)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positive lookbehind (variable-length)</x:t>
   </x:si>
   <x:si>
     <x:t>(?&lt;!…)</x:t>
   </x:si>
   <x:si>
-    <x:t>Negative lookbehind</x:t>
+    <x:t>Negative lookbehind (fixed-length)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negative lookbehind (variable-length)</x:t>
   </x:si>
   <x:si>
     <x:t>(?&gt;…)</x:t>
@@ -34606,11 +34612,11 @@
     </x:row>
     <x:row r="167">
       <x:c r="A167" s="4" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B167" s="5" t="s">
         <x:v>328</x:v>
       </x:c>
-      <x:c r="B167" s="5" t="s">
-        <x:v>329</x:v>
-      </x:c>
       <x:c r="C167" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -34647,14 +34653,14 @@
       <x:c r="N167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R167" t="s">
         <x:v>1</x:v>
@@ -34674,8 +34680,8 @@
       <x:c r="W167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="X167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y167" s="6" t="s">
         <x:v>78</x:v>
@@ -34686,8 +34692,8 @@
       <x:c r="AA167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AB167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC167" t="s">
         <x:v>1</x:v>
@@ -34698,17 +34704,17 @@
       <x:c r="AE167" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AF167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ167" s="6" t="s">
         <x:v>78</x:v>
@@ -34743,11 +34749,11 @@
       <x:c r="AT167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW167" t="s">
         <x:v>1</x:v>
@@ -34755,8 +34761,8 @@
       <x:c r="AX167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AY167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ167" s="6" t="s">
         <x:v>78</x:v>
@@ -34770,8 +34776,8 @@
       <x:c r="BC167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BD167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE167" s="6" t="s">
         <x:v>78</x:v>
@@ -34782,8 +34788,8 @@
       <x:c r="BG167" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BH167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH167" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI167" t="s">
         <x:v>1</x:v>
@@ -34806,23 +34812,23 @@
       <x:c r="BO167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ167" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BR167" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ167" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR167" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" s="4" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B168" s="5" t="s">
         <x:v>330</x:v>
       </x:c>
-      <x:c r="B168" s="5" t="s">
-        <x:v>331</x:v>
-      </x:c>
       <x:c r="C168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -34847,11 +34853,11 @@
       <x:c r="J168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L168" t="s">
-        <x:v>1</x:v>
+      <x:c r="K168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L168" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M168" t="s">
         <x:v>1</x:v>
@@ -34922,32 +34928,32 @@
       <x:c r="AI168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AJ168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR168" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR168" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AS168" t="s">
         <x:v>1</x:v>
@@ -34970,11 +34976,11 @@
       <x:c r="AY168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AZ168" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA168" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ168" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA168" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BB168" s="6" t="s">
         <x:v>78</x:v>
@@ -34991,8 +34997,8 @@
       <x:c r="BF168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG168" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG168" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BH168" s="6" t="s">
         <x:v>78</x:v>
@@ -35030,13 +35036,13 @@
     </x:row>
     <x:row r="169">
       <x:c r="A169" s="4" t="s">
-        <x:v>332</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="B169" s="5" t="s">
-        <x:v>333</x:v>
-      </x:c>
-      <x:c r="C169" t="s">
-        <x:v>1</x:v>
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D169" t="s">
         <x:v>1</x:v>
@@ -35059,11 +35065,11 @@
       <x:c r="J169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L169" t="s">
-        <x:v>1</x:v>
+      <x:c r="K169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M169" t="s">
         <x:v>1</x:v>
@@ -35071,14 +35077,14 @@
       <x:c r="N169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O169" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P169" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q169" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R169" t="s">
         <x:v>1</x:v>
@@ -35098,11 +35104,11 @@
       <x:c r="W169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X169" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y169" t="s">
-        <x:v>1</x:v>
+      <x:c r="X169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z169" t="s">
         <x:v>1</x:v>
@@ -35119,8 +35125,8 @@
       <x:c r="AD169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AE169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AF169" t="s">
         <x:v>1</x:v>
@@ -35134,32 +35140,32 @@
       <x:c r="AI169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AS169" t="s">
         <x:v>1</x:v>
@@ -35167,8 +35173,8 @@
       <x:c r="AT169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU169" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV169" t="s">
         <x:v>1</x:v>
@@ -35182,14 +35188,14 @@
       <x:c r="AY169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BC169" t="s">
         <x:v>1</x:v>
@@ -35203,11 +35209,11 @@
       <x:c r="BF169" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH169" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BG169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI169" t="s">
         <x:v>1</x:v>
@@ -35230,11 +35236,11 @@
       <x:c r="BO169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP169" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ169" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP169" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ169" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR169" t="s">
         <x:v>1</x:v>
@@ -35242,13 +35248,13 @@
     </x:row>
     <x:row r="170">
       <x:c r="A170" s="4" t="s">
-        <x:v>334</x:v>
+        <x:v>332</x:v>
       </x:c>
       <x:c r="B170" s="5" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="C170" t="s">
-        <x:v>1</x:v>
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="C170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D170" t="s">
         <x:v>1</x:v>
@@ -35286,11 +35292,11 @@
       <x:c r="O170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q170" t="s">
-        <x:v>1</x:v>
+      <x:c r="P170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R170" t="s">
         <x:v>1</x:v>
@@ -35310,11 +35316,11 @@
       <x:c r="W170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y170" t="s">
-        <x:v>1</x:v>
+      <x:c r="X170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z170" t="s">
         <x:v>1</x:v>
@@ -35322,8 +35328,8 @@
       <x:c r="AA170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB170" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC170" t="s">
         <x:v>1</x:v>
@@ -35331,20 +35337,20 @@
       <x:c r="AD170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI170" t="s">
-        <x:v>1</x:v>
+      <x:c r="AE170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ170" t="s">
         <x:v>1</x:v>
@@ -35379,11 +35385,11 @@
       <x:c r="AT170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV170" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AW170" t="s">
         <x:v>1</x:v>
@@ -35391,8 +35397,8 @@
       <x:c r="AX170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY170" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ170" t="s">
         <x:v>1</x:v>
@@ -35400,26 +35406,26 @@
       <x:c r="BA170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB170" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BC170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF170" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH170" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI170" t="s">
         <x:v>1</x:v>
@@ -35442,22 +35448,22 @@
       <x:c r="BO170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP170" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR170" t="s">
-        <x:v>1</x:v>
+      <x:c r="BR170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="171">
       <x:c r="A171" s="4" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B171" s="5" t="s">
-        <x:v>337</x:v>
+        <x:v>335</x:v>
       </x:c>
       <x:c r="C171" t="s">
         <x:v>1</x:v>
@@ -35498,11 +35504,11 @@
       <x:c r="O171" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q171" t="s">
-        <x:v>1</x:v>
+      <x:c r="P171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R171" t="s">
         <x:v>1</x:v>
@@ -35522,8 +35528,8 @@
       <x:c r="W171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X171" t="s">
-        <x:v>1</x:v>
+      <x:c r="X171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y171" t="s">
         <x:v>1</x:v>
@@ -35591,8 +35597,8 @@
       <x:c r="AT171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU171" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV171" t="s">
         <x:v>1</x:v>
@@ -35621,17 +35627,17 @@
       <x:c r="BD171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF171" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH171" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI171" t="s">
         <x:v>1</x:v>
@@ -35654,8 +35660,8 @@
       <x:c r="BO171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP171" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ171" s="6" t="s">
         <x:v>78</x:v>
@@ -35666,10 +35672,10 @@
     </x:row>
     <x:row r="172">
       <x:c r="A172" s="4" t="s">
-        <x:v>338</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B172" s="5" t="s">
-        <x:v>339</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C172" t="s">
         <x:v>1</x:v>
@@ -35707,8 +35713,8 @@
       <x:c r="N172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O172" t="s">
-        <x:v>1</x:v>
+      <x:c r="O172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P172" t="s">
         <x:v>1</x:v>
@@ -35737,8 +35743,8 @@
       <x:c r="X172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y172" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y172" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z172" t="s">
         <x:v>1</x:v>
@@ -35758,14 +35764,14 @@
       <x:c r="AE172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF172" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG172" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH172" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF172" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG172" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH172" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI172" t="s">
         <x:v>1</x:v>
@@ -35869,16 +35875,220 @@
       <x:c r="BP172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BQ172" t="s">
-        <x:v>1</x:v>
+      <x:c r="BQ172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR172" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
-      <x:c r="A173" s="3" t="s">
-        <x:v>340</x:v>
+      <x:c r="A173" s="4" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B173" s="5" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O173" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP173" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR173" t="s">
         <x:v>1</x:v>
@@ -35886,11 +36096,11 @@
     </x:row>
     <x:row r="174">
       <x:c r="A174" s="4" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B174" s="5" t="s">
         <x:v>341</x:v>
       </x:c>
-      <x:c r="B174" s="5" t="s">
-        <x:v>342</x:v>
-      </x:c>
       <x:c r="C174" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -35927,14 +36137,14 @@
       <x:c r="N174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O174" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P174" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R174" t="s">
         <x:v>1</x:v>
@@ -35957,8 +36167,8 @@
       <x:c r="X174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y174" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y174" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z174" t="s">
         <x:v>1</x:v>
@@ -35978,14 +36188,14 @@
       <x:c r="AE174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF174" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF174" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AG174" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AH174" t="s">
-        <x:v>1</x:v>
+      <x:c r="AH174" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AI174" t="s">
         <x:v>1</x:v>
@@ -36023,8 +36233,8 @@
       <x:c r="AT174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV174" t="s">
         <x:v>1</x:v>
@@ -36053,17 +36263,17 @@
       <x:c r="BD174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE174" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI174" t="s">
         <x:v>1</x:v>
@@ -36086,223 +36296,19 @@
       <x:c r="BO174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP174" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR174" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
-      <x:c r="A175" s="4" t="s">
-        <x:v>343</x:v>
-      </x:c>
-      <x:c r="B175" s="5" t="s">
-        <x:v>344</x:v>
-      </x:c>
-      <x:c r="C175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO175" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP175" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ175" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A175" s="3" t="s">
+        <x:v>342</x:v>
       </x:c>
       <x:c r="BR175" t="s">
         <x:v>1</x:v>
@@ -36310,10 +36316,10 @@
     </x:row>
     <x:row r="176">
       <x:c r="A176" s="4" t="s">
-        <x:v>345</x:v>
+        <x:v>343</x:v>
       </x:c>
       <x:c r="B176" s="5" t="s">
-        <x:v>346</x:v>
+        <x:v>344</x:v>
       </x:c>
       <x:c r="C176" t="s">
         <x:v>1</x:v>
@@ -36405,8 +36411,8 @@
       <x:c r="AF176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG176" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG176" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH176" t="s">
         <x:v>1</x:v>
@@ -36522,10 +36528,10 @@
     </x:row>
     <x:row r="177">
       <x:c r="A177" s="4" t="s">
-        <x:v>347</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B177" s="5" t="s">
-        <x:v>348</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C177" t="s">
         <x:v>1</x:v>
@@ -36590,8 +36596,8 @@
       <x:c r="W177" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X177" t="s">
-        <x:v>1</x:v>
+      <x:c r="X177" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y177" t="s">
         <x:v>1</x:v>
@@ -36689,11 +36695,11 @@
       <x:c r="BD177" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF177" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE177" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF177" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG177" t="s">
         <x:v>1</x:v>
@@ -36734,7 +36740,7 @@
     </x:row>
     <x:row r="178">
       <x:c r="A178" s="4" t="s">
-        <x:v>349</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B178" s="5" t="s">
         <x:v>348</x:v>
@@ -36778,11 +36784,11 @@
       <x:c r="O178" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P178" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q178" t="s">
-        <x:v>1</x:v>
+      <x:c r="P178" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q178" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R178" t="s">
         <x:v>1</x:v>
@@ -36835,8 +36841,8 @@
       <x:c r="AH178" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI178" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AI178" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ178" t="s">
         <x:v>1</x:v>
@@ -36946,11 +36952,11 @@
     </x:row>
     <x:row r="179">
       <x:c r="A179" s="4" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="B179" s="5" t="s">
         <x:v>350</x:v>
       </x:c>
-      <x:c r="B179" s="5" t="s">
-        <x:v>351</x:v>
-      </x:c>
       <x:c r="C179" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -36990,11 +36996,11 @@
       <x:c r="O179" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q179" t="s">
-        <x:v>1</x:v>
+      <x:c r="P179" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R179" t="s">
         <x:v>1</x:v>
@@ -37041,8 +37047,8 @@
       <x:c r="AF179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG179" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH179" t="s">
         <x:v>1</x:v>
@@ -37083,8 +37089,8 @@
       <x:c r="AT179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU179" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV179" t="s">
         <x:v>1</x:v>
@@ -37113,17 +37119,17 @@
       <x:c r="BD179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF179" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE179" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH179" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI179" t="s">
         <x:v>1</x:v>
@@ -37146,19 +37152,223 @@
       <x:c r="BO179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP179" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ179" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP179" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR179" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="180">
-      <x:c r="A180" s="3" t="s">
-        <x:v>352</x:v>
+      <x:c r="A180" s="4" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B180" s="5" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="C180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO180" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ180" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR180" t="s">
         <x:v>1</x:v>
@@ -37166,646 +37376,442 @@
     </x:row>
     <x:row r="181">
       <x:c r="A181" s="4" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="B181" s="5" t="s">
         <x:v>353</x:v>
       </x:c>
-      <x:c r="B181" s="5" t="s">
-        <x:v>354</x:v>
-      </x:c>
-      <x:c r="C181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="N181" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="C181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N181" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O181" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="T181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="U181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="W181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AS181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AT181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BB181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BJ181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BK181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BM181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BN181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BO181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BP181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ181" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BR181" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ181" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR181" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
-      <x:c r="A182" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B182" s="5" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="C182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="N182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="O182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="T182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="U182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AS182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AT182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BB182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BJ182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BK182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL182" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BN182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BO182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BP182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ182" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BR182" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A182" s="3" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="BR182" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="183">
       <x:c r="A183" s="4" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B183" s="5" t="s">
         <x:v>356</x:v>
       </x:c>
-      <x:c r="B183" s="5" t="s">
-        <x:v>355</x:v>
-      </x:c>
-      <x:c r="C183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB183" t="s">
-        <x:v>1</x:v>
+      <x:c r="C183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="O183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="S183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="U183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="V183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="W183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB183" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC183" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AD183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ183" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR183" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AT183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AY183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BJ183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BK183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BL183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BN183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BO183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BP183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ183" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR183" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
       <x:c r="A184" s="4" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B184" s="5" t="s">
         <x:v>357</x:v>
-      </x:c>
-      <x:c r="B184" s="5" t="s">
-        <x:v>358</x:v>
       </x:c>
       <x:c r="C184" s="6" t="s">
         <x:v>78</x:v>
@@ -38014,10 +38020,10 @@
     </x:row>
     <x:row r="185">
       <x:c r="A185" s="4" t="s">
-        <x:v>359</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B185" s="5" t="s">
-        <x:v>358</x:v>
+        <x:v>357</x:v>
       </x:c>
       <x:c r="C185" t="s">
         <x:v>1</x:v>
@@ -38226,11 +38232,11 @@
     </x:row>
     <x:row r="186">
       <x:c r="A186" s="4" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B186" s="5" t="s">
         <x:v>360</x:v>
       </x:c>
-      <x:c r="B186" s="5" t="s">
-        <x:v>361</x:v>
-      </x:c>
       <x:c r="C186" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -38264,8 +38270,8 @@
       <x:c r="M186" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="N186" t="s">
-        <x:v>1</x:v>
+      <x:c r="N186" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O186" s="6" t="s">
         <x:v>78</x:v>
@@ -38294,8 +38300,8 @@
       <x:c r="W186" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X186" t="s">
-        <x:v>1</x:v>
+      <x:c r="X186" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y186" s="6" t="s">
         <x:v>78</x:v>
@@ -38306,8 +38312,8 @@
       <x:c r="AA186" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AB186" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB186" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC186" t="s">
         <x:v>1</x:v>
@@ -38408,11 +38414,11 @@
       <x:c r="BI186" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BJ186" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK186" t="s">
-        <x:v>1</x:v>
+      <x:c r="BJ186" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BK186" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BL186" t="s">
         <x:v>1</x:v>
@@ -38438,10 +38444,10 @@
     </x:row>
     <x:row r="187">
       <x:c r="A187" s="4" t="s">
-        <x:v>362</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="B187" s="5" t="s">
-        <x:v>363</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="C187" t="s">
         <x:v>1</x:v>
@@ -38449,8 +38455,8 @@
       <x:c r="D187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E187" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="E187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F187" t="s">
         <x:v>1</x:v>
@@ -38458,8 +38464,8 @@
       <x:c r="G187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H187" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="H187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I187" t="s">
         <x:v>1</x:v>
@@ -38497,29 +38503,29 @@
       <x:c r="T187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="U187" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V187" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="W187" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X187" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="U187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W187" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z187" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Z187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB187" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AB187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC187" s="6" t="s">
         <x:v>78</x:v>
@@ -38626,8 +38632,8 @@
       <x:c r="BK187" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL187" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BL187" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM187" t="s">
         <x:v>1</x:v>
@@ -38650,43 +38656,43 @@
     </x:row>
     <x:row r="188">
       <x:c r="A188" s="4" t="s">
-        <x:v>364</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B188" s="5" t="s">
-        <x:v>365</x:v>
-      </x:c>
-      <x:c r="C188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D188" t="s">
-        <x:v>1</x:v>
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="C188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G188" t="s">
-        <x:v>1</x:v>
+      <x:c r="F188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M188" t="s">
-        <x:v>1</x:v>
+      <x:c r="I188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N188" t="s">
         <x:v>1</x:v>
@@ -38694,20 +38700,20 @@
       <x:c r="O188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T188" t="s">
-        <x:v>1</x:v>
+      <x:c r="P188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="S188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U188" t="s">
         <x:v>1</x:v>
@@ -38727,8 +38733,8 @@
       <x:c r="Z188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AB188" t="s">
         <x:v>1</x:v>
@@ -38736,17 +38742,17 @@
       <x:c r="AC188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH188" s="6" t="s">
         <x:v>78</x:v>
@@ -38754,65 +38760,65 @@
       <x:c r="AI188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AJ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AT188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AY188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AZ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BD188" s="6" t="s">
         <x:v>78</x:v>
@@ -38823,8 +38829,8 @@
       <x:c r="BF188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BH188" s="6" t="s">
         <x:v>78</x:v>
@@ -38838,8 +38844,8 @@
       <x:c r="BK188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL188" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BL188" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM188" s="6" t="s">
         <x:v>78</x:v>
@@ -38847,22 +38853,226 @@
       <x:c r="BN188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BO188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BP188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BR188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="189">
-      <x:c r="A189" s="3" t="s">
-        <x:v>366</x:v>
+      <x:c r="A189" s="4" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="B189" s="5" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="C189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="V189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="W189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL189" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR189" t="s">
         <x:v>1</x:v>
@@ -38870,13 +39080,13 @@
     </x:row>
     <x:row r="190">
       <x:c r="A190" s="4" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B190" s="5" t="s">
         <x:v>367</x:v>
       </x:c>
-      <x:c r="B190" s="5" t="s">
-        <x:v>368</x:v>
-      </x:c>
-      <x:c r="C190" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="C190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D190" t="s">
         <x:v>1</x:v>
@@ -38914,11 +39124,11 @@
       <x:c r="O190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P190" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q190" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R190" t="s">
         <x:v>1</x:v>
@@ -38962,11 +39172,11 @@
       <x:c r="AE190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF190" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG190" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF190" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH190" s="6" t="s">
         <x:v>78</x:v>
@@ -39007,8 +39217,8 @@
       <x:c r="AT190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU190" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV190" t="s">
         <x:v>1</x:v>
@@ -39049,8 +39259,8 @@
       <x:c r="BH190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BI190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BI190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BJ190" t="s">
         <x:v>1</x:v>
@@ -39058,20 +39268,20 @@
       <x:c r="BK190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BL190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BN190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BO190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP190" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ190" s="6" t="s">
         <x:v>78</x:v>
@@ -39081,212 +39291,8 @@
       </x:c>
     </x:row>
     <x:row r="191">
-      <x:c r="A191" s="4" t="s">
-        <x:v>369</x:v>
-      </x:c>
-      <x:c r="B191" s="5" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="C191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO191" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP191" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ191" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A191" s="3" t="s">
+        <x:v>368</x:v>
       </x:c>
       <x:c r="BR191" t="s">
         <x:v>1</x:v>
@@ -39294,10 +39300,10 @@
     </x:row>
     <x:row r="192">
       <x:c r="A192" s="4" t="s">
-        <x:v>371</x:v>
+        <x:v>369</x:v>
       </x:c>
       <x:c r="B192" s="5" t="s">
-        <x:v>372</x:v>
+        <x:v>370</x:v>
       </x:c>
       <x:c r="C192" s="6" t="s">
         <x:v>78</x:v>
@@ -39458,8 +39464,8 @@
       <x:c r="BC192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD192" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE192" s="6" t="s">
         <x:v>78</x:v>
@@ -39506,10 +39512,10 @@
     </x:row>
     <x:row r="193">
       <x:c r="A193" s="4" t="s">
-        <x:v>373</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B193" s="5" t="s">
-        <x:v>374</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C193" s="6" t="s">
         <x:v>78</x:v>
@@ -39547,8 +39553,8 @@
       <x:c r="N193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O193" t="s">
-        <x:v>1</x:v>
+      <x:c r="O193" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P193" t="s">
         <x:v>1</x:v>
@@ -39643,8 +39649,8 @@
       <x:c r="AT193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU193" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU193" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV193" t="s">
         <x:v>1</x:v>
@@ -39670,14 +39676,14 @@
       <x:c r="BC193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF193" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD193" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE193" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF193" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG193" t="s">
         <x:v>1</x:v>
@@ -39706,11 +39712,11 @@
       <x:c r="BO193" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ193" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP193" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ193" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR193" t="s">
         <x:v>1</x:v>
@@ -39718,13 +39724,13 @@
     </x:row>
     <x:row r="194">
       <x:c r="A194" s="4" t="s">
-        <x:v>375</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B194" s="5" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="C194" t="s">
-        <x:v>1</x:v>
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="C194" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D194" t="s">
         <x:v>1</x:v>
@@ -39810,8 +39816,8 @@
       <x:c r="AE194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF194" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF194" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AG194" s="6" t="s">
         <x:v>78</x:v>
@@ -39819,8 +39825,8 @@
       <x:c r="AH194" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AI194" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI194" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ194" t="s">
         <x:v>1</x:v>
@@ -39885,11 +39891,11 @@
       <x:c r="BD194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE194" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF194" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE194" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF194" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG194" t="s">
         <x:v>1</x:v>
@@ -39930,13 +39936,13 @@
     </x:row>
     <x:row r="195">
       <x:c r="A195" s="4" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B195" s="5" t="s">
         <x:v>376</x:v>
       </x:c>
-      <x:c r="B195" s="5" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="C195" t="s">
-        <x:v>1</x:v>
+      <x:c r="C195" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D195" t="s">
         <x:v>1</x:v>
@@ -39971,14 +39977,14 @@
       <x:c r="N195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O195" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P195" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R195" t="s">
         <x:v>1</x:v>
@@ -40001,8 +40007,8 @@
       <x:c r="X195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z195" t="s">
         <x:v>1</x:v>
@@ -40025,14 +40031,14 @@
       <x:c r="AF195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG195" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH195" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AG195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ195" t="s">
         <x:v>1</x:v>
@@ -40067,8 +40073,8 @@
       <x:c r="AT195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV195" t="s">
         <x:v>1</x:v>
@@ -40079,8 +40085,8 @@
       <x:c r="AX195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AY195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ195" t="s">
         <x:v>1</x:v>
@@ -40106,8 +40112,8 @@
       <x:c r="BG195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI195" t="s">
         <x:v>1</x:v>
@@ -40130,11 +40136,11 @@
       <x:c r="BO195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP195" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ195" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP195" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ195" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR195" t="s">
         <x:v>1</x:v>
@@ -40145,7 +40151,7 @@
         <x:v>377</x:v>
       </x:c>
       <x:c r="B196" s="5" t="s">
-        <x:v>378</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C196" t="s">
         <x:v>1</x:v>
@@ -40213,8 +40219,8 @@
       <x:c r="X196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y196" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z196" t="s">
         <x:v>1</x:v>
@@ -40237,11 +40243,11 @@
       <x:c r="AF196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH196" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG196" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AI196" t="s">
         <x:v>1</x:v>
@@ -40291,8 +40297,8 @@
       <x:c r="AX196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY196" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ196" t="s">
         <x:v>1</x:v>
@@ -40354,10 +40360,10 @@
     </x:row>
     <x:row r="197">
       <x:c r="A197" s="4" t="s">
-        <x:v>379</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B197" s="5" t="s">
-        <x:v>380</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C197" t="s">
         <x:v>1</x:v>
@@ -40425,8 +40431,8 @@
       <x:c r="X197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y197" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y197" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z197" t="s">
         <x:v>1</x:v>
@@ -40449,14 +40455,14 @@
       <x:c r="AF197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG197" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH197" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI197" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG197" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH197" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI197" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ197" t="s">
         <x:v>1</x:v>
@@ -40503,8 +40509,8 @@
       <x:c r="AX197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY197" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY197" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ197" t="s">
         <x:v>1</x:v>
@@ -40566,10 +40572,10 @@
     </x:row>
     <x:row r="198">
       <x:c r="A198" s="4" t="s">
-        <x:v>381</x:v>
+        <x:v>379</x:v>
       </x:c>
       <x:c r="B198" s="5" t="s">
-        <x:v>382</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="C198" t="s">
         <x:v>1</x:v>
@@ -40661,8 +40667,8 @@
       <x:c r="AF198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG198" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AG198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH198" t="s">
         <x:v>1</x:v>
@@ -40733,11 +40739,11 @@
       <x:c r="BD198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE198" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF198" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE198" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF198" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG198" t="s">
         <x:v>1</x:v>
@@ -40778,10 +40784,10 @@
     </x:row>
     <x:row r="199">
       <x:c r="A199" s="4" t="s">
-        <x:v>383</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B199" s="5" t="s">
-        <x:v>384</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C199" t="s">
         <x:v>1</x:v>
@@ -40822,11 +40828,11 @@
       <x:c r="O199" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q199" t="s">
-        <x:v>1</x:v>
+      <x:c r="P199" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R199" t="s">
         <x:v>1</x:v>
@@ -40915,8 +40921,8 @@
       <x:c r="AT199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU199" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV199" t="s">
         <x:v>1</x:v>
@@ -40954,8 +40960,8 @@
       <x:c r="BG199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH199" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI199" t="s">
         <x:v>1</x:v>
@@ -40978,8 +40984,8 @@
       <x:c r="BO199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP199" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ199" s="6" t="s">
         <x:v>78</x:v>
@@ -40989,8 +40995,212 @@
       </x:c>
     </x:row>
     <x:row r="200">
-      <x:c r="A200" s="3" t="s">
-        <x:v>385</x:v>
+      <x:c r="A200" s="4" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B200" s="5" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP200" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ200" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR200" t="s">
         <x:v>1</x:v>
@@ -40998,11 +41208,11 @@
     </x:row>
     <x:row r="201">
       <x:c r="A201" s="4" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B201" s="5" t="s">
         <x:v>386</x:v>
       </x:c>
-      <x:c r="B201" s="5" t="s">
-        <x:v>387</x:v>
-      </x:c>
       <x:c r="C201" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -41042,11 +41252,11 @@
       <x:c r="O201" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P201" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R201" t="s">
         <x:v>1</x:v>
@@ -41069,8 +41279,8 @@
       <x:c r="X201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z201" t="s">
         <x:v>1</x:v>
@@ -41090,17 +41300,17 @@
       <x:c r="AE201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF201" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AI201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ201" t="s">
         <x:v>1</x:v>
@@ -41132,11 +41342,11 @@
       <x:c r="AS201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT201" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AT201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV201" t="s">
         <x:v>1</x:v>
@@ -41165,17 +41375,17 @@
       <x:c r="BD201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE201" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE201" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI201" t="s">
         <x:v>1</x:v>
@@ -41198,8 +41408,8 @@
       <x:c r="BO201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP201" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP201" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ201" s="6" t="s">
         <x:v>78</x:v>
@@ -41209,212 +41419,8 @@
       </x:c>
     </x:row>
     <x:row r="202">
-      <x:c r="A202" s="4" t="s">
-        <x:v>388</x:v>
-      </x:c>
-      <x:c r="B202" s="5" t="s">
-        <x:v>389</x:v>
-      </x:c>
-      <x:c r="C202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O202" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH202" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP202" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ202" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A202" s="3" t="s">
+        <x:v>387</x:v>
       </x:c>
       <x:c r="BR202" t="s">
         <x:v>1</x:v>
@@ -41422,10 +41428,10 @@
     </x:row>
     <x:row r="203">
       <x:c r="A203" s="4" t="s">
-        <x:v>390</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="B203" s="5" t="s">
-        <x:v>391</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C203" t="s">
         <x:v>1</x:v>
@@ -41466,11 +41472,11 @@
       <x:c r="O203" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q203" t="s">
-        <x:v>1</x:v>
+      <x:c r="P203" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q203" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R203" t="s">
         <x:v>1</x:v>
@@ -41556,11 +41562,11 @@
       <x:c r="AS203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU203" t="s">
-        <x:v>1</x:v>
+      <x:c r="AT203" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU203" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV203" t="s">
         <x:v>1</x:v>
@@ -41589,17 +41595,17 @@
       <x:c r="BD203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE203" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF203" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH203" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI203" t="s">
         <x:v>1</x:v>
@@ -41622,11 +41628,11 @@
       <x:c r="BO203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP203" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ203" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP203" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ203" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR203" t="s">
         <x:v>1</x:v>
@@ -41634,10 +41640,10 @@
     </x:row>
     <x:row r="204">
       <x:c r="A204" s="4" t="s">
-        <x:v>392</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B204" s="5" t="s">
-        <x:v>393</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C204" t="s">
         <x:v>1</x:v>
@@ -41669,8 +41675,8 @@
       <x:c r="L204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="M204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N204" t="s">
         <x:v>1</x:v>
@@ -41768,11 +41774,11 @@
       <x:c r="AS204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT204" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AT204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV204" t="s">
         <x:v>1</x:v>
@@ -41792,20 +41798,20 @@
       <x:c r="BA204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB204" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BB204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BD204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE204" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE204" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG204" t="s">
         <x:v>1</x:v>
@@ -41825,8 +41831,8 @@
       <x:c r="BL204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BM204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN204" t="s">
         <x:v>1</x:v>
@@ -41834,8 +41840,8 @@
       <x:c r="BO204" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP204" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ204" s="6" t="s">
         <x:v>78</x:v>
@@ -41846,16 +41852,16 @@
     </x:row>
     <x:row r="205">
       <x:c r="A205" s="4" t="s">
-        <x:v>394</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B205" s="5" t="s">
-        <x:v>395</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D205" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="D205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E205" t="s">
         <x:v>1</x:v>
@@ -41872,14 +41878,14 @@
       <x:c r="I205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L205" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="J205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M205" t="s">
         <x:v>1</x:v>
@@ -41917,8 +41923,8 @@
       <x:c r="X205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y205" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z205" t="s">
         <x:v>1</x:v>
@@ -41938,44 +41944,44 @@
       <x:c r="AE205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG205" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF205" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR205" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AI205" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS205" t="s">
         <x:v>1</x:v>
@@ -41998,11 +42004,11 @@
       <x:c r="AY205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ205" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA205" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AZ205" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB205" t="s">
         <x:v>1</x:v>
@@ -42028,8 +42034,8 @@
       <x:c r="BI205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BJ205" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BJ205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK205" t="s">
         <x:v>1</x:v>
@@ -42040,8 +42046,8 @@
       <x:c r="BM205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN205" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BN205" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO205" t="s">
         <x:v>1</x:v>
@@ -42058,40 +42064,40 @@
     </x:row>
     <x:row r="206">
       <x:c r="A206" s="4" t="s">
-        <x:v>396</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B206" s="5" t="s">
-        <x:v>397</x:v>
-      </x:c>
-      <x:c r="C206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L206" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="C206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M206" s="6" t="s">
         <x:v>78</x:v>
@@ -42102,95 +42108,95 @@
       <x:c r="O206" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="T206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="U206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="W206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AS206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT206" s="6" t="s">
         <x:v>78</x:v>
@@ -42198,23 +42204,23 @@
       <x:c r="AU206" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AV206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AV206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB206" s="6" t="s">
         <x:v>78</x:v>
@@ -42222,8 +42228,8 @@
       <x:c r="BC206" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BD206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BD206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE206" s="6" t="s">
         <x:v>78</x:v>
@@ -42231,14 +42237,14 @@
       <x:c r="BF206" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BG206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH206" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BI206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BI206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ206" t="s">
         <x:v>1</x:v>
@@ -42246,8 +42252,8 @@
       <x:c r="BK206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BL206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM206" s="6" t="s">
         <x:v>78</x:v>
@@ -42264,22 +42270,22 @@
       <x:c r="BQ206" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BR206" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="207">
       <x:c r="A207" s="4" t="s">
-        <x:v>398</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B207" s="5" t="s">
-        <x:v>399</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="C207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D207" t="s">
-        <x:v>1</x:v>
+      <x:c r="D207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E207" t="s">
         <x:v>1</x:v>
@@ -42296,23 +42302,23 @@
       <x:c r="I207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="J207" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K207" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L207" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O207" t="s">
-        <x:v>1</x:v>
+      <x:c r="O207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P207" t="s">
         <x:v>1</x:v>
@@ -42341,41 +42347,41 @@
       <x:c r="X207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AK207" s="6" t="s">
         <x:v>78</x:v>
@@ -42383,20 +42389,20 @@
       <x:c r="AL207" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AM207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AM207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AN207" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AO207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AO207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AP207" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AQ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AQ207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AR207" s="6" t="s">
         <x:v>78</x:v>
@@ -42404,23 +42410,23 @@
       <x:c r="AS207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AT207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ207" s="6" t="s">
         <x:v>78</x:v>
@@ -42428,32 +42434,32 @@
       <x:c r="BA207" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BB207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BJ207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BK207" t="s">
         <x:v>1</x:v>
@@ -42464,17 +42470,17 @@
       <x:c r="BM207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN207" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BO207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR207" t="s">
         <x:v>1</x:v>
@@ -42482,172 +42488,172 @@
     </x:row>
     <x:row r="208">
       <x:c r="A208" s="4" t="s">
-        <x:v>400</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B208" s="5" t="s">
-        <x:v>401</x:v>
-      </x:c>
-      <x:c r="C208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M208" t="s">
-        <x:v>1</x:v>
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="C208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M208" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS208" t="s">
-        <x:v>1</x:v>
+      <x:c r="O208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="S208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="U208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="V208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="W208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS208" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AT208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AU208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD208" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AY208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD208" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE208" s="6" t="s">
         <x:v>78</x:v>
@@ -42655,14 +42661,14 @@
       <x:c r="BF208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI208" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BJ208" t="s">
         <x:v>1</x:v>
@@ -42682,22 +42688,22 @@
       <x:c r="BO208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ208" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR208" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ208" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR208" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" s="4" t="s">
-        <x:v>402</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B209" s="5" t="s">
-        <x:v>403</x:v>
+        <x:v>401</x:v>
       </x:c>
       <x:c r="C209" t="s">
         <x:v>1</x:v>
@@ -42735,8 +42741,8 @@
       <x:c r="N209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P209" t="s">
         <x:v>1</x:v>
@@ -42801,26 +42807,26 @@
       <x:c r="AJ209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AK209" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AM209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AO209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AP209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AP209" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AR209" s="6" t="s">
         <x:v>78</x:v>
@@ -42834,8 +42840,8 @@
       <x:c r="AU209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AV209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AW209" s="6" t="s">
         <x:v>78</x:v>
@@ -42846,11 +42852,11 @@
       <x:c r="AY209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AZ209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ209" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BB209" s="6" t="s">
         <x:v>78</x:v>
@@ -42858,8 +42864,8 @@
       <x:c r="BC209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BD209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE209" s="6" t="s">
         <x:v>78</x:v>
@@ -42879,17 +42885,17 @@
       <x:c r="BJ209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BM209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BN209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BK209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO209" t="s">
         <x:v>1</x:v>
@@ -42900,16 +42906,16 @@
       <x:c r="BQ209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BR209" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="210">
       <x:c r="A210" s="4" t="s">
-        <x:v>404</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B210" s="5" t="s">
-        <x:v>405</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C210" t="s">
         <x:v>1</x:v>
@@ -42935,14 +42941,14 @@
       <x:c r="J210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M210" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="K210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N210" t="s">
         <x:v>1</x:v>
@@ -42977,65 +42983,65 @@
       <x:c r="X210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR210" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS210" t="s">
         <x:v>1</x:v>
@@ -43043,35 +43049,35 @@
       <x:c r="AT210" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AU210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW210" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AX210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BB210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD210" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AY210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE210" s="6" t="s">
         <x:v>78</x:v>
@@ -43079,11 +43085,11 @@
       <x:c r="BF210" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH210" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BG210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI210" t="s">
         <x:v>1</x:v>
@@ -43094,11 +43100,11 @@
       <x:c r="BK210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM210" t="s">
-        <x:v>1</x:v>
+      <x:c r="BL210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM210" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BN210" t="s">
         <x:v>1</x:v>
@@ -43106,225 +43112,649 @@
       <x:c r="BO210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP210" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ210" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP210" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ210" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR210" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="211">
-      <x:c r="A211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ211" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR211" s="7" t="s">
+      <x:c r="A211" s="4" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B211" s="5" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="C211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AY211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BJ211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BL211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BN211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BO211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="212">
+      <x:c r="A212" s="4" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B212" s="5" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="C212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="213">
+      <x:c r="A213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ213" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR213" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -43366,10 +43796,10 @@
     <x:mergeCell ref="A123:BR123"/>
     <x:mergeCell ref="A138:BR138"/>
     <x:mergeCell ref="A162:BR162"/>
-    <x:mergeCell ref="A173:BR173"/>
-    <x:mergeCell ref="A180:BR180"/>
-    <x:mergeCell ref="A189:BR189"/>
-    <x:mergeCell ref="A200:BR200"/>
+    <x:mergeCell ref="A175:BR175"/>
+    <x:mergeCell ref="A182:BR182"/>
+    <x:mergeCell ref="A191:BR191"/>
+    <x:mergeCell ref="A202:BR202"/>
   </x:mergeCells>
 </x:worksheet>
 </file>
--- a/RegexFeatureMatrix.xlsx
+++ b/RegexFeatureMatrix.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="Re4d58d4828684dbe"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feature Matrix" sheetId="1" r:id="R2dc02bffef8a43d9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -1015,19 +1015,25 @@
     <x:t>(?&lt;=…)</x:t>
   </x:si>
   <x:si>
-    <x:t>Positive lookbehind (fixed-length)</x:t>
+    <x:t>Positive lookbehind, fixed-length</x:t>
   </x:si>
   <x:si>
-    <x:t>Positive lookbehind (variable-length)</x:t>
+    <x:t>Positive lookbehind, bounded-length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Positive lookbehind, variable-length</x:t>
   </x:si>
   <x:si>
     <x:t>(?&lt;!…)</x:t>
   </x:si>
   <x:si>
-    <x:t>Negative lookbehind (fixed-length)</x:t>
+    <x:t>Negative lookbehind, fixed-length</x:t>
   </x:si>
   <x:si>
-    <x:t>Negative lookbehind (variable-length)</x:t>
+    <x:t>Negative lookbehind, bounded-length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Negative lookbehind, variable-length</x:t>
   </x:si>
   <x:si>
     <x:t>(?&gt;…)</x:t>
@@ -34653,8 +34659,8 @@
       <x:c r="N167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O167" t="s">
-        <x:v>1</x:v>
+      <x:c r="O167" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P167" t="s">
         <x:v>1</x:v>
@@ -34710,8 +34716,8 @@
       <x:c r="AG167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AH167" t="s">
-        <x:v>1</x:v>
+      <x:c r="AH167" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AI167" t="s">
         <x:v>1</x:v>
@@ -34749,11 +34755,11 @@
       <x:c r="AT167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU167" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV167" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU167" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV167" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AW167" t="s">
         <x:v>1</x:v>
@@ -34761,8 +34767,8 @@
       <x:c r="AX167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY167" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY167" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ167" s="6" t="s">
         <x:v>78</x:v>
@@ -34788,8 +34794,8 @@
       <x:c r="BG167" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BH167" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH167" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI167" t="s">
         <x:v>1</x:v>
@@ -34812,23 +34818,23 @@
       <x:c r="BO167" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP167" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ167" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR167" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP167" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ167" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR167" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="168">
       <x:c r="A168" s="4" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B168" s="5" t="s">
         <x:v>329</x:v>
       </x:c>
-      <x:c r="B168" s="5" t="s">
-        <x:v>330</x:v>
-      </x:c>
       <x:c r="C168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -34865,14 +34871,14 @@
       <x:c r="N168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R168" t="s">
         <x:v>1</x:v>
@@ -34892,8 +34898,8 @@
       <x:c r="W168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="X168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y168" s="6" t="s">
         <x:v>78</x:v>
@@ -34904,8 +34910,8 @@
       <x:c r="AA168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AB168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC168" t="s">
         <x:v>1</x:v>
@@ -34916,17 +34922,17 @@
       <x:c r="AE168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AF168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ168" s="6" t="s">
         <x:v>78</x:v>
@@ -34961,11 +34967,11 @@
       <x:c r="AT168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AW168" t="s">
         <x:v>1</x:v>
@@ -34973,8 +34979,8 @@
       <x:c r="AX168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AY168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ168" s="6" t="s">
         <x:v>78</x:v>
@@ -34988,8 +34994,8 @@
       <x:c r="BC168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BD168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE168" s="6" t="s">
         <x:v>78</x:v>
@@ -35000,8 +35006,8 @@
       <x:c r="BG168" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BH168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH168" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI168" t="s">
         <x:v>1</x:v>
@@ -35024,19 +35030,19 @@
       <x:c r="BO168" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ168" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BR168" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ168" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR168" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="169">
       <x:c r="A169" s="4" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B169" s="5" t="s">
         <x:v>331</x:v>
@@ -35077,14 +35083,14 @@
       <x:c r="N169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q169" t="s">
-        <x:v>1</x:v>
+      <x:c r="O169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R169" t="s">
         <x:v>1</x:v>
@@ -35104,8 +35110,8 @@
       <x:c r="W169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X169" t="s">
-        <x:v>1</x:v>
+      <x:c r="X169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y169" s="6" t="s">
         <x:v>78</x:v>
@@ -35116,8 +35122,8 @@
       <x:c r="AA169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC169" t="s">
         <x:v>1</x:v>
@@ -35128,17 +35134,17 @@
       <x:c r="AE169" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AF169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ169" s="6" t="s">
         <x:v>78</x:v>
@@ -35173,11 +35179,11 @@
       <x:c r="AT169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AW169" t="s">
         <x:v>1</x:v>
@@ -35185,8 +35191,8 @@
       <x:c r="AX169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY169" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ169" s="6" t="s">
         <x:v>78</x:v>
@@ -35200,8 +35206,8 @@
       <x:c r="BC169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD169" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE169" s="6" t="s">
         <x:v>78</x:v>
@@ -35212,8 +35218,8 @@
       <x:c r="BG169" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BH169" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI169" t="s">
         <x:v>1</x:v>
@@ -35236,23 +35242,23 @@
       <x:c r="BO169" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ169" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR169" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ169" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR169" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="170">
       <x:c r="A170" s="4" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B170" s="5" t="s">
         <x:v>332</x:v>
       </x:c>
-      <x:c r="B170" s="5" t="s">
-        <x:v>333</x:v>
-      </x:c>
       <x:c r="C170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -35277,11 +35283,11 @@
       <x:c r="J170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L170" t="s">
-        <x:v>1</x:v>
+      <x:c r="K170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M170" t="s">
         <x:v>1</x:v>
@@ -35292,11 +35298,11 @@
       <x:c r="O170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P170" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q170" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R170" t="s">
         <x:v>1</x:v>
@@ -35316,8 +35322,8 @@
       <x:c r="W170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X170" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="X170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y170" s="6" t="s">
         <x:v>78</x:v>
@@ -35328,8 +35334,8 @@
       <x:c r="AA170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB170" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AB170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC170" t="s">
         <x:v>1</x:v>
@@ -35340,44 +35346,44 @@
       <x:c r="AE170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AF170" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG170" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AI170" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR170" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI170" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AS170" t="s">
         <x:v>1</x:v>
@@ -35400,11 +35406,11 @@
       <x:c r="AY170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AZ170" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA170" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ170" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BB170" s="6" t="s">
         <x:v>78</x:v>
@@ -35412,8 +35418,8 @@
       <x:c r="BC170" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD170" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BD170" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE170" s="6" t="s">
         <x:v>78</x:v>
@@ -35421,8 +35427,8 @@
       <x:c r="BF170" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG170" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG170" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BH170" s="6" t="s">
         <x:v>78</x:v>
@@ -35460,13 +35466,13 @@
     </x:row>
     <x:row r="171">
       <x:c r="A171" s="4" t="s">
-        <x:v>334</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="B171" s="5" t="s">
-        <x:v>335</x:v>
-      </x:c>
-      <x:c r="C171" t="s">
-        <x:v>1</x:v>
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="C171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D171" t="s">
         <x:v>1</x:v>
@@ -35489,11 +35495,11 @@
       <x:c r="J171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L171" t="s">
-        <x:v>1</x:v>
+      <x:c r="K171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="M171" t="s">
         <x:v>1</x:v>
@@ -35501,14 +35507,14 @@
       <x:c r="N171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O171" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P171" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q171" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O171" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P171" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q171" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R171" t="s">
         <x:v>1</x:v>
@@ -35528,11 +35534,11 @@
       <x:c r="W171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X171" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y171" t="s">
-        <x:v>1</x:v>
+      <x:c r="X171" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z171" t="s">
         <x:v>1</x:v>
@@ -35549,8 +35555,8 @@
       <x:c r="AD171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE171" t="s">
-        <x:v>1</x:v>
+      <x:c r="AE171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AF171" t="s">
         <x:v>1</x:v>
@@ -35564,32 +35570,32 @@
       <x:c r="AI171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AJ171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR171" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AS171" t="s">
         <x:v>1</x:v>
@@ -35597,8 +35603,8 @@
       <x:c r="AT171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU171" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU171" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV171" t="s">
         <x:v>1</x:v>
@@ -35612,14 +35618,14 @@
       <x:c r="AY171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB171" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB171" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BC171" t="s">
         <x:v>1</x:v>
@@ -35633,11 +35639,11 @@
       <x:c r="BF171" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG171" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH171" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BG171" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH171" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI171" t="s">
         <x:v>1</x:v>
@@ -35660,11 +35666,11 @@
       <x:c r="BO171" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP171" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ171" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP171" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ171" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR171" t="s">
         <x:v>1</x:v>
@@ -35672,13 +35678,13 @@
     </x:row>
     <x:row r="172">
       <x:c r="A172" s="4" t="s">
-        <x:v>336</x:v>
+        <x:v>334</x:v>
       </x:c>
       <x:c r="B172" s="5" t="s">
-        <x:v>337</x:v>
-      </x:c>
-      <x:c r="C172" t="s">
-        <x:v>1</x:v>
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D172" t="s">
         <x:v>1</x:v>
@@ -35716,11 +35722,11 @@
       <x:c r="O172" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q172" t="s">
-        <x:v>1</x:v>
+      <x:c r="P172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R172" t="s">
         <x:v>1</x:v>
@@ -35740,11 +35746,11 @@
       <x:c r="W172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y172" t="s">
-        <x:v>1</x:v>
+      <x:c r="X172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z172" t="s">
         <x:v>1</x:v>
@@ -35752,8 +35758,8 @@
       <x:c r="AA172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB172" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC172" t="s">
         <x:v>1</x:v>
@@ -35761,20 +35767,20 @@
       <x:c r="AD172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AE172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI172" t="s">
-        <x:v>1</x:v>
+      <x:c r="AE172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ172" t="s">
         <x:v>1</x:v>
@@ -35809,11 +35815,11 @@
       <x:c r="AT172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV172" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AW172" t="s">
         <x:v>1</x:v>
@@ -35821,8 +35827,8 @@
       <x:c r="AX172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY172" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ172" t="s">
         <x:v>1</x:v>
@@ -35830,26 +35836,26 @@
       <x:c r="BA172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB172" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BC172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE172" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF172" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE172" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH172" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI172" t="s">
         <x:v>1</x:v>
@@ -35872,22 +35878,22 @@
       <x:c r="BO172" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP172" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ172" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR172" t="s">
-        <x:v>1</x:v>
+      <x:c r="BR172" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="173">
       <x:c r="A173" s="4" t="s">
-        <x:v>338</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="B173" s="5" t="s">
-        <x:v>339</x:v>
+        <x:v>337</x:v>
       </x:c>
       <x:c r="C173" t="s">
         <x:v>1</x:v>
@@ -35928,11 +35934,11 @@
       <x:c r="O173" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q173" t="s">
-        <x:v>1</x:v>
+      <x:c r="P173" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R173" t="s">
         <x:v>1</x:v>
@@ -35952,8 +35958,8 @@
       <x:c r="W173" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X173" t="s">
-        <x:v>1</x:v>
+      <x:c r="X173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y173" t="s">
         <x:v>1</x:v>
@@ -36021,8 +36027,8 @@
       <x:c r="AT173" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU173" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV173" t="s">
         <x:v>1</x:v>
@@ -36051,17 +36057,17 @@
       <x:c r="BD173" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE173" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF173" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE173" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG173" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH173" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI173" t="s">
         <x:v>1</x:v>
@@ -36084,8 +36090,8 @@
       <x:c r="BO173" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP173" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP173" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ173" s="6" t="s">
         <x:v>78</x:v>
@@ -36096,10 +36102,10 @@
     </x:row>
     <x:row r="174">
       <x:c r="A174" s="4" t="s">
-        <x:v>340</x:v>
+        <x:v>338</x:v>
       </x:c>
       <x:c r="B174" s="5" t="s">
-        <x:v>341</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="C174" t="s">
         <x:v>1</x:v>
@@ -36137,8 +36143,8 @@
       <x:c r="N174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O174" t="s">
-        <x:v>1</x:v>
+      <x:c r="O174" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P174" t="s">
         <x:v>1</x:v>
@@ -36167,8 +36173,8 @@
       <x:c r="X174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z174" t="s">
         <x:v>1</x:v>
@@ -36188,14 +36194,14 @@
       <x:c r="AE174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF174" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG174" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH174" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG174" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH174" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AI174" t="s">
         <x:v>1</x:v>
@@ -36299,16 +36305,220 @@
       <x:c r="BP174" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BQ174" t="s">
-        <x:v>1</x:v>
+      <x:c r="BQ174" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR174" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="175">
-      <x:c r="A175" s="3" t="s">
-        <x:v>342</x:v>
+      <x:c r="A175" s="4" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="B175" s="5" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="C175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O175" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP175" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ175" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR175" t="s">
         <x:v>1</x:v>
@@ -36316,11 +36526,11 @@
     </x:row>
     <x:row r="176">
       <x:c r="A176" s="4" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="B176" s="5" t="s">
         <x:v>343</x:v>
       </x:c>
-      <x:c r="B176" s="5" t="s">
-        <x:v>344</x:v>
-      </x:c>
       <x:c r="C176" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -36357,14 +36567,14 @@
       <x:c r="N176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O176" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P176" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q176" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O176" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P176" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R176" t="s">
         <x:v>1</x:v>
@@ -36387,8 +36597,8 @@
       <x:c r="X176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y176" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y176" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z176" t="s">
         <x:v>1</x:v>
@@ -36408,14 +36618,14 @@
       <x:c r="AE176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF176" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF176" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AG176" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AH176" t="s">
-        <x:v>1</x:v>
+      <x:c r="AH176" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AI176" t="s">
         <x:v>1</x:v>
@@ -36453,8 +36663,8 @@
       <x:c r="AT176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU176" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV176" t="s">
         <x:v>1</x:v>
@@ -36483,17 +36693,17 @@
       <x:c r="BD176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE176" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF176" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE176" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH176" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI176" t="s">
         <x:v>1</x:v>
@@ -36516,223 +36726,19 @@
       <x:c r="BO176" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP176" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ176" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP176" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ176" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR176" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="177">
-      <x:c r="A177" s="4" t="s">
-        <x:v>345</x:v>
-      </x:c>
-      <x:c r="B177" s="5" t="s">
-        <x:v>346</x:v>
-      </x:c>
-      <x:c r="C177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO177" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP177" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ177" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A177" s="3" t="s">
+        <x:v>344</x:v>
       </x:c>
       <x:c r="BR177" t="s">
         <x:v>1</x:v>
@@ -36740,10 +36746,10 @@
     </x:row>
     <x:row r="178">
       <x:c r="A178" s="4" t="s">
-        <x:v>347</x:v>
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B178" s="5" t="s">
-        <x:v>348</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="C178" t="s">
         <x:v>1</x:v>
@@ -36835,8 +36841,8 @@
       <x:c r="AF178" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG178" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG178" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH178" t="s">
         <x:v>1</x:v>
@@ -36952,10 +36958,10 @@
     </x:row>
     <x:row r="179">
       <x:c r="A179" s="4" t="s">
-        <x:v>349</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B179" s="5" t="s">
-        <x:v>350</x:v>
+        <x:v>348</x:v>
       </x:c>
       <x:c r="C179" t="s">
         <x:v>1</x:v>
@@ -37020,8 +37026,8 @@
       <x:c r="W179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X179" t="s">
-        <x:v>1</x:v>
+      <x:c r="X179" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y179" t="s">
         <x:v>1</x:v>
@@ -37119,11 +37125,11 @@
       <x:c r="BD179" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE179" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF179" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE179" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF179" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG179" t="s">
         <x:v>1</x:v>
@@ -37164,7 +37170,7 @@
     </x:row>
     <x:row r="180">
       <x:c r="A180" s="4" t="s">
-        <x:v>351</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="B180" s="5" t="s">
         <x:v>350</x:v>
@@ -37208,11 +37214,11 @@
       <x:c r="O180" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P180" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q180" t="s">
-        <x:v>1</x:v>
+      <x:c r="P180" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q180" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R180" t="s">
         <x:v>1</x:v>
@@ -37265,8 +37271,8 @@
       <x:c r="AH180" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI180" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AI180" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ180" t="s">
         <x:v>1</x:v>
@@ -37376,11 +37382,11 @@
     </x:row>
     <x:row r="181">
       <x:c r="A181" s="4" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B181" s="5" t="s">
         <x:v>352</x:v>
       </x:c>
-      <x:c r="B181" s="5" t="s">
-        <x:v>353</x:v>
-      </x:c>
       <x:c r="C181" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -37420,11 +37426,11 @@
       <x:c r="O181" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P181" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q181" t="s">
-        <x:v>1</x:v>
+      <x:c r="P181" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q181" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R181" t="s">
         <x:v>1</x:v>
@@ -37471,8 +37477,8 @@
       <x:c r="AF181" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG181" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG181" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH181" t="s">
         <x:v>1</x:v>
@@ -37513,8 +37519,8 @@
       <x:c r="AT181" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU181" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU181" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV181" t="s">
         <x:v>1</x:v>
@@ -37543,17 +37549,17 @@
       <x:c r="BD181" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE181" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF181" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE181" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF181" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG181" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH181" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH181" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI181" t="s">
         <x:v>1</x:v>
@@ -37576,19 +37582,223 @@
       <x:c r="BO181" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP181" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ181" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP181" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ181" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR181" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="182">
-      <x:c r="A182" s="3" t="s">
-        <x:v>354</x:v>
+      <x:c r="A182" s="4" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="B182" s="5" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO182" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP182" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ182" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR182" t="s">
         <x:v>1</x:v>
@@ -37596,646 +37806,442 @@
     </x:row>
     <x:row r="183">
       <x:c r="A183" s="4" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B183" s="5" t="s">
         <x:v>355</x:v>
       </x:c>
-      <x:c r="B183" s="5" t="s">
-        <x:v>356</x:v>
-      </x:c>
-      <x:c r="C183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="N183" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="C183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N183" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="O183" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="T183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="U183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="W183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AS183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AT183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BB183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BJ183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BK183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BM183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BN183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BO183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BP183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ183" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BR183" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ183" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR183" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="184">
-      <x:c r="A184" s="4" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="B184" s="5" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="C184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="N184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="O184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="T184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="U184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AS184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AT184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BB184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BJ184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BK184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL184" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BN184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BO184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BP184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ184" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BR184" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A184" s="3" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="BR184" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185">
       <x:c r="A185" s="4" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="B185" s="5" t="s">
         <x:v>358</x:v>
       </x:c>
-      <x:c r="B185" s="5" t="s">
-        <x:v>357</x:v>
-      </x:c>
-      <x:c r="C185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB185" t="s">
-        <x:v>1</x:v>
+      <x:c r="C185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="O185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="S185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="U185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="V185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="W185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB185" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC185" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AD185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ185" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR185" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AT185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AY185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BJ185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BK185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BL185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BN185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BO185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BP185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ185" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR185" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="186">
       <x:c r="A186" s="4" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B186" s="5" t="s">
         <x:v>359</x:v>
-      </x:c>
-      <x:c r="B186" s="5" t="s">
-        <x:v>360</x:v>
       </x:c>
       <x:c r="C186" s="6" t="s">
         <x:v>78</x:v>
@@ -38444,10 +38450,10 @@
     </x:row>
     <x:row r="187">
       <x:c r="A187" s="4" t="s">
-        <x:v>361</x:v>
+        <x:v>360</x:v>
       </x:c>
       <x:c r="B187" s="5" t="s">
-        <x:v>360</x:v>
+        <x:v>359</x:v>
       </x:c>
       <x:c r="C187" t="s">
         <x:v>1</x:v>
@@ -38656,11 +38662,11 @@
     </x:row>
     <x:row r="188">
       <x:c r="A188" s="4" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="B188" s="5" t="s">
         <x:v>362</x:v>
       </x:c>
-      <x:c r="B188" s="5" t="s">
-        <x:v>363</x:v>
-      </x:c>
       <x:c r="C188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
@@ -38694,8 +38700,8 @@
       <x:c r="M188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="N188" t="s">
-        <x:v>1</x:v>
+      <x:c r="N188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="O188" s="6" t="s">
         <x:v>78</x:v>
@@ -38724,8 +38730,8 @@
       <x:c r="W188" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="X188" t="s">
-        <x:v>1</x:v>
+      <x:c r="X188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Y188" s="6" t="s">
         <x:v>78</x:v>
@@ -38736,8 +38742,8 @@
       <x:c r="AA188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AB188" t="s">
-        <x:v>1</x:v>
+      <x:c r="AB188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AC188" t="s">
         <x:v>1</x:v>
@@ -38838,11 +38844,11 @@
       <x:c r="BI188" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BJ188" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK188" t="s">
-        <x:v>1</x:v>
+      <x:c r="BJ188" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BK188" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BL188" t="s">
         <x:v>1</x:v>
@@ -38868,10 +38874,10 @@
     </x:row>
     <x:row r="189">
       <x:c r="A189" s="4" t="s">
-        <x:v>364</x:v>
+        <x:v>363</x:v>
       </x:c>
       <x:c r="B189" s="5" t="s">
-        <x:v>365</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="C189" t="s">
         <x:v>1</x:v>
@@ -38879,8 +38885,8 @@
       <x:c r="D189" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E189" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="E189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="F189" t="s">
         <x:v>1</x:v>
@@ -38888,8 +38894,8 @@
       <x:c r="G189" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="H189" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="H189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="I189" t="s">
         <x:v>1</x:v>
@@ -38927,29 +38933,29 @@
       <x:c r="T189" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="U189" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V189" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="W189" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X189" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="U189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W189" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Y189" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Z189" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Z189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AA189" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AB189" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AB189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AC189" s="6" t="s">
         <x:v>78</x:v>
@@ -39056,8 +39062,8 @@
       <x:c r="BK189" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL189" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BL189" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM189" t="s">
         <x:v>1</x:v>
@@ -39080,43 +39086,43 @@
     </x:row>
     <x:row r="190">
       <x:c r="A190" s="4" t="s">
-        <x:v>366</x:v>
+        <x:v>364</x:v>
       </x:c>
       <x:c r="B190" s="5" t="s">
-        <x:v>367</x:v>
-      </x:c>
-      <x:c r="C190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D190" t="s">
-        <x:v>1</x:v>
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="C190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G190" t="s">
-        <x:v>1</x:v>
+      <x:c r="F190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="I190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M190" t="s">
-        <x:v>1</x:v>
+      <x:c r="I190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N190" t="s">
         <x:v>1</x:v>
@@ -39124,20 +39130,20 @@
       <x:c r="O190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T190" t="s">
-        <x:v>1</x:v>
+      <x:c r="P190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="S190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="U190" t="s">
         <x:v>1</x:v>
@@ -39157,8 +39163,8 @@
       <x:c r="Z190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AA190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AA190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AB190" t="s">
         <x:v>1</x:v>
@@ -39166,17 +39172,17 @@
       <x:c r="AC190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AD190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AD190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH190" s="6" t="s">
         <x:v>78</x:v>
@@ -39184,65 +39190,65 @@
       <x:c r="AI190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AJ190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AJ190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AT190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AY190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AZ190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC190" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BD190" s="6" t="s">
         <x:v>78</x:v>
@@ -39253,8 +39259,8 @@
       <x:c r="BF190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BH190" s="6" t="s">
         <x:v>78</x:v>
@@ -39268,8 +39274,8 @@
       <x:c r="BK190" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL190" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BL190" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM190" s="6" t="s">
         <x:v>78</x:v>
@@ -39277,22 +39283,226 @@
       <x:c r="BN190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BO190" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BO190" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BP190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ190" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR190" t="s">
-        <x:v>1</x:v>
+      <x:c r="BR190" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="191">
-      <x:c r="A191" s="3" t="s">
-        <x:v>368</x:v>
+      <x:c r="A191" s="4" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B191" s="5" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="C191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="V191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="W191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL191" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP191" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ191" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR191" t="s">
         <x:v>1</x:v>
@@ -39300,13 +39510,13 @@
     </x:row>
     <x:row r="192">
       <x:c r="A192" s="4" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="B192" s="5" t="s">
         <x:v>369</x:v>
       </x:c>
-      <x:c r="B192" s="5" t="s">
-        <x:v>370</x:v>
-      </x:c>
-      <x:c r="C192" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="C192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D192" t="s">
         <x:v>1</x:v>
@@ -39344,11 +39554,11 @@
       <x:c r="O192" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P192" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q192" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R192" t="s">
         <x:v>1</x:v>
@@ -39392,11 +39602,11 @@
       <x:c r="AE192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF192" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG192" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF192" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH192" s="6" t="s">
         <x:v>78</x:v>
@@ -39437,8 +39647,8 @@
       <x:c r="AT192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU192" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV192" t="s">
         <x:v>1</x:v>
@@ -39479,8 +39689,8 @@
       <x:c r="BH192" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BI192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BI192" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BJ192" t="s">
         <x:v>1</x:v>
@@ -39488,20 +39698,20 @@
       <x:c r="BK192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM192" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN192" t="s">
-        <x:v>1</x:v>
+      <x:c r="BL192" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM192" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BN192" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BO192" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP192" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP192" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ192" s="6" t="s">
         <x:v>78</x:v>
@@ -39511,212 +39721,8 @@
       </x:c>
     </x:row>
     <x:row r="193">
-      <x:c r="A193" s="4" t="s">
-        <x:v>371</x:v>
-      </x:c>
-      <x:c r="B193" s="5" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="C193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO193" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP193" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ193" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A193" s="3" t="s">
+        <x:v>370</x:v>
       </x:c>
       <x:c r="BR193" t="s">
         <x:v>1</x:v>
@@ -39724,10 +39730,10 @@
     </x:row>
     <x:row r="194">
       <x:c r="A194" s="4" t="s">
-        <x:v>373</x:v>
+        <x:v>371</x:v>
       </x:c>
       <x:c r="B194" s="5" t="s">
-        <x:v>374</x:v>
+        <x:v>372</x:v>
       </x:c>
       <x:c r="C194" s="6" t="s">
         <x:v>78</x:v>
@@ -39888,8 +39894,8 @@
       <x:c r="BC194" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD194" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD194" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE194" s="6" t="s">
         <x:v>78</x:v>
@@ -39936,10 +39942,10 @@
     </x:row>
     <x:row r="195">
       <x:c r="A195" s="4" t="s">
-        <x:v>375</x:v>
+        <x:v>373</x:v>
       </x:c>
       <x:c r="B195" s="5" t="s">
-        <x:v>376</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C195" s="6" t="s">
         <x:v>78</x:v>
@@ -39977,8 +39983,8 @@
       <x:c r="N195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O195" t="s">
-        <x:v>1</x:v>
+      <x:c r="O195" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P195" t="s">
         <x:v>1</x:v>
@@ -40073,8 +40079,8 @@
       <x:c r="AT195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU195" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU195" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV195" t="s">
         <x:v>1</x:v>
@@ -40100,14 +40106,14 @@
       <x:c r="BC195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BD195" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE195" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF195" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD195" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE195" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF195" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG195" t="s">
         <x:v>1</x:v>
@@ -40136,11 +40142,11 @@
       <x:c r="BO195" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP195" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ195" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP195" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ195" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR195" t="s">
         <x:v>1</x:v>
@@ -40148,13 +40154,13 @@
     </x:row>
     <x:row r="196">
       <x:c r="A196" s="4" t="s">
-        <x:v>377</x:v>
+        <x:v>375</x:v>
       </x:c>
       <x:c r="B196" s="5" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="C196" t="s">
-        <x:v>1</x:v>
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D196" t="s">
         <x:v>1</x:v>
@@ -40240,8 +40246,8 @@
       <x:c r="AE196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF196" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AG196" s="6" t="s">
         <x:v>78</x:v>
@@ -40249,8 +40255,8 @@
       <x:c r="AH196" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AI196" t="s">
-        <x:v>1</x:v>
+      <x:c r="AI196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ196" t="s">
         <x:v>1</x:v>
@@ -40315,11 +40321,11 @@
       <x:c r="BD196" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE196" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF196" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE196" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF196" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG196" t="s">
         <x:v>1</x:v>
@@ -40360,13 +40366,13 @@
     </x:row>
     <x:row r="197">
       <x:c r="A197" s="4" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="B197" s="5" t="s">
         <x:v>378</x:v>
       </x:c>
-      <x:c r="B197" s="5" t="s">
-        <x:v>372</x:v>
-      </x:c>
-      <x:c r="C197" t="s">
-        <x:v>1</x:v>
+      <x:c r="C197" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D197" t="s">
         <x:v>1</x:v>
@@ -40401,14 +40407,14 @@
       <x:c r="N197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O197" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P197" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R197" t="s">
         <x:v>1</x:v>
@@ -40431,8 +40437,8 @@
       <x:c r="X197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z197" t="s">
         <x:v>1</x:v>
@@ -40455,14 +40461,14 @@
       <x:c r="AF197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG197" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH197" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AG197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ197" t="s">
         <x:v>1</x:v>
@@ -40497,8 +40503,8 @@
       <x:c r="AT197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV197" t="s">
         <x:v>1</x:v>
@@ -40509,8 +40515,8 @@
       <x:c r="AX197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AY197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ197" t="s">
         <x:v>1</x:v>
@@ -40536,8 +40542,8 @@
       <x:c r="BG197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI197" t="s">
         <x:v>1</x:v>
@@ -40560,11 +40566,11 @@
       <x:c r="BO197" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP197" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ197" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP197" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ197" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR197" t="s">
         <x:v>1</x:v>
@@ -40575,7 +40581,7 @@
         <x:v>379</x:v>
       </x:c>
       <x:c r="B198" s="5" t="s">
-        <x:v>380</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C198" t="s">
         <x:v>1</x:v>
@@ -40643,8 +40649,8 @@
       <x:c r="X198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y198" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y198" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z198" t="s">
         <x:v>1</x:v>
@@ -40667,11 +40673,11 @@
       <x:c r="AF198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG198" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH198" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG198" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH198" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AI198" t="s">
         <x:v>1</x:v>
@@ -40721,8 +40727,8 @@
       <x:c r="AX198" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY198" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY198" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ198" t="s">
         <x:v>1</x:v>
@@ -40784,10 +40790,10 @@
     </x:row>
     <x:row r="199">
       <x:c r="A199" s="4" t="s">
-        <x:v>381</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="B199" s="5" t="s">
-        <x:v>382</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="C199" t="s">
         <x:v>1</x:v>
@@ -40855,8 +40861,8 @@
       <x:c r="X199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y199" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z199" t="s">
         <x:v>1</x:v>
@@ -40879,14 +40885,14 @@
       <x:c r="AF199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH199" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI199" t="s">
-        <x:v>1</x:v>
+      <x:c r="AG199" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH199" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AJ199" t="s">
         <x:v>1</x:v>
@@ -40933,8 +40939,8 @@
       <x:c r="AX199" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY199" t="s">
-        <x:v>1</x:v>
+      <x:c r="AY199" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AZ199" t="s">
         <x:v>1</x:v>
@@ -40996,10 +41002,10 @@
     </x:row>
     <x:row r="200">
       <x:c r="A200" s="4" t="s">
-        <x:v>383</x:v>
+        <x:v>381</x:v>
       </x:c>
       <x:c r="B200" s="5" t="s">
-        <x:v>384</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="C200" t="s">
         <x:v>1</x:v>
@@ -41091,8 +41097,8 @@
       <x:c r="AF200" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AG200" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AG200" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH200" t="s">
         <x:v>1</x:v>
@@ -41163,11 +41169,11 @@
       <x:c r="BD200" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE200" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF200" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE200" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF200" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG200" t="s">
         <x:v>1</x:v>
@@ -41208,10 +41214,10 @@
     </x:row>
     <x:row r="201">
       <x:c r="A201" s="4" t="s">
-        <x:v>385</x:v>
+        <x:v>383</x:v>
       </x:c>
       <x:c r="B201" s="5" t="s">
-        <x:v>386</x:v>
+        <x:v>384</x:v>
       </x:c>
       <x:c r="C201" t="s">
         <x:v>1</x:v>
@@ -41252,11 +41258,11 @@
       <x:c r="O201" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P201" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q201" t="s">
-        <x:v>1</x:v>
+      <x:c r="P201" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q201" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R201" t="s">
         <x:v>1</x:v>
@@ -41345,8 +41351,8 @@
       <x:c r="AT201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AU201" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU201" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV201" t="s">
         <x:v>1</x:v>
@@ -41384,8 +41390,8 @@
       <x:c r="BG201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH201" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH201" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI201" t="s">
         <x:v>1</x:v>
@@ -41408,8 +41414,8 @@
       <x:c r="BO201" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP201" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP201" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BQ201" s="6" t="s">
         <x:v>78</x:v>
@@ -41419,8 +41425,212 @@
       </x:c>
     </x:row>
     <x:row r="202">
-      <x:c r="A202" s="3" t="s">
-        <x:v>387</x:v>
+      <x:c r="A202" s="4" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="B202" s="5" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="C202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO202" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP202" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ202" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR202" t="s">
         <x:v>1</x:v>
@@ -41428,11 +41638,11 @@
     </x:row>
     <x:row r="203">
       <x:c r="A203" s="4" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B203" s="5" t="s">
         <x:v>388</x:v>
       </x:c>
-      <x:c r="B203" s="5" t="s">
-        <x:v>389</x:v>
-      </x:c>
       <x:c r="C203" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -41472,11 +41682,11 @@
       <x:c r="O203" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P203" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="R203" t="s">
         <x:v>1</x:v>
@@ -41499,8 +41709,8 @@
       <x:c r="X203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="Z203" t="s">
         <x:v>1</x:v>
@@ -41520,17 +41730,17 @@
       <x:c r="AE203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF203" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AF203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AH203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AI203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AJ203" t="s">
         <x:v>1</x:v>
@@ -41562,11 +41772,11 @@
       <x:c r="AS203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT203" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AT203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV203" t="s">
         <x:v>1</x:v>
@@ -41595,17 +41805,17 @@
       <x:c r="BD203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE203" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE203" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BH203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI203" t="s">
         <x:v>1</x:v>
@@ -41628,8 +41838,8 @@
       <x:c r="BO203" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP203" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP203" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ203" s="6" t="s">
         <x:v>78</x:v>
@@ -41639,212 +41849,8 @@
       </x:c>
     </x:row>
     <x:row r="204">
-      <x:c r="A204" s="4" t="s">
-        <x:v>390</x:v>
-      </x:c>
-      <x:c r="B204" s="5" t="s">
-        <x:v>391</x:v>
-      </x:c>
-      <x:c r="C204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O204" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="P204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH204" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP204" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ204" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="A204" s="3" t="s">
+        <x:v>389</x:v>
       </x:c>
       <x:c r="BR204" t="s">
         <x:v>1</x:v>
@@ -41852,10 +41858,10 @@
     </x:row>
     <x:row r="205">
       <x:c r="A205" s="4" t="s">
-        <x:v>392</x:v>
+        <x:v>390</x:v>
       </x:c>
       <x:c r="B205" s="5" t="s">
-        <x:v>393</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="C205" t="s">
         <x:v>1</x:v>
@@ -41896,11 +41902,11 @@
       <x:c r="O205" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q205" t="s">
-        <x:v>1</x:v>
+      <x:c r="P205" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="R205" t="s">
         <x:v>1</x:v>
@@ -41986,11 +41992,11 @@
       <x:c r="AS205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU205" t="s">
-        <x:v>1</x:v>
+      <x:c r="AT205" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AV205" t="s">
         <x:v>1</x:v>
@@ -42019,17 +42025,17 @@
       <x:c r="BD205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BE205" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BG205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BH205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BH205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BI205" t="s">
         <x:v>1</x:v>
@@ -42052,11 +42058,11 @@
       <x:c r="BO205" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP205" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ205" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP205" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ205" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BR205" t="s">
         <x:v>1</x:v>
@@ -42064,10 +42070,10 @@
     </x:row>
     <x:row r="206">
       <x:c r="A206" s="4" t="s">
-        <x:v>394</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B206" s="5" t="s">
-        <x:v>395</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="C206" t="s">
         <x:v>1</x:v>
@@ -42099,8 +42105,8 @@
       <x:c r="L206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="M206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="M206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N206" t="s">
         <x:v>1</x:v>
@@ -42198,11 +42204,11 @@
       <x:c r="AS206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AT206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AV206" t="s">
         <x:v>1</x:v>
@@ -42222,20 +42228,20 @@
       <x:c r="BA206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BB206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BB206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BD206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BE206" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BE206" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BG206" t="s">
         <x:v>1</x:v>
@@ -42255,8 +42261,8 @@
       <x:c r="BL206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BM206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BM206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BN206" t="s">
         <x:v>1</x:v>
@@ -42264,8 +42270,8 @@
       <x:c r="BO206" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP206" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP206" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BQ206" s="6" t="s">
         <x:v>78</x:v>
@@ -42276,16 +42282,16 @@
     </x:row>
     <x:row r="207">
       <x:c r="A207" s="4" t="s">
-        <x:v>396</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B207" s="5" t="s">
-        <x:v>397</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="C207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="D207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E207" t="s">
         <x:v>1</x:v>
@@ -42302,14 +42308,14 @@
       <x:c r="I207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="J207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M207" t="s">
         <x:v>1</x:v>
@@ -42347,8 +42353,8 @@
       <x:c r="X207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y207" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="Z207" t="s">
         <x:v>1</x:v>
@@ -42368,44 +42374,44 @@
       <x:c r="AE207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AF207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG207" t="s">
-        <x:v>1</x:v>
+      <x:c r="AF207" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG207" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AH207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AI207" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AI207" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS207" t="s">
         <x:v>1</x:v>
@@ -42428,11 +42434,11 @@
       <x:c r="AY207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AZ207" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AZ207" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB207" t="s">
         <x:v>1</x:v>
@@ -42458,8 +42464,8 @@
       <x:c r="BI207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BJ207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BJ207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BK207" t="s">
         <x:v>1</x:v>
@@ -42470,8 +42476,8 @@
       <x:c r="BM207" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN207" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BN207" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO207" t="s">
         <x:v>1</x:v>
@@ -42488,40 +42494,40 @@
     </x:row>
     <x:row r="208">
       <x:c r="A208" s="4" t="s">
-        <x:v>398</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B208" s="5" t="s">
-        <x:v>399</x:v>
-      </x:c>
-      <x:c r="C208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="I208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="J208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="K208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L208" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="C208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="M208" s="6" t="s">
         <x:v>78</x:v>
@@ -42532,95 +42538,95 @@
       <x:c r="O208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="P208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Q208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="R208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="S208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="T208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="U208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="V208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="W208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="X208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Y208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AS208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="P208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AT208" s="6" t="s">
         <x:v>78</x:v>
@@ -42628,23 +42634,23 @@
       <x:c r="AU208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AV208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ208" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AV208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ208" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BB208" s="6" t="s">
         <x:v>78</x:v>
@@ -42652,8 +42658,8 @@
       <x:c r="BC208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BD208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BD208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE208" s="6" t="s">
         <x:v>78</x:v>
@@ -42661,14 +42667,14 @@
       <x:c r="BF208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BG208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BH208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BI208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BI208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BJ208" t="s">
         <x:v>1</x:v>
@@ -42676,8 +42682,8 @@
       <x:c r="BK208" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BL208" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BM208" s="6" t="s">
         <x:v>78</x:v>
@@ -42694,22 +42700,22 @@
       <x:c r="BQ208" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR208" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BR208" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="209">
       <x:c r="A209" s="4" t="s">
-        <x:v>400</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B209" s="5" t="s">
-        <x:v>401</x:v>
+        <x:v>399</x:v>
       </x:c>
       <x:c r="C209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D209" t="s">
-        <x:v>1</x:v>
+      <x:c r="D209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E209" t="s">
         <x:v>1</x:v>
@@ -42726,23 +42732,23 @@
       <x:c r="I209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L209" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="J209" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K209" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L209" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O209" t="s">
-        <x:v>1</x:v>
+      <x:c r="O209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="P209" t="s">
         <x:v>1</x:v>
@@ -42771,41 +42777,41 @@
       <x:c r="X209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ209" t="s">
-        <x:v>1</x:v>
+      <x:c r="Y209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AK209" s="6" t="s">
         <x:v>78</x:v>
@@ -42813,20 +42819,20 @@
       <x:c r="AL209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AM209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AM209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AN209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AO209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AO209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AP209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AQ209" t="s">
-        <x:v>1</x:v>
+      <x:c r="AQ209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AR209" s="6" t="s">
         <x:v>78</x:v>
@@ -42834,23 +42840,23 @@
       <x:c r="AS209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AT209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AU209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AX209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AY209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AT209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AZ209" s="6" t="s">
         <x:v>78</x:v>
@@ -42858,32 +42864,32 @@
       <x:c r="BA209" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BB209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BE209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BF209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BG209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BI209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BJ209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BB209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BK209" t="s">
         <x:v>1</x:v>
@@ -42894,17 +42900,17 @@
       <x:c r="BM209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BN209" t="s">
-        <x:v>1</x:v>
+      <x:c r="BN209" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BO209" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP209" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ209" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP209" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ209" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR209" t="s">
         <x:v>1</x:v>
@@ -42912,172 +42918,172 @@
     </x:row>
     <x:row r="210">
       <x:c r="A210" s="4" t="s">
-        <x:v>402</x:v>
+        <x:v>400</x:v>
       </x:c>
       <x:c r="B210" s="5" t="s">
-        <x:v>403</x:v>
-      </x:c>
-      <x:c r="C210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M210" t="s">
-        <x:v>1</x:v>
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="C210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="E210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="G210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="J210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="K210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M210" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="N210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS210" t="s">
-        <x:v>1</x:v>
+      <x:c r="O210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Q210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="R210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="S210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="T210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="U210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="V210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="W210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="X210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Y210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS210" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AT210" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AU210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD210" t="s">
-        <x:v>1</x:v>
+      <x:c r="AU210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AY210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD210" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE210" s="6" t="s">
         <x:v>78</x:v>
@@ -43085,14 +43091,14 @@
       <x:c r="BF210" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI210" t="s">
-        <x:v>1</x:v>
+      <x:c r="BG210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI210" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BJ210" t="s">
         <x:v>1</x:v>
@@ -43112,22 +43118,22 @@
       <x:c r="BO210" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ210" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR210" t="s">
-        <x:v>1</x:v>
+      <x:c r="BP210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ210" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR210" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="211">
       <x:c r="A211" s="4" t="s">
-        <x:v>404</x:v>
+        <x:v>402</x:v>
       </x:c>
       <x:c r="B211" s="5" t="s">
-        <x:v>405</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="C211" t="s">
         <x:v>1</x:v>
@@ -43165,8 +43171,8 @@
       <x:c r="N211" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="O211" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="O211" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="P211" t="s">
         <x:v>1</x:v>
@@ -43231,26 +43237,26 @@
       <x:c r="AJ211" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AK211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL211" t="s">
-        <x:v>1</x:v>
+      <x:c r="AK211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL211" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AM211" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AN211" t="s">
-        <x:v>1</x:v>
+      <x:c r="AN211" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AO211" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AP211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ211" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AP211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ211" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AR211" s="6" t="s">
         <x:v>78</x:v>
@@ -43264,8 +43270,8 @@
       <x:c r="AU211" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AV211" t="s">
-        <x:v>1</x:v>
+      <x:c r="AV211" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="AW211" s="6" t="s">
         <x:v>78</x:v>
@@ -43276,11 +43282,11 @@
       <x:c r="AY211" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AZ211" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA211" t="s">
-        <x:v>1</x:v>
+      <x:c r="AZ211" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA211" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BB211" s="6" t="s">
         <x:v>78</x:v>
@@ -43288,8 +43294,8 @@
       <x:c r="BC211" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BD211" t="s">
-        <x:v>1</x:v>
+      <x:c r="BD211" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BE211" s="6" t="s">
         <x:v>78</x:v>
@@ -43309,17 +43315,17 @@
       <x:c r="BJ211" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BK211" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BL211" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BM211" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BN211" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BK211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM211" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN211" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BO211" t="s">
         <x:v>1</x:v>
@@ -43330,16 +43336,16 @@
       <x:c r="BQ211" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BR211" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BR211" t="s">
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="212">
       <x:c r="A212" s="4" t="s">
-        <x:v>406</x:v>
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B212" s="5" t="s">
-        <x:v>407</x:v>
+        <x:v>405</x:v>
       </x:c>
       <x:c r="C212" t="s">
         <x:v>1</x:v>
@@ -43365,14 +43371,14 @@
       <x:c r="J212" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="K212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="L212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="M212" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="K212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M212" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="N212" t="s">
         <x:v>1</x:v>
@@ -43407,65 +43413,65 @@
       <x:c r="X212" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="Y212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="Z212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AA212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AB212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AC212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AD212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AE212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AF212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AG212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AH212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AI212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AJ212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AK212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AL212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AM212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AN212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AO212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AP212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AQ212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AR212" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="Y212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR212" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AS212" t="s">
         <x:v>1</x:v>
@@ -43473,35 +43479,35 @@
       <x:c r="AT212" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="AU212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AV212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AW212" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AU212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW212" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="AX212" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="AY212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="AZ212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BA212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BB212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BC212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BD212" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="AY212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD212" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BE212" s="6" t="s">
         <x:v>78</x:v>
@@ -43509,11 +43515,11 @@
       <x:c r="BF212" s="6" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="BG212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BH212" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BG212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH212" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BI212" t="s">
         <x:v>1</x:v>
@@ -43524,11 +43530,11 @@
       <x:c r="BK212" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BL212" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM212" t="s">
-        <x:v>1</x:v>
+      <x:c r="BL212" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM212" s="6" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="BN212" t="s">
         <x:v>1</x:v>
@@ -43536,225 +43542,649 @@
       <x:c r="BO212" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="BP212" s="6" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="BQ212" s="6" t="s">
-        <x:v>78</x:v>
+      <x:c r="BP212" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ212" t="s">
+        <x:v>1</x:v>
       </x:c>
       <x:c r="BR212" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="213">
-      <x:c r="A213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="H213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="I213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="J213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="K213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="L213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="M213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="N213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="O213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="P213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Q213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="R213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="S213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="T213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="U213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="V213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="W213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="X213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Y213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="Z213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AA213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AB213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AC213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AD213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AE213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AF213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AG213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AH213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AI213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AJ213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AK213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AL213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AM213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AN213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AO213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AP213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AQ213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AR213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AS213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AT213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AU213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AV213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AW213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AX213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AY213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="AZ213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BA213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BB213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BC213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BD213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BE213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BF213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BG213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BH213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BI213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BJ213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BK213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BL213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BM213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BN213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BO213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BP213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BQ213" s="7" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="BR213" s="7" t="s">
+      <x:c r="A213" s="4" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B213" s="5" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="C213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="P213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AY213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BJ213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BL213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BM213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BN213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BO213" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR213" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="214">
+      <x:c r="A214" s="4" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="B214" s="5" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="C214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="M214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="N214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="Z214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AA214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AB214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AC214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AD214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AE214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AF214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AG214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AH214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AI214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AJ214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AK214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AL214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AM214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AN214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AO214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AP214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AQ214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AR214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AS214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AU214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AV214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AW214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AX214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="AZ214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BA214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BB214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BC214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BD214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BE214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BF214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BG214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BH214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BI214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BQ214" s="6" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="BR214" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="215">
+      <x:c r="A215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ215" s="7" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BR215" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
@@ -43796,10 +44226,10 @@
     <x:mergeCell ref="A123:BR123"/>
     <x:mergeCell ref="A138:BR138"/>
     <x:mergeCell ref="A162:BR162"/>
-    <x:mergeCell ref="A175:BR175"/>
-    <x:mergeCell ref="A182:BR182"/>
-    <x:mergeCell ref="A191:BR191"/>
-    <x:mergeCell ref="A202:BR202"/>
+    <x:mergeCell ref="A177:BR177"/>
+    <x:mergeCell ref="A184:BR184"/>
+    <x:mergeCell ref="A193:BR193"/>
+    <x:mergeCell ref="A204:BR204"/>
   </x:mergeCells>
 </x:worksheet>
 </file>